--- a/codebooks/codebook-meta-analyses-complete.xlsx
+++ b/codebooks/codebook-meta-analyses-complete.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW34"/>
+  <dimension ref="A1:BV34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,310 +425,305 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>recalc.cat</t>
+          <t>model</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>software</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>estimator</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>estimator</t>
+          <t>subgroup</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>subgroup</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>pubmet1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>pubmet1</t>
+          <t>pubmet2</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>pubmet2</t>
+          <t>pubmet3</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>pubmet3</t>
+          <t>pubmet4</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>pubmet4</t>
+          <t>pubfound</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>pubfound</t>
+          <t>out</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>outsep</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>outsep</t>
+          <t>guidelines</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>guidelines</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>depreport</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>depreport</t>
+          <t>depmeasure</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>depmeasure</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>hypo</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hypo</t>
+          <t>eff.co</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>eff.co</t>
+          <t>cilb.co</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>cilb.co</t>
+          <t>ciub.co</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>ciub.co</t>
+          <t>tau2.co</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>tau2.co</t>
+          <t>pval.co</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>pval.co</t>
+          <t>pval.het.co</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pval.het.co</t>
+          <t>eff.cc</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>eff.cc</t>
+          <t>cilb.cc</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>cilb.cc</t>
+          <t>ciub.cc</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>ciub.cc</t>
+          <t>tau2.cc</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>tau2.cc</t>
+          <t>pval.cc</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>pval.cc</t>
+          <t>pval.het.cc</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>pval.het.cc</t>
+          <t>disc.c</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>disc.c</t>
+          <t>disccat.c</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>disccat.c</t>
+          <t>disc.cilb.c</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>disc.cilb.c</t>
+          <t>disc.ciub.c</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>disc.ciub.c</t>
+          <t>disccat.ci.c</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>disccat.ci.c</t>
+          <t>disc.tau2.c</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>disc.tau2.c</t>
+          <t>eff.so</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>eff.so</t>
+          <t>cilb.so</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>cilb.so</t>
+          <t>ciub.so</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>ciub.so</t>
+          <t>tau2.so</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>tau2.so</t>
+          <t>pval.so</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>pval.so</t>
+          <t>pval.het.so</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>pval.het.so</t>
+          <t>krep1</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>krep1</t>
+          <t>percent</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>krep2</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>krep2</t>
+          <t>percent2</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>percent2</t>
+          <t>eff.sc</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>eff.sc</t>
+          <t>cilb.sc</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>cilb.sc</t>
+          <t>ciub.sc</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>ciub.sc</t>
+          <t>tau2.sc</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>tau2.sc</t>
+          <t>pval.sc</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>pval.sc</t>
+          <t>pval.het.sc</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>pval.het.sc</t>
+          <t>disc.s</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>disc.s</t>
+          <t>disccat.s</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>disccat.s</t>
+          <t>disc.cilb.s</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>disc.cilb.s</t>
+          <t>disc.ciub.s</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>disc.ciub.s</t>
+          <t>disccat.ci.s</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>disccat.ci.s</t>
+          <t>disc.tau2.s</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>disc.tau2.s</t>
+          <t>outeff1.s</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>outeff1.s</t>
+          <t>outeff2.s</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>outeff2.s</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>outeff3.s</t>
         </is>
@@ -780,212 +775,209 @@
       <c r="M2">
         <v>0.01912803515427919</v>
       </c>
-      <c r="N2">
-        <v>0</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Egger's test</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Egger's test</t>
+          <t>Fail-safe N</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
       <c r="Y2">
         <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Outliers: Yes, but results only mentioned as a robustness test in passing without reporting results of outlier test. Mentions effect sizes are independent ("A total of 33 research reports yielding 57 independent effect sizes"). Separate analyses with published and unpublished effect sizes.</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Outliers: Yes, but results only mentioned as a robustness test in passing without reporting results of outlier test. Mentions effect sizes are independent ("A total of 33 research reports yielding 57 independent effect sizes"). Separate analyses with published and unpublished effect sizes.</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF2">
+        <v>0.1308719648457208</v>
+      </c>
       <c r="AG2">
-        <v>0.1308719648457208</v>
+        <v>-0.04505071148462991</v>
       </c>
       <c r="AH2">
-        <v>-0.04505071148462991</v>
+        <v>0.3067946411760715</v>
       </c>
       <c r="AI2">
-        <v>0.3067946411760715</v>
+        <v>0.369973131478965</v>
       </c>
       <c r="AJ2">
-        <v>0.369973131478965</v>
+        <v>0.1448263238810364</v>
       </c>
       <c r="AK2">
-        <v>0.1448263238810364</v>
+        <v>6.492362762021189e-049</v>
       </c>
       <c r="AL2">
-        <v>6.492362762021189e-049</v>
+        <v>0.1406325855746536</v>
       </c>
       <c r="AM2">
-        <v>0.1406325855746536</v>
+        <v>-0.04222420617661346</v>
       </c>
       <c r="AN2">
-        <v>-0.04222420617661346</v>
+        <v>0.3234893773259205</v>
       </c>
       <c r="AO2">
-        <v>0.3234893773259205</v>
+        <v>0.4063837804309013</v>
       </c>
       <c r="AP2">
-        <v>0.4063837804309013</v>
+        <v>0.1317130972774199</v>
       </c>
       <c r="AQ2">
-        <v>0.1317130972774199</v>
+        <v>8.214277306192375e-055</v>
       </c>
       <c r="AR2">
-        <v>8.214277306192375e-055</v>
+        <v>-0.009760620728932745</v>
       </c>
       <c r="AS2">
-        <v>-0.009760620728932745</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.002826505308016453</v>
       </c>
       <c r="AU2">
-        <v>0.002826505308016453</v>
+        <v>-0.01669473614984901</v>
       </c>
       <c r="AV2">
-        <v>-0.01669473614984901</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>-0.0364106489519363</v>
       </c>
       <c r="AX2">
-        <v>-0.0364106489519363</v>
+        <v>0.1562812525882797</v>
       </c>
       <c r="AY2">
-        <v>0.1562812525882797</v>
+        <v>-0.2078952938704898</v>
       </c>
       <c r="AZ2">
-        <v>-0.2078952938704898</v>
+        <v>0.5204577990470491</v>
       </c>
       <c r="BA2">
-        <v>0.5204577990470491</v>
+        <v>0.6095238012022537</v>
       </c>
       <c r="BB2">
-        <v>0.6095238012022537</v>
+        <v>0.4002969399016501</v>
       </c>
       <c r="BC2">
-        <v>0.4002969399016501</v>
+        <v>6.538955729783057e-034</v>
       </c>
       <c r="BD2">
-        <v>6.538955729783057e-034</v>
+        <v>20</v>
       </c>
       <c r="BE2">
-        <v>20</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="BF2">
-        <v>35.08771929824561</v>
+        <v>12</v>
       </c>
       <c r="BG2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="BH2">
-        <v>60</v>
+        <v>0.1819052396079618</v>
       </c>
       <c r="BI2">
-        <v>0.1819052396079618</v>
+        <v>-0.2051571811196986</v>
       </c>
       <c r="BJ2">
-        <v>-0.2051571811196986</v>
+        <v>0.5689676603356223</v>
       </c>
       <c r="BK2">
-        <v>0.5689676603356223</v>
+        <v>0.6987483621834335</v>
       </c>
       <c r="BL2">
-        <v>0.6987483621834335</v>
+        <v>0.3569921206392634</v>
       </c>
       <c r="BM2">
-        <v>0.3569921206392634</v>
+        <v>1.75737769591732e-039</v>
       </c>
       <c r="BN2">
-        <v>1.75737769591732e-039</v>
+        <v>-0.02562398701968216</v>
       </c>
       <c r="BO2">
-        <v>-0.02562398701968216</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.002738112750791222</v>
       </c>
       <c r="BQ2">
-        <v>0.002738112750791222</v>
+        <v>-0.04850986128857315</v>
       </c>
       <c r="BR2">
-        <v>-0.04850986128857315</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>-0.08922456098117981</v>
       </c>
       <c r="BT2">
-        <v>-0.08922456098117981</v>
+        <v>4</v>
       </c>
       <c r="BU2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
         <v>0</v>
       </c>
     </row>
@@ -1035,33 +1027,35 @@
       <c r="M3">
         <v>0.00384449463187625</v>
       </c>
-      <c r="N3">
-        <v>0</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FE+RE</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>FE+RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q3">
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>1</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1076,14 +1070,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
       <c r="Y3">
         <v>0</v>
       </c>
@@ -1091,156 +1083,153 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Mention of dependency includes: "Studies as a unit of analysis referred to individual experiments with different participants. Studies, thus, treat multiple experiments reported within a single article as separate studies if they involved different participants. Comparisons were also used as a unit of analysis. Analysis at the level of comparisons refers to counting each individual statistical comparison as an independent contribution." Separate analyses with published and unpublished effect sizes.</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Mention of dependency includes: "Studies as a unit of analysis referred to individual experiments with different participants. Studies, thus, treat multiple experiments reported within a single article as separate studies if they involved different participants. Comparisons were also used as a unit of analysis. Analysis at the level of comparisons refers to counting each individual statistical comparison as an independent contribution." Separate analyses with published and unpublished effect sizes.</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF3">
+        <v>-0.3761555053681238</v>
+      </c>
       <c r="AG3">
-        <v>-0.3761555053681238</v>
+        <v>-0.5224208214452014</v>
       </c>
       <c r="AH3">
-        <v>-0.5224208214452014</v>
+        <v>-0.2298901892910461</v>
       </c>
       <c r="AI3">
-        <v>-0.2298901892910461</v>
+        <v>0.4879821550182738</v>
       </c>
       <c r="AJ3">
-        <v>0.4879821550182738</v>
+        <v>4.643019089893502e-007</v>
       </c>
       <c r="AK3">
-        <v>4.643019089893502e-007</v>
+        <v>9.262450914263852e-098</v>
       </c>
       <c r="AL3">
-        <v>9.262450914263852e-098</v>
+        <v>-0.3879148132390465</v>
       </c>
       <c r="AM3">
-        <v>-0.3879148132390465</v>
+        <v>-0.5329299933321637</v>
       </c>
       <c r="AN3">
-        <v>-0.5329299933321637</v>
+        <v>-0.2428996331459294</v>
       </c>
       <c r="AO3">
-        <v>-0.2428996331459294</v>
+        <v>0.4789888463415034</v>
       </c>
       <c r="AP3">
-        <v>0.4789888463415034</v>
+        <v>1.580782757948433e-007</v>
       </c>
       <c r="AQ3">
-        <v>1.580782757948433e-007</v>
+        <v>1.020879423494623e-095</v>
       </c>
       <c r="AR3">
-        <v>1.020879423494623e-095</v>
+        <v>-0.01175930787092278</v>
       </c>
       <c r="AS3">
-        <v>-0.01175930787092278</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>-0.01050917188696232</v>
       </c>
       <c r="AU3">
-        <v>-0.01050917188696232</v>
+        <v>-0.01300944385488323</v>
       </c>
       <c r="AV3">
-        <v>-0.01300944385488323</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>0.008993308676770451</v>
       </c>
       <c r="AX3">
-        <v>0.008993308676770451</v>
+        <v>-0.5333921041475275</v>
       </c>
       <c r="AY3">
-        <v>-0.5333921041475275</v>
+        <v>-0.9528701967886679</v>
       </c>
       <c r="AZ3">
-        <v>-0.9528701967886679</v>
+        <v>-0.113914011506387</v>
       </c>
       <c r="BA3">
-        <v>-0.113914011506387</v>
+        <v>0.7993012311439749</v>
       </c>
       <c r="BB3">
-        <v>0.7993012311439749</v>
+        <v>0.0126949405517089</v>
       </c>
       <c r="BC3">
-        <v>0.0126949405517089</v>
+        <v>1.341855076837375e-029</v>
       </c>
       <c r="BD3">
-        <v>1.341855076837375e-029</v>
+        <v>20</v>
       </c>
       <c r="BE3">
-        <v>20</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="BF3">
-        <v>18.51851851851852</v>
+        <v>5</v>
       </c>
       <c r="BG3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="BH3">
-        <v>25</v>
+        <v>-0.591452592831206</v>
       </c>
       <c r="BI3">
-        <v>-0.591452592831206</v>
+        <v>-0.9876099426278716</v>
       </c>
       <c r="BJ3">
-        <v>-0.9876099426278716</v>
+        <v>-0.1952952430345404</v>
       </c>
       <c r="BK3">
-        <v>-0.1952952430345404</v>
+        <v>0.7074266730134944</v>
       </c>
       <c r="BL3">
-        <v>0.7074266730134944</v>
+        <v>0.003431577123252183</v>
       </c>
       <c r="BM3">
-        <v>0.003431577123252183</v>
+        <v>3.946088500071615e-026</v>
       </c>
       <c r="BN3">
-        <v>3.946088500071615e-026</v>
+        <v>-0.05806048868367852</v>
       </c>
       <c r="BO3">
-        <v>-0.05806048868367852</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>-0.0347397458392037</v>
       </c>
       <c r="BQ3">
-        <v>-0.0347397458392037</v>
+        <v>-0.08138123152815335</v>
       </c>
       <c r="BR3">
-        <v>-0.08138123152815335</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0.09187455813048051</v>
       </c>
       <c r="BT3">
-        <v>0.09187455813048051</v>
+        <v>7</v>
       </c>
       <c r="BU3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
         <v>0</v>
       </c>
     </row>
@@ -1284,33 +1273,35 @@
       <c r="M4">
         <v>-0.02884114526831705</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
           <t>MoM</t>
         </is>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1325,14 +1316,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -1345,151 +1334,148 @@
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Only published studies included.</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Only published studies included.</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
           <t>Different, prediction is that target population (with brain injury) performs worse than controls.</t>
         </is>
       </c>
+      <c r="AF4">
+        <v>1.138841145268317</v>
+      </c>
       <c r="AG4">
-        <v>1.138841145268317</v>
+        <v>0.8459839581384021</v>
       </c>
       <c r="AH4">
-        <v>0.8459839581384021</v>
+        <v>1.431698332398232</v>
       </c>
       <c r="AI4">
-        <v>1.431698332398232</v>
+        <v>0.1982719592802573</v>
       </c>
       <c r="AJ4">
-        <v>0.1982719592802573</v>
+        <v>2.502371094953902e-014</v>
       </c>
       <c r="AK4">
-        <v>2.502371094953902e-014</v>
+        <v>7.734404553970914e-005</v>
       </c>
       <c r="AL4">
-        <v>7.734404553970914e-005</v>
+        <v>1.13852916074954</v>
       </c>
       <c r="AM4">
-        <v>1.13852916074954</v>
+        <v>0.8462113097903368</v>
       </c>
       <c r="AN4">
-        <v>0.8462113097903368</v>
+        <v>1.430847011708744</v>
       </c>
       <c r="AO4">
-        <v>1.430847011708744</v>
+        <v>0.1972168862320051</v>
       </c>
       <c r="AP4">
-        <v>0.1972168862320051</v>
+        <v>2.280536369169501e-014</v>
       </c>
       <c r="AQ4">
-        <v>2.280536369169501e-014</v>
+        <v>8.183555820890738e-005</v>
       </c>
       <c r="AR4">
-        <v>8.183555820890738e-005</v>
+        <v>0.0003119845187768977</v>
       </c>
       <c r="AS4">
-        <v>0.0003119845187768977</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>-0.0002273516519346597</v>
       </c>
       <c r="AU4">
-        <v>-0.0002273516519346597</v>
+        <v>0.0008513206894884551</v>
       </c>
       <c r="AV4">
-        <v>0.0008513206894884551</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.00105507304825217</v>
       </c>
       <c r="AX4">
-        <v>0.00105507304825217</v>
+        <v>1.059812890573553</v>
       </c>
       <c r="AY4">
-        <v>1.059812890573553</v>
+        <v>0.752443609315065</v>
       </c>
       <c r="AZ4">
-        <v>0.752443609315065</v>
+        <v>1.367182171832042</v>
       </c>
       <c r="BA4">
-        <v>1.367182171832042</v>
+        <v>0.1853540446814108</v>
       </c>
       <c r="BB4">
-        <v>0.1853540446814108</v>
+        <v>1.399299690886427e-011</v>
       </c>
       <c r="BC4">
-        <v>1.399299690886427e-011</v>
+        <v>0.0002588516024590805</v>
       </c>
       <c r="BD4">
-        <v>0.0002588516024590805</v>
+        <v>11</v>
       </c>
       <c r="BE4">
-        <v>11</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="BF4">
-        <v>84.61538461538461</v>
+        <v>10</v>
       </c>
       <c r="BG4">
-        <v>10</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="BH4">
-        <v>90.90909090909091</v>
+        <v>1.059522256259895</v>
       </c>
       <c r="BI4">
-        <v>1.059522256259895</v>
+        <v>0.752845256048617</v>
       </c>
       <c r="BJ4">
-        <v>0.752845256048617</v>
+        <v>1.366199256471172</v>
       </c>
       <c r="BK4">
-        <v>1.366199256471172</v>
+        <v>0.1841503883564577</v>
       </c>
       <c r="BL4">
-        <v>0.1841503883564577</v>
+        <v>1.275627383092645e-011</v>
       </c>
       <c r="BM4">
-        <v>1.275627383092645e-011</v>
+        <v>0.000274350544678529</v>
       </c>
       <c r="BN4">
-        <v>0.000274350544678529</v>
+        <v>0.000290634313658833</v>
       </c>
       <c r="BO4">
-        <v>0.000290634313658833</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>-0.0004016467335519192</v>
       </c>
       <c r="BQ4">
-        <v>-0.0004016467335519192</v>
+        <v>0.0009829153608695851</v>
       </c>
       <c r="BR4">
-        <v>0.0009829153608695851</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.001203656324953173</v>
       </c>
       <c r="BT4">
-        <v>0.001203656324953173</v>
+        <v>3</v>
       </c>
       <c r="BU4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
         <v>0</v>
       </c>
     </row>
@@ -1539,55 +1525,55 @@
       <c r="M5">
         <v>0.002185233841878603</v>
       </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>FE+RE</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>FE+RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
           <t>HO</t>
         </is>
       </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>1</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Egger's test</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Egger's test</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
       <c r="Y5">
         <v>0</v>
       </c>
@@ -1598,153 +1584,150 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1. ("Some studies allowed us to code several effect sizes. However, the effect sizes may be non-independent because they share several methodological features. Therefore, we applied Cooper’s (1998) shifting-units-of-analysis approach to handling non-independent effect sizes when conducting moderator analyses. Using this approach, we averaged over all the effects abstracted from a single study that shared the same study characteristics.")</t>
+        </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1. ("Some studies allowed us to code several effect sizes. However, the effect sizes may be non-independent because they share several methodological features. Therefore, we applied Cooper’s (1998) shifting-units-of-analysis approach to handling non-independent effect sizes when conducting moderator analyses. Using this approach, we averaged over all the effects abstracted from a single study that shared the same study characteristics.")</t>
+          <t>Dependent effects only addressed in context of moderator analysis. Didn’t do supgroup analysis because small sample size. This is the finding of all included studies (including null results). MA states 272 but only reports 270 studies. Contacting authors for unpublished data.</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Dependent effects only addressed in context of moderator analysis. Didn’t do supgroup analysis because small sample size. This is the finding of all included studies (including null results). MA states 272 but only reports 270 studies. Contacting authors for unpublished data.</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
           <t>Null. MA appears to predict only differences for subgroup analyes and null overall effect: "That is to say, the evolutionary perspective (like the sociocultural perspective) suggests that sex differences emerge in response to specific environmental inputs."</t>
         </is>
       </c>
+      <c r="AF5">
+        <v>-0.0378147661581214</v>
+      </c>
       <c r="AG5">
-        <v>-0.0378147661581214</v>
+        <v>-0.07916515081731992</v>
       </c>
       <c r="AH5">
-        <v>-0.07916515081731992</v>
+        <v>0.003535618501077129</v>
       </c>
       <c r="AI5">
-        <v>0.003535618501077129</v>
+        <v>0.0735038107090224</v>
       </c>
       <c r="AJ5">
-        <v>0.0735038107090224</v>
+        <v>0.07307220416179133</v>
       </c>
       <c r="AK5">
-        <v>0.07307220416179133</v>
+        <v>4.136692221951541e-062</v>
       </c>
       <c r="AL5">
-        <v>4.136692221951541e-062</v>
+        <v>-0.03410467598694522</v>
       </c>
       <c r="AM5">
-        <v>-0.03410467598694522</v>
+        <v>-0.07539153367154061</v>
       </c>
       <c r="AN5">
-        <v>-0.07539153367154061</v>
+        <v>0.007182181697650177</v>
       </c>
       <c r="AO5">
-        <v>0.007182181697650177</v>
+        <v>0.07325562467400378</v>
       </c>
       <c r="AP5">
-        <v>0.07325562467400378</v>
+        <v>0.1054445842598102</v>
       </c>
       <c r="AQ5">
-        <v>0.1054445842598102</v>
+        <v>3.226417062894536e-062</v>
       </c>
       <c r="AR5">
-        <v>3.226417062894536e-062</v>
+        <v>0.003710090171176177</v>
       </c>
       <c r="AS5">
-        <v>0.003710090171176177</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.003773617145779312</v>
       </c>
       <c r="AU5">
-        <v>0.003773617145779312</v>
+        <v>-0.003646563196573048</v>
       </c>
       <c r="AV5">
-        <v>-0.003646563196573048</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.0002481860350186244</v>
       </c>
       <c r="AX5">
-        <v>0.0002481860350186244</v>
+        <v>-0.08598258054543848</v>
       </c>
       <c r="AY5">
-        <v>-0.08598258054543848</v>
+        <v>-0.286664848352842</v>
       </c>
       <c r="AZ5">
-        <v>-0.286664848352842</v>
+        <v>0.114699687261965</v>
       </c>
       <c r="BA5">
-        <v>0.114699687261965</v>
+        <v>0.1667565195745302</v>
       </c>
       <c r="BB5">
-        <v>0.1667565195745302</v>
+        <v>0.4010490572186145</v>
       </c>
       <c r="BC5">
-        <v>0.4010490572186145</v>
+        <v>4.04625813435757e-013</v>
       </c>
       <c r="BD5">
-        <v>4.04625813435757e-013</v>
+        <v>21</v>
       </c>
       <c r="BE5">
-        <v>21</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="BF5">
-        <v>7.777777777777778</v>
+        <v>14</v>
       </c>
       <c r="BG5">
-        <v>14</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="BH5">
-        <v>66.66666666666666</v>
+        <v>-0.04402486871470106</v>
       </c>
       <c r="BI5">
-        <v>-0.04402486871470106</v>
+        <v>-0.2435853210225496</v>
       </c>
       <c r="BJ5">
-        <v>-0.2435853210225496</v>
+        <v>0.1555355835931475</v>
       </c>
       <c r="BK5">
-        <v>0.1555355835931475</v>
+        <v>0.1655347618040023</v>
       </c>
       <c r="BL5">
-        <v>0.1655347618040023</v>
+        <v>0.6654608501828523</v>
       </c>
       <c r="BM5">
-        <v>0.6654608501828523</v>
+        <v>5.411081326060387e-014</v>
       </c>
       <c r="BN5">
-        <v>5.411081326060387e-014</v>
+        <v>0.04195771183073742</v>
       </c>
       <c r="BO5">
-        <v>0.04195771183073742</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.04307952733029236</v>
       </c>
       <c r="BQ5">
-        <v>0.04307952733029236</v>
+        <v>-0.04083589633118251</v>
       </c>
       <c r="BR5">
-        <v>-0.04083589633118251</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.001221757770527909</v>
       </c>
       <c r="BT5">
-        <v>0.001221757770527909</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
         <v>0</v>
       </c>
     </row>
@@ -1788,29 +1771,31 @@
       <c r="M6">
         <v>-0.06098286327126495</v>
       </c>
-      <c r="N6">
-        <v>1</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
           <t>HS</t>
         </is>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
       <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1832,10 +1817,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1844,156 +1827,153 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1 . ("Due to the fact that data from multiple outcome measures of the same clients are not independent, the data from outcome measures were aggregated to account for dependence using the methods described by Wampold et al. (1997).")</t>
+        </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1 . ("Due to the fact that data from multiple outcome measures of the same clients are not independent, the data from outcome measures were aggregated to account for dependence using the methods described by Wampold et al. (1997).")</t>
+          <t>Contacting authors for unpublished data</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Contacting authors for unpublished data</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF6">
+        <v>0.380982863271265</v>
+      </c>
       <c r="AG6">
-        <v>0.380982863271265</v>
+        <v>0.2550105541512076</v>
       </c>
       <c r="AH6">
-        <v>0.2550105541512076</v>
+        <v>0.5069551723913224</v>
       </c>
       <c r="AI6">
-        <v>0.5069551723913224</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>3.074055789152601e-009</v>
       </c>
       <c r="AK6">
-        <v>3.074055789152601e-009</v>
+        <v>0.5645685733333544</v>
       </c>
       <c r="AL6">
-        <v>0.5645685733333544</v>
+        <v>0.4715265587122606</v>
       </c>
       <c r="AM6">
-        <v>0.4715265587122606</v>
+        <v>0.3076658136423215</v>
       </c>
       <c r="AN6">
-        <v>0.3076658136423215</v>
+        <v>0.6353873037821998</v>
       </c>
       <c r="AO6">
-        <v>0.6353873037821998</v>
+        <v>0.04868268866027214</v>
       </c>
       <c r="AP6">
-        <v>0.04868268866027214</v>
+        <v>1.700473278303452e-008</v>
       </c>
       <c r="AQ6">
-        <v>1.700473278303452e-008</v>
+        <v>0.004305598411846784</v>
       </c>
       <c r="AR6">
-        <v>0.004305598411846784</v>
+        <v>-0.09054369544099566</v>
       </c>
       <c r="AS6">
-        <v>-0.09054369544099566</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>-0.05265525949111394</v>
       </c>
       <c r="AU6">
-        <v>-0.05265525949111394</v>
+        <v>-0.1284321313908774</v>
       </c>
       <c r="AV6">
-        <v>-0.1284321313908774</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>-0.04868268866027214</v>
       </c>
       <c r="AX6">
-        <v>-0.04868268866027214</v>
+        <v>0.4676881072746098</v>
       </c>
       <c r="AY6">
-        <v>0.4676881072746098</v>
+        <v>0.2921019840588931</v>
       </c>
       <c r="AZ6">
-        <v>0.2921019840588931</v>
+        <v>0.6432742304903265</v>
       </c>
       <c r="BA6">
-        <v>0.6432742304903265</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.784160683338778e-007</v>
       </c>
       <c r="BC6">
-        <v>1.784160683338778e-007</v>
+        <v>0.6252575592509845</v>
       </c>
       <c r="BD6">
-        <v>0.6252575592509845</v>
+        <v>11</v>
       </c>
       <c r="BE6">
-        <v>11</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="BF6">
-        <v>52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>0.6122811534833517</v>
       </c>
       <c r="BI6">
-        <v>0.6122811534833517</v>
+        <v>0.3506039676835914</v>
       </c>
       <c r="BJ6">
-        <v>0.3506039676835914</v>
+        <v>0.873958339283112</v>
       </c>
       <c r="BK6">
-        <v>0.873958339283112</v>
+        <v>0.09177042906709461</v>
       </c>
       <c r="BL6">
-        <v>0.09177042906709461</v>
+        <v>4.518397989946509e-006</v>
       </c>
       <c r="BM6">
-        <v>4.518397989946509e-006</v>
+        <v>0.003405875484729336</v>
       </c>
       <c r="BN6">
-        <v>0.003405875484729336</v>
+        <v>-0.1445930462087419</v>
       </c>
       <c r="BO6">
-        <v>-0.1445930462087419</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>-0.05850198362469827</v>
       </c>
       <c r="BQ6">
-        <v>-0.05850198362469827</v>
+        <v>-0.2306841087927855</v>
       </c>
       <c r="BR6">
-        <v>-0.2306841087927855</v>
+        <v>2</v>
       </c>
       <c r="BS6">
+        <v>-0.09177042906709461</v>
+      </c>
+      <c r="BT6">
         <v>2</v>
       </c>
-      <c r="BT6">
-        <v>-0.09177042906709461</v>
-      </c>
       <c r="BU6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
         <v>0</v>
       </c>
     </row>
@@ -2043,8 +2023,10 @@
       <c r="M7">
         <v>-0.03705383753543046</v>
       </c>
-      <c r="N7">
-        <v>1</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2053,19 +2035,19 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
           <t>HS</t>
         </is>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
       <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -2087,10 +2069,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2102,153 +2082,150 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Mentions independent correlations: "This resulted in a final database of 40 studies from which 50 independent samples containing 224 independent correlations were drawn". Contacting authors for unpublished data.</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Mentions independent correlations: "This resulted in a final database of 40 studies from which 50 independent samples containing 224 independent correlations were drawn". Contacting authors for unpublished data.</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF7">
+        <v>0.3570538375354305</v>
+      </c>
       <c r="AG7">
-        <v>0.3570538375354305</v>
+        <v>0.2684187439617177</v>
       </c>
       <c r="AH7">
-        <v>0.2684187439617177</v>
+        <v>0.4456889311091433</v>
       </c>
       <c r="AI7">
-        <v>0.4456889311091433</v>
+        <v>0.03734754254240225</v>
       </c>
       <c r="AJ7">
-        <v>0.03734754254240225</v>
+        <v>2.893033170093794e-015</v>
       </c>
       <c r="AK7">
-        <v>2.893033170093794e-015</v>
+        <v>3.212961657197556e-034</v>
       </c>
       <c r="AL7">
-        <v>3.212961657197556e-034</v>
+        <v>0.3865868431920451</v>
       </c>
       <c r="AM7">
-        <v>0.3865868431920451</v>
+        <v>0.3007797803981077</v>
       </c>
       <c r="AN7">
-        <v>0.3007797803981077</v>
+        <v>0.4723939059859824</v>
       </c>
       <c r="AO7">
-        <v>0.4723939059859824</v>
+        <v>0.03499125634488368</v>
       </c>
       <c r="AP7">
-        <v>0.03499125634488368</v>
+        <v>1.04458633509677e-018</v>
       </c>
       <c r="AQ7">
-        <v>1.04458633509677e-018</v>
+        <v>1.532758599552606e-033</v>
       </c>
       <c r="AR7">
-        <v>1.532758599552606e-033</v>
+        <v>-0.0295330056566146</v>
       </c>
       <c r="AS7">
-        <v>-0.0295330056566146</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>-0.03236103643639005</v>
       </c>
       <c r="AU7">
-        <v>-0.03236103643639005</v>
+        <v>-0.02670497487683915</v>
       </c>
       <c r="AV7">
-        <v>-0.02670497487683915</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.002356286197518577</v>
       </c>
       <c r="AX7">
-        <v>0.002356286197518577</v>
+        <v>0.3197779875458057</v>
       </c>
       <c r="AY7">
-        <v>0.3197779875458057</v>
+        <v>0.2485994316421966</v>
       </c>
       <c r="AZ7">
-        <v>0.2485994316421966</v>
+        <v>0.3909565434494148</v>
       </c>
       <c r="BA7">
-        <v>0.3909565434494148</v>
+        <v>0.009005061714293506</v>
       </c>
       <c r="BB7">
-        <v>0.009005061714293506</v>
+        <v>1.304245965562579e-018</v>
       </c>
       <c r="BC7">
-        <v>1.304245965562579e-018</v>
+        <v>0.0004489492569435359</v>
       </c>
       <c r="BD7">
-        <v>0.0004489492569435359</v>
+        <v>11</v>
       </c>
       <c r="BE7">
-        <v>11</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="BF7">
-        <v>52.38095238095239</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="BH7">
-        <v>9.090909090909092</v>
+        <v>0.3792131763232198</v>
       </c>
       <c r="BI7">
-        <v>0.3792131763232198</v>
+        <v>0.2939602033070982</v>
       </c>
       <c r="BJ7">
-        <v>0.2939602033070982</v>
+        <v>0.4644661493393415</v>
       </c>
       <c r="BK7">
-        <v>0.4644661493393415</v>
+        <v>0.01578737761981627</v>
       </c>
       <c r="BL7">
-        <v>0.01578737761981627</v>
+        <v>2.829024767809491e-018</v>
       </c>
       <c r="BM7">
-        <v>2.829024767809491e-018</v>
+        <v>1.594713135456246e-007</v>
       </c>
       <c r="BN7">
-        <v>1.594713135456246e-007</v>
+        <v>-0.05943518877741416</v>
       </c>
       <c r="BO7">
-        <v>-0.05943518877741416</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>-0.0453607716649016</v>
       </c>
       <c r="BQ7">
-        <v>-0.0453607716649016</v>
+        <v>-0.07350960588992672</v>
       </c>
       <c r="BR7">
-        <v>-0.07350960588992672</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>-0.00678231590552276</v>
       </c>
       <c r="BT7">
-        <v>-0.00678231590552276</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
         <v>0</v>
       </c>
     </row>
@@ -2298,8 +2275,10 @@
       <c r="M8">
         <v>-0.02900016622314294</v>
       </c>
-      <c r="N8">
-        <v>1</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2308,19 +2287,19 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
           <t>HS</t>
         </is>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
       <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -2342,10 +2321,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2357,153 +2334,150 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Mentions independent correlations: "Each of the correlations was drawn from independent samples, meaning each Asian, Black, Hispanic, and White sample contributed only one correlation coefficient to any meta-analysis.". Contacting authors for unpublished data. MA states 392 but only reports 283 studies.</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Mentions independent correlations: "Each of the correlations was drawn from independent samples, meaning each Asian, Black, Hispanic, and White sample contributed only one correlation coefficient to any meta-analysis.". Contacting authors for unpublished data. MA states 392 but only reports 283 studies.</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF8">
+        <v>0.2690001662231433</v>
+      </c>
       <c r="AG8">
-        <v>0.2690001662231433</v>
+        <v>0.2532018763299782</v>
       </c>
       <c r="AH8">
-        <v>0.2532018763299782</v>
+        <v>0.2847984561163084</v>
       </c>
       <c r="AI8">
-        <v>0.2847984561163084</v>
+        <v>0.009976761131302253</v>
       </c>
       <c r="AJ8">
-        <v>0.009976761131302253</v>
+        <v>3.420532912156591e-244</v>
       </c>
       <c r="AK8">
-        <v>3.420532912156591e-244</v>
+        <v>1.542862702693775e-179</v>
       </c>
       <c r="AL8">
-        <v>1.542862702693775e-179</v>
+        <v>0.2692105839605685</v>
       </c>
       <c r="AM8">
-        <v>0.2692105839605685</v>
+        <v>0.25336425782955</v>
       </c>
       <c r="AN8">
-        <v>0.25336425782955</v>
+        <v>0.2850569100915871</v>
       </c>
       <c r="AO8">
-        <v>0.2850569100915871</v>
+        <v>0.01007298982580088</v>
       </c>
       <c r="AP8">
-        <v>0.01007298982580088</v>
+        <v>4.196460709497161e-243</v>
       </c>
       <c r="AQ8">
-        <v>4.196460709497161e-243</v>
+        <v>7.097110080357181e-182</v>
       </c>
       <c r="AR8">
-        <v>7.097110080357181e-182</v>
+        <v>-0.0002104177374252503</v>
       </c>
       <c r="AS8">
-        <v>-0.0002104177374252503</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>-0.0001623814995718176</v>
       </c>
       <c r="AU8">
-        <v>-0.0001623814995718176</v>
+        <v>-0.000258453975278683</v>
       </c>
       <c r="AV8">
-        <v>-0.000258453975278683</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>-9.62286944986273e-005</v>
       </c>
       <c r="AX8">
-        <v>-9.62286944986273e-005</v>
+        <v>0.3288324322673673</v>
       </c>
       <c r="AY8">
-        <v>0.3288324322673673</v>
+        <v>0.2680325690446915</v>
       </c>
       <c r="AZ8">
-        <v>0.2680325690446915</v>
+        <v>0.389632295490043</v>
       </c>
       <c r="BA8">
-        <v>0.389632295490043</v>
+        <v>0.01325914809525594</v>
       </c>
       <c r="BB8">
-        <v>0.01325914809525594</v>
+        <v>2.968726440173775e-026</v>
       </c>
       <c r="BC8">
-        <v>2.968726440173775e-026</v>
+        <v>5.040563923426403e-019</v>
       </c>
       <c r="BD8">
-        <v>5.040563923426403e-019</v>
+        <v>23</v>
       </c>
       <c r="BE8">
-        <v>23</v>
+        <v>8.12720848056537</v>
       </c>
       <c r="BF8">
-        <v>8.12720848056537</v>
+        <v>21</v>
       </c>
       <c r="BG8">
-        <v>21</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="BH8">
-        <v>91.30434782608695</v>
+        <v>0.331020105378539</v>
       </c>
       <c r="BI8">
-        <v>0.331020105378539</v>
+        <v>0.2689195118239687</v>
       </c>
       <c r="BJ8">
-        <v>0.2689195118239687</v>
+        <v>0.3931206989331093</v>
       </c>
       <c r="BK8">
-        <v>0.3931206989331093</v>
+        <v>0.01410319731962555</v>
       </c>
       <c r="BL8">
-        <v>0.01410319731962555</v>
+        <v>1.506548913480263e-025</v>
       </c>
       <c r="BM8">
-        <v>1.506548913480263e-025</v>
+        <v>1.502158422021066e-020</v>
       </c>
       <c r="BN8">
-        <v>1.502158422021066e-020</v>
+        <v>-0.00218767311117174</v>
       </c>
       <c r="BO8">
-        <v>-0.00218767311117174</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>-0.0008869427792771445</v>
       </c>
       <c r="BQ8">
-        <v>-0.0008869427792771445</v>
+        <v>-0.003488403443066335</v>
       </c>
       <c r="BR8">
-        <v>-0.003488403443066335</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>-0.000844049224369604</v>
       </c>
       <c r="BT8">
-        <v>-0.000844049224369604</v>
+        <v>0</v>
       </c>
       <c r="BU8">
         <v>0</v>
       </c>
       <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
         <v>0</v>
       </c>
     </row>
@@ -2547,12 +2521,14 @@
       <c r="M9">
         <v>-0.002002682298227476</v>
       </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2560,16 +2536,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="Q9">
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2591,157 +2567,155 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X9">
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1. ("We also combined results of multiple reports using the same sample to meet statistical assumptions of independence (see Card, in press).")</t>
+        </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1. ("We also combined results of multiple reports using the same sample to meet statistical assumptions of independence (see Card, in press).")</t>
+          <t>Authors state in text different effect size and CI (.05, CI = -.07 - .16) compared to table (.04, CI = -.06 - .14). Outlier: seperate analysis performed but "available upon request". Authors report exclusion or inclusion of outliers yielded generally comparable results.</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Authors state in text different effect size and CI (.05, CI = -.07 - .16) compared to table (.04, CI = -.06 - .14). Outlier: seperate analysis performed but "available upon request". Authors report exclusion or inclusion of outliers yielded generally comparable results.</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF9">
+        <v>0.04200268229822748</v>
+      </c>
       <c r="AG9">
-        <v>0.04200268229822748</v>
+        <v>-0.05418890388539102</v>
       </c>
       <c r="AH9">
-        <v>-0.05418890388539102</v>
+        <v>0.137421860683203</v>
       </c>
       <c r="AI9">
-        <v>0.137421860683203</v>
+        <v>0.018553844565855</v>
       </c>
       <c r="AJ9">
-        <v>0.018553844565855</v>
+        <v>0.3921956825886871</v>
       </c>
       <c r="AK9">
-        <v>0.3921956825886871</v>
+        <v>7.369687659502652e-007</v>
       </c>
       <c r="AL9">
-        <v>7.369687659502652e-007</v>
+        <v>0.04512099868199886</v>
       </c>
       <c r="AM9">
-        <v>0.04512099868199886</v>
+        <v>-0.02159748512087786</v>
       </c>
       <c r="AN9">
-        <v>-0.02159748512087786</v>
+        <v>0.1114393776009911</v>
       </c>
       <c r="AO9">
-        <v>0.1114393776009911</v>
+        <v>0.007300692454459717</v>
       </c>
       <c r="AP9">
-        <v>0.007300692454459717</v>
+        <v>0.1849299997438693</v>
       </c>
       <c r="AQ9">
-        <v>0.1849299997438693</v>
+        <v>3.662854652226668e-007</v>
       </c>
       <c r="AR9">
-        <v>3.662854652226668e-007</v>
+        <v>-0.003118316383771386</v>
       </c>
       <c r="AS9">
-        <v>-0.003118316383771386</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.03259141876451317</v>
       </c>
       <c r="AU9">
-        <v>0.03259141876451317</v>
+        <v>0.02598248308221188</v>
       </c>
       <c r="AV9">
-        <v>0.02598248308221188</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.01125315211139528</v>
       </c>
       <c r="AX9">
-        <v>0.01125315211139528</v>
+        <v>-0.003031330272083436</v>
       </c>
       <c r="AY9">
-        <v>-0.003031330272083436</v>
+        <v>-0.0407912403632332</v>
       </c>
       <c r="AZ9">
-        <v>-0.0407912403632332</v>
+        <v>0.0347372260848092</v>
       </c>
       <c r="BA9">
-        <v>0.0347372260848092</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>0.8750476011023477</v>
       </c>
       <c r="BC9">
-        <v>0.8750476011023477</v>
+        <v>0.9120510515545398</v>
       </c>
       <c r="BD9">
-        <v>0.9120510515545398</v>
+        <v>9</v>
       </c>
       <c r="BE9">
-        <v>9</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="BF9">
-        <v>81.81818181818183</v>
+        <v>5</v>
       </c>
       <c r="BG9">
-        <v>5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="BH9">
-        <v>55.55555555555556</v>
+        <v>0.004021658260703746</v>
       </c>
       <c r="BI9">
-        <v>0.004021658260703746</v>
+        <v>-0.008904514897350351</v>
       </c>
       <c r="BJ9">
-        <v>-0.008904514897350351</v>
+        <v>0.01694648761153583</v>
       </c>
       <c r="BK9">
-        <v>0.01694648761153583</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.5420040031334104</v>
       </c>
       <c r="BM9">
-        <v>0.5420040031334104</v>
+        <v>0.787256756597607</v>
       </c>
       <c r="BN9">
-        <v>0.787256756597607</v>
+        <v>-0.0009903279886203098</v>
       </c>
       <c r="BO9">
-        <v>-0.0009903279886203098</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.03188672546588285</v>
       </c>
       <c r="BQ9">
-        <v>0.03188672546588285</v>
+        <v>0.01779073847327337</v>
       </c>
       <c r="BR9">
-        <v>0.01779073847327337</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -2750,9 +2724,6 @@
         <v>0</v>
       </c>
       <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
         <v>0</v>
       </c>
     </row>
@@ -2796,6 +2767,11 @@
       <c r="M10">
         <v>0.0007597033543103038</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2803,19 +2779,19 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
           <t>HS</t>
         </is>
       </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
       <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2837,10 +2813,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2852,112 +2826,103 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>1. ("Because the study is the unit of analysis, if a study used multiple measures of one or more human capital measures or one or more performance measures and reported correlations separately, the correlations were averaged to yield a single estimate for the study (Hunter &amp; Schmidt, 2004).").</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF10">
+        <v>0.1715770432494655</v>
+      </c>
       <c r="AG10">
-        <v>0.1715770432494655</v>
+        <v>0.1713058212697145</v>
       </c>
       <c r="AH10">
-        <v>0.1713058212697145</v>
-      </c>
-      <c r="AI10">
         <v>0.1718482652292166</v>
       </c>
+      <c r="AL10">
+        <v>0.1693895545835389</v>
+      </c>
       <c r="AM10">
-        <v>0.1693895545835389</v>
+        <v>0.1691013817365613</v>
       </c>
       <c r="AN10">
-        <v>0.1691013817365613</v>
-      </c>
-      <c r="AO10">
         <v>0.1696777274305166</v>
       </c>
+      <c r="AR10">
+        <v>0.002187488665926635</v>
+      </c>
       <c r="AS10">
-        <v>0.002187488665926635</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.002204439533153246</v>
       </c>
       <c r="AU10">
-        <v>0.002204439533153246</v>
+        <v>0.002170537798700023</v>
       </c>
       <c r="AV10">
-        <v>0.002170537798700023</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0.1316229162674842</v>
       </c>
       <c r="AY10">
-        <v>0.1316229162674842</v>
+        <v>0.1305242610908336</v>
       </c>
       <c r="AZ10">
-        <v>0.1305242610908336</v>
+        <v>0.1327215714441348</v>
       </c>
       <c r="BA10">
-        <v>0.1327215714441348</v>
-      </c>
-      <c r="BB10">
         <v>0.02386842924619144</v>
       </c>
       <c r="BD10">
-        <v>0.9120510515545398</v>
+        <v>22</v>
       </c>
       <c r="BE10">
-        <v>22</v>
+        <v>32.83582089552239</v>
       </c>
       <c r="BF10">
-        <v>32.83582089552239</v>
+        <v>17</v>
       </c>
       <c r="BG10">
-        <v>17</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="BH10">
-        <v>77.27272727272727</v>
+        <v>0.1265253425646676</v>
       </c>
       <c r="BI10">
-        <v>0.1265253425646676</v>
+        <v>0.1253247014480996</v>
       </c>
       <c r="BJ10">
-        <v>0.1253247014480996</v>
+        <v>0.1277259836812355</v>
       </c>
       <c r="BK10">
-        <v>0.1277259836812355</v>
-      </c>
-      <c r="BL10">
         <v>0.02874638465792576</v>
       </c>
       <c r="BN10">
-        <v>0.787256756597607</v>
+        <v>0.00509757370281666</v>
       </c>
       <c r="BO10">
-        <v>0.00509757370281666</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>0.00519955964273397</v>
       </c>
       <c r="BQ10">
-        <v>0.00519955964273397</v>
+        <v>0.004995587762899351</v>
       </c>
       <c r="BR10">
-        <v>0.004995587762899351</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
         <v>-0.004877955411734317</v>
       </c>
     </row>
@@ -3007,30 +2972,35 @@
       <c r="M11">
         <v>-0.01147480027959569</v>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
           <t>HS</t>
         </is>
       </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>1</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Publication status used in meta-regression</t>
+        </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Publication status used in meta-regression</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -3045,16 +3015,14 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3063,155 +3031,152 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>1. ("We used the formula for composites (Hunter &amp; Schmidt,_x000D_
 2004) to derive a linear composite of the effect sizes to ensure the_x000D_
 independence of effects sizes in the final data set.")</t>
         </is>
       </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>MA excludes outliers from analyses, but does not run with and without. Contacting authors for unpublished data.</t>
+        </is>
+      </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>MA excludes outliers from analyses, but does not run with and without. Contacting authors for unpublished data.</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
           <t>Different</t>
         </is>
       </c>
+      <c r="AF11">
+        <v>0.1714748002795957</v>
+      </c>
       <c r="AG11">
-        <v>0.1714748002795957</v>
+        <v>0.1236398666266186</v>
       </c>
       <c r="AH11">
-        <v>0.1236398666266186</v>
+        <v>0.2193097339325728</v>
       </c>
       <c r="AI11">
-        <v>0.2193097339325728</v>
+        <v>0.03041100145604928</v>
       </c>
       <c r="AJ11">
-        <v>0.03041100145604928</v>
+        <v>2.126597860733118e-012</v>
       </c>
       <c r="AK11">
-        <v>2.126597860733118e-012</v>
+        <v>3.778664937792778e-022</v>
       </c>
       <c r="AL11">
-        <v>3.778664937792778e-022</v>
+        <v>0.1735180125059327</v>
       </c>
       <c r="AM11">
-        <v>0.1735180125059327</v>
+        <v>0.1248009961936418</v>
       </c>
       <c r="AN11">
-        <v>0.1248009961936418</v>
+        <v>0.2222350288182237</v>
       </c>
       <c r="AO11">
-        <v>0.2222350288182237</v>
+        <v>0.03206047072297971</v>
       </c>
       <c r="AP11">
-        <v>0.03206047072297971</v>
+        <v>2.932763459534968e-012</v>
       </c>
       <c r="AQ11">
-        <v>2.932763459534968e-012</v>
+        <v>3.896656924039844e-023</v>
       </c>
       <c r="AR11">
-        <v>3.896656924039844e-023</v>
+        <v>-0.002043212226337049</v>
       </c>
       <c r="AS11">
-        <v>-0.002043212226337049</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>-0.001161129567023217</v>
       </c>
       <c r="AU11">
-        <v>-0.001161129567023217</v>
+        <v>-0.002925294885650881</v>
       </c>
       <c r="AV11">
-        <v>-0.002925294885650881</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>-0.00164946926693043</v>
       </c>
       <c r="AX11">
-        <v>-0.00164946926693043</v>
+        <v>0.2234946394056282</v>
       </c>
       <c r="AY11">
-        <v>0.2234946394056282</v>
+        <v>0.1194304659368936</v>
       </c>
       <c r="AZ11">
-        <v>0.1194304659368936</v>
+        <v>0.3275588128743628</v>
       </c>
       <c r="BA11">
-        <v>0.3275588128743628</v>
+        <v>0.04287711040617763</v>
       </c>
       <c r="BB11">
-        <v>0.04287711040617763</v>
+        <v>2.561182144864344e-005</v>
       </c>
       <c r="BC11">
-        <v>2.561182144864344e-005</v>
+        <v>1.514432960984242e-013</v>
       </c>
       <c r="BD11">
-        <v>1.514432960984242e-013</v>
+        <v>21</v>
       </c>
       <c r="BE11">
-        <v>21</v>
+        <v>26.25</v>
       </c>
       <c r="BF11">
-        <v>26.25</v>
+        <v>17</v>
       </c>
       <c r="BG11">
-        <v>17</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="BH11">
-        <v>80.95238095238095</v>
+        <v>0.2305904978717135</v>
       </c>
       <c r="BI11">
-        <v>0.2305904978717135</v>
+        <v>0.122626260923829</v>
       </c>
       <c r="BJ11">
-        <v>0.122626260923829</v>
+        <v>0.338554734819598</v>
       </c>
       <c r="BK11">
-        <v>0.338554734819598</v>
+        <v>0.04707833844168591</v>
       </c>
       <c r="BL11">
-        <v>0.04707833844168591</v>
+        <v>2.837886059742906e-005</v>
       </c>
       <c r="BM11">
-        <v>2.837886059742906e-005</v>
+        <v>4.914286893997635e-014</v>
       </c>
       <c r="BN11">
-        <v>4.914286893997635e-014</v>
+        <v>-0.00709585846608532</v>
       </c>
       <c r="BO11">
-        <v>-0.00709585846608532</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>-0.003195794986935396</v>
       </c>
       <c r="BQ11">
-        <v>-0.003195794986935396</v>
+        <v>-0.01099592194523524</v>
       </c>
       <c r="BR11">
-        <v>-0.01099592194523524</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>-0.004201228035508278</v>
       </c>
       <c r="BT11">
-        <v>-0.004201228035508278</v>
+        <v>0</v>
       </c>
       <c r="BU11">
         <v>0</v>
       </c>
       <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
         <v>0</v>
       </c>
     </row>
@@ -3255,26 +3220,31 @@
       <c r="M12">
         <v>0.004065869880270322</v>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
           <t>LW</t>
         </is>
       </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12">
-        <v>1</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -3293,14 +3263,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
       <c r="Y12">
         <v>0</v>
       </c>
@@ -3308,156 +3276,153 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>1</v>
       </c>
-      <c r="AC12">
-        <v>1</v>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>1. ("To ensure independence of effect sizes, we used no sample more than once within an emotion in the aggregation of effect sizes.")</t>
+        </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1. ("To ensure independence of effect sizes, we used no sample more than once within an emotion in the aggregation of effect sizes.")</t>
+          <t>Model: "We analyzed data using the mixed-effects model (Lipsey &amp; Wilson, 2001), which combines fixed- and random-effects models". Authors addressing publication bias consists of them including unpublished studies in the literature search.</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Model: "We analyzed data using the mixed-effects model (Lipsey &amp; Wilson, 2001), which combines fixed- and random-effects models". Authors addressing publication bias consists of them including unpublished studies in the literature search.</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF12">
+        <v>-0.005934130119729679</v>
+      </c>
       <c r="AG12">
-        <v>-0.005934130119729679</v>
+        <v>-0.05689298260376806</v>
       </c>
       <c r="AH12">
-        <v>-0.05689298260376806</v>
+        <v>0.0450247223643087</v>
       </c>
       <c r="AI12">
-        <v>0.0450247223643087</v>
+        <v>0.04899209635642717</v>
       </c>
       <c r="AJ12">
-        <v>0.04899209635642717</v>
+        <v>0.8194622167334809</v>
       </c>
       <c r="AK12">
-        <v>0.8194622167334809</v>
+        <v>2.327288185120902e-134</v>
       </c>
       <c r="AL12">
-        <v>2.327288185120902e-134</v>
+        <v>-0.005510725887074205</v>
       </c>
       <c r="AM12">
-        <v>-0.005510725887074205</v>
+        <v>-0.05651016046294954</v>
       </c>
       <c r="AN12">
-        <v>-0.05651016046294954</v>
+        <v>0.04548870868880113</v>
       </c>
       <c r="AO12">
-        <v>0.04548870868880113</v>
+        <v>0.04909334385127939</v>
       </c>
       <c r="AP12">
-        <v>0.04909334385127939</v>
+        <v>0.8322761632323097</v>
       </c>
       <c r="AQ12">
-        <v>0.8322761632323097</v>
+        <v>1.070269280110563e-134</v>
       </c>
       <c r="AR12">
-        <v>1.070269280110563e-134</v>
+        <v>0.0004234042326554735</v>
       </c>
       <c r="AS12">
-        <v>0.0004234042326554735</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>0.0003828221408185145</v>
       </c>
       <c r="AU12">
-        <v>0.0003828221408185145</v>
+        <v>-0.0004639863244924325</v>
       </c>
       <c r="AV12">
-        <v>-0.0004639863244924325</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>-0.0001012474948522135</v>
       </c>
       <c r="AX12">
-        <v>-0.0001012474948522135</v>
+        <v>0.03614644202976878</v>
       </c>
       <c r="AY12">
-        <v>0.03614644202976878</v>
+        <v>-0.04824160045821698</v>
       </c>
       <c r="AZ12">
-        <v>-0.04824160045821698</v>
+        <v>0.1205344845177545</v>
       </c>
       <c r="BA12">
-        <v>0.1205344845177545</v>
+        <v>0.0233532798171246</v>
       </c>
       <c r="BB12">
-        <v>0.0233532798171246</v>
+        <v>0.4011757421698759</v>
       </c>
       <c r="BC12">
-        <v>0.4011757421698759</v>
+        <v>1.423117557817036e-011</v>
       </c>
       <c r="BD12">
-        <v>1.423117557817036e-011</v>
+        <v>20</v>
       </c>
       <c r="BE12">
-        <v>20</v>
+        <v>21.50537634408602</v>
       </c>
       <c r="BF12">
-        <v>21.50537634408602</v>
+        <v>5</v>
       </c>
       <c r="BG12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="BH12">
-        <v>25</v>
+        <v>0.03818226318387168</v>
       </c>
       <c r="BI12">
-        <v>0.03818226318387168</v>
+        <v>-0.04679859127179689</v>
       </c>
       <c r="BJ12">
-        <v>-0.04679859127179689</v>
+        <v>0.1231631176395402</v>
       </c>
       <c r="BK12">
-        <v>0.1231631176395402</v>
+        <v>0.0238259382709878</v>
       </c>
       <c r="BL12">
-        <v>0.0238259382709878</v>
+        <v>0.3785233983704072</v>
       </c>
       <c r="BM12">
-        <v>0.3785233983704072</v>
+        <v>7.691345547262566e-012</v>
       </c>
       <c r="BN12">
-        <v>7.691345547262566e-012</v>
+        <v>-0.002035821154102897</v>
       </c>
       <c r="BO12">
-        <v>-0.002035821154102897</v>
+        <v>0</v>
       </c>
       <c r="BP12">
-        <v>0</v>
+        <v>0.00144300918642009</v>
       </c>
       <c r="BQ12">
-        <v>0.00144300918642009</v>
+        <v>-0.002628633121785712</v>
       </c>
       <c r="BR12">
-        <v>-0.002628633121785712</v>
+        <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>-0.0004726584538631944</v>
       </c>
       <c r="BT12">
-        <v>-0.0004726584538631944</v>
+        <v>0</v>
       </c>
       <c r="BU12">
         <v>0</v>
       </c>
       <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
         <v>0</v>
       </c>
     </row>
@@ -3501,9 +3466,14 @@
       <c r="M13">
         <v>-0.03466909469452356</v>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3511,20 +3481,20 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="Q13">
+        <v>1</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13">
-        <v>1</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Publication status used in meta-regression</t>
+        </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Publication status used in meta-regression</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -3539,14 +3509,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
       <c r="Y13">
         <v>0</v>
       </c>
@@ -3554,151 +3522,148 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>1</v>
       </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>1 . ("Additionally, if there was more than one effect size per study, within-study aggregation was performed (see Del Re, 2010; Del Re &amp; Hoyt, 2010).")</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF13">
+        <v>0.3046690946945236</v>
+      </c>
       <c r="AG13">
-        <v>0.3046690946945236</v>
+        <v>0.1746042124313566</v>
       </c>
       <c r="AH13">
-        <v>0.1746042124313566</v>
+        <v>0.4347339769576906</v>
       </c>
       <c r="AI13">
-        <v>0.4347339769576906</v>
+        <v>0.05877922337579686</v>
       </c>
       <c r="AJ13">
-        <v>0.05877922337579686</v>
+        <v>4.409229592916208e-006</v>
       </c>
       <c r="AK13">
-        <v>4.409229592916208e-006</v>
+        <v>1.309702072111037e-011</v>
       </c>
       <c r="AL13">
-        <v>1.309702072111037e-011</v>
+        <v>0.3101226919749951</v>
       </c>
       <c r="AM13">
-        <v>0.3101226919749951</v>
+        <v>0.1640674368944732</v>
       </c>
       <c r="AN13">
-        <v>0.1640674368944732</v>
+        <v>0.456177947055517</v>
       </c>
       <c r="AO13">
-        <v>0.456177947055517</v>
+        <v>0.07919991646084217</v>
       </c>
       <c r="AP13">
-        <v>0.07919991646084217</v>
+        <v>3.159709943549127e-005</v>
       </c>
       <c r="AQ13">
-        <v>3.159709943549127e-005</v>
+        <v>8.519399567135464e-017</v>
       </c>
       <c r="AR13">
-        <v>8.519399567135464e-017</v>
+        <v>-0.005453597280471512</v>
       </c>
       <c r="AS13">
-        <v>-0.005453597280471512</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.01053677553688337</v>
       </c>
       <c r="AU13">
-        <v>0.01053677553688337</v>
+        <v>-0.02144397009782639</v>
       </c>
       <c r="AV13">
-        <v>-0.02144397009782639</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>-0.02042069308504531</v>
       </c>
       <c r="AX13">
-        <v>-0.02042069308504531</v>
+        <v>0.3214474296083071</v>
       </c>
       <c r="AY13">
-        <v>0.3214474296083071</v>
+        <v>0.2090317133957518</v>
       </c>
       <c r="AZ13">
-        <v>0.2090317133957518</v>
+        <v>0.4338631458208624</v>
       </c>
       <c r="BA13">
-        <v>0.4338631458208624</v>
+        <v>0.01773327488799818</v>
       </c>
       <c r="BB13">
-        <v>0.01773327488799818</v>
+        <v>2.089481419278802e-008</v>
       </c>
       <c r="BC13">
-        <v>2.089481419278802e-008</v>
+        <v>0.0201473637368239</v>
       </c>
       <c r="BD13">
-        <v>0.0201473637368239</v>
+        <v>11</v>
       </c>
       <c r="BE13">
-        <v>11</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="BF13">
-        <v>61.11111111111111</v>
+        <v>1</v>
       </c>
       <c r="BG13">
-        <v>1</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="BH13">
-        <v>9.090909090909092</v>
+        <v>0.3227130662182568</v>
       </c>
       <c r="BI13">
-        <v>0.3227130662182568</v>
+        <v>0.163145528109776</v>
       </c>
       <c r="BJ13">
-        <v>0.163145528109776</v>
+        <v>0.4822806043267376</v>
       </c>
       <c r="BK13">
-        <v>0.4822806043267376</v>
+        <v>0.05316727715547815</v>
       </c>
       <c r="BL13">
-        <v>0.05316727715547815</v>
+        <v>7.374246563075689e-005</v>
       </c>
       <c r="BM13">
-        <v>7.374246563075689e-005</v>
+        <v>1.84566579492699e-006</v>
       </c>
       <c r="BN13">
-        <v>1.84566579492699e-006</v>
+        <v>-0.001265636609949716</v>
       </c>
       <c r="BO13">
-        <v>-0.001265636609949716</v>
+        <v>0</v>
       </c>
       <c r="BP13">
-        <v>0</v>
+        <v>0.04588618528597582</v>
       </c>
       <c r="BQ13">
-        <v>0.04588618528597582</v>
+        <v>-0.04841745850587526</v>
       </c>
       <c r="BR13">
-        <v>-0.04841745850587526</v>
+        <v>1</v>
       </c>
       <c r="BS13">
-        <v>1</v>
+        <v>-0.03543400226747997</v>
       </c>
       <c r="BT13">
-        <v>-0.03543400226747997</v>
+        <v>2</v>
       </c>
       <c r="BU13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
         <v>0</v>
       </c>
     </row>
@@ -3748,52 +3713,55 @@
       <c r="M14">
         <v>-0.0554728946118534</v>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>FE+RE</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>FE+RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q14">
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14">
-        <v>1</v>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>Funnel plot</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
       <c r="Y14">
         <v>0</v>
       </c>
@@ -3801,156 +3769,153 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>1</v>
       </c>
-      <c r="AC14">
-        <v>1</v>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Contacting authors for unpublished data. Dependency addressed consists of mentioning effect sizes are independent: "We obtained a total of 153 effect size estimates with a final sample of N = 105 fully independent effect size estimates from N = 53 articles on the basis of more than 7,700 participants"</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Contacting authors for unpublished data. Dependency addressed consists of mentioning effect sizes are independent: "We obtained a total of 153 effect size estimates with a final sample of N = 105 fully independent effect size estimates from N = 53 articles on the basis of more than 7,700 participants"</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
           <t>Different</t>
         </is>
       </c>
+      <c r="AF14">
+        <v>0.3854728946118534</v>
+      </c>
       <c r="AG14">
-        <v>0.3854728946118534</v>
+        <v>0.2719528505080141</v>
       </c>
       <c r="AH14">
-        <v>0.2719528505080141</v>
+        <v>0.4989929387156927</v>
       </c>
       <c r="AI14">
-        <v>0.4989929387156927</v>
+        <v>0.2522499198441276</v>
       </c>
       <c r="AJ14">
-        <v>0.2522499198441276</v>
+        <v>2.826712800381056e-011</v>
       </c>
       <c r="AK14">
-        <v>2.826712800381056e-011</v>
+        <v>5.776852287590429e-070</v>
       </c>
       <c r="AL14">
-        <v>5.776852287590429e-070</v>
+        <v>0.374503949785591</v>
       </c>
       <c r="AM14">
-        <v>0.374503949785591</v>
+        <v>0.2624375074356699</v>
       </c>
       <c r="AN14">
-        <v>0.2624375074356699</v>
+        <v>0.4865703921355121</v>
       </c>
       <c r="AO14">
-        <v>0.4865703921355121</v>
+        <v>0.2429117541668925</v>
       </c>
       <c r="AP14">
-        <v>0.2429117541668925</v>
+        <v>5.760913200358769e-011</v>
       </c>
       <c r="AQ14">
-        <v>5.760913200358769e-011</v>
+        <v>1.778301780997173e-066</v>
       </c>
       <c r="AR14">
-        <v>1.778301780997173e-066</v>
+        <v>0.01096894482626243</v>
       </c>
       <c r="AS14">
-        <v>0.01096894482626243</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>0.009515343072344251</v>
       </c>
       <c r="AU14">
-        <v>0.009515343072344251</v>
+        <v>0.01242254658018061</v>
       </c>
       <c r="AV14">
-        <v>0.01242254658018061</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>0.009338165677235055</v>
       </c>
       <c r="AX14">
-        <v>0.009338165677235055</v>
+        <v>0.4942390848013875</v>
       </c>
       <c r="AY14">
-        <v>0.4942390848013875</v>
+        <v>0.1616167126979792</v>
       </c>
       <c r="AZ14">
-        <v>0.1616167126979792</v>
+        <v>0.8268614569047958</v>
       </c>
       <c r="BA14">
-        <v>0.8268614569047958</v>
+        <v>0.4882478062767915</v>
       </c>
       <c r="BB14">
-        <v>0.4882478062767915</v>
+        <v>0.003587962757099451</v>
       </c>
       <c r="BC14">
-        <v>0.003587962757099451</v>
+        <v>3.326011954379805e-031</v>
       </c>
       <c r="BD14">
-        <v>3.326011954379805e-031</v>
+        <v>20</v>
       </c>
       <c r="BE14">
-        <v>20</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="BF14">
-        <v>19.04761904761905</v>
+        <v>15</v>
       </c>
       <c r="BG14">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="BH14">
-        <v>75</v>
+        <v>0.4382510572980859</v>
       </c>
       <c r="BI14">
-        <v>0.4382510572980859</v>
+        <v>0.1185626631855806</v>
       </c>
       <c r="BJ14">
-        <v>0.1185626631855806</v>
+        <v>0.7579394514105913</v>
       </c>
       <c r="BK14">
-        <v>0.7579394514105913</v>
+        <v>0.4411581053393927</v>
       </c>
       <c r="BL14">
-        <v>0.4411581053393927</v>
+        <v>0.007212830490347947</v>
       </c>
       <c r="BM14">
-        <v>0.007212830490347947</v>
+        <v>2.062488603495059e-027</v>
       </c>
       <c r="BN14">
-        <v>2.062488603495059e-027</v>
+        <v>0.05598802750330162</v>
       </c>
       <c r="BO14">
-        <v>0.05598802750330162</v>
+        <v>1</v>
       </c>
       <c r="BP14">
-        <v>1</v>
+        <v>0.04305404951239861</v>
       </c>
       <c r="BQ14">
-        <v>0.04305404951239861</v>
+        <v>0.06892200549420458</v>
       </c>
       <c r="BR14">
-        <v>0.06892200549420458</v>
+        <v>1</v>
       </c>
       <c r="BS14">
-        <v>1</v>
+        <v>0.04708970093739889</v>
       </c>
       <c r="BT14">
-        <v>0.04708970093739889</v>
+        <v>7</v>
       </c>
       <c r="BU14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>0</v>
-      </c>
-      <c r="BW14">
         <v>0</v>
       </c>
     </row>
@@ -3994,35 +3959,40 @@
       <c r="M15">
         <v>0.005156108899643935</v>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
           <t>ML</t>
         </is>
       </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>1</v>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>Funnel plot</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -4032,171 +4002,166 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>1</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>1. ("Lipsey and Wilson (2001) recommended using only a single effect size from every study to avoid violating independence. We heeded this recommendation and developed a procedure to select no more than one performance and one response-time effect size based on any single group of individuals.")</t>
+        </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>1. ("Lipsey and Wilson (2001) recommended using only a single effect size from every study to avoid violating independence. We heeded this recommendation and developed a procedure to select no more than one performance and one response-time effect size based on any single group of individuals.")</t>
+          <t>Outliers winsorized to minimize their influence.</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Outliers winsorized to minimize their influence.</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
           <t>Null</t>
         </is>
       </c>
+      <c r="AF15">
+        <v>0.06484389110035607</v>
+      </c>
       <c r="AG15">
-        <v>0.06484389110035607</v>
+        <v>0.0101801448372856</v>
       </c>
       <c r="AH15">
-        <v>0.0101801448372856</v>
+        <v>0.1191212286311194</v>
       </c>
       <c r="AI15">
-        <v>0.1191212286311194</v>
+        <v>0.03642685750540105</v>
       </c>
       <c r="AJ15">
-        <v>0.03642685750540105</v>
+        <v>0.02010514939964392</v>
       </c>
       <c r="AK15">
-        <v>0.02010514939964392</v>
+        <v>1.291633052520573e-010</v>
       </c>
       <c r="AL15">
-        <v>1.291633052520573e-010</v>
+        <v>0.05924976650048998</v>
       </c>
       <c r="AM15">
-        <v>0.05924976650048998</v>
+        <v>0.00537178258156635</v>
       </c>
       <c r="AN15">
-        <v>0.00537178258156635</v>
+        <v>0.1127847513454792</v>
       </c>
       <c r="AO15">
-        <v>0.1127847513454792</v>
+        <v>0.03450318488582326</v>
       </c>
       <c r="AP15">
-        <v>0.03450318488582326</v>
+        <v>0.03115180724744095</v>
       </c>
       <c r="AQ15">
-        <v>0.03115180724744095</v>
+        <v>6.581287769326711e-010</v>
       </c>
       <c r="AR15">
-        <v>6.581287769326711e-010</v>
+        <v>0.005594124599866093</v>
       </c>
       <c r="AS15">
-        <v>0.005594124599866093</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.004808362255719251</v>
       </c>
       <c r="AU15">
-        <v>0.004808362255719251</v>
+        <v>0.006336477285640185</v>
       </c>
       <c r="AV15">
-        <v>0.006336477285640185</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>0.001923672619577786</v>
       </c>
       <c r="AX15">
-        <v>0.001923672619577786</v>
+        <v>0.08286464223756894</v>
       </c>
       <c r="AY15">
-        <v>0.08286464223756894</v>
+        <v>-0.06831617574053422</v>
       </c>
       <c r="AZ15">
-        <v>-0.06831617574053422</v>
+        <v>0.2303252761146994</v>
       </c>
       <c r="BA15">
-        <v>0.2303252761146994</v>
+        <v>0.07998888148621232</v>
       </c>
       <c r="BB15">
-        <v>0.07998888148621232</v>
+        <v>0.2825334612213424</v>
       </c>
       <c r="BC15">
-        <v>0.2825334612213424</v>
+        <v>3.147898172843358e-008</v>
       </c>
       <c r="BD15">
-        <v>3.147898172843358e-008</v>
+        <v>20</v>
       </c>
       <c r="BE15">
-        <v>20</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="BF15">
-        <v>21.27659574468085</v>
+        <v>13</v>
       </c>
       <c r="BG15">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BH15">
-        <v>65</v>
+        <v>0.05583238875040168</v>
       </c>
       <c r="BI15">
-        <v>0.05583238875040168</v>
+        <v>-0.08955373051402023</v>
       </c>
       <c r="BJ15">
-        <v>-0.08955373051402023</v>
+        <v>0.1988887952346881</v>
       </c>
       <c r="BK15">
-        <v>0.1988887952346881</v>
+        <v>0.07138539242992494</v>
       </c>
       <c r="BL15">
-        <v>0.07138539242992494</v>
+        <v>0.452098869733736</v>
       </c>
       <c r="BM15">
-        <v>0.452098869733736</v>
+        <v>4.116382040823491e-007</v>
       </c>
       <c r="BN15">
-        <v>4.116382040823491e-007</v>
+        <v>0.02703225348716726</v>
       </c>
       <c r="BO15">
-        <v>0.02703225348716726</v>
+        <v>1</v>
       </c>
       <c r="BP15">
-        <v>1</v>
+        <v>-0.021237554773486</v>
       </c>
       <c r="BQ15">
-        <v>-0.021237554773486</v>
+        <v>0.0314364808800113</v>
       </c>
       <c r="BR15">
-        <v>0.0314364808800113</v>
+        <v>1</v>
       </c>
       <c r="BS15">
-        <v>1</v>
+        <v>0.008603489056287383</v>
       </c>
       <c r="BT15">
-        <v>0.008603489056287383</v>
+        <v>3</v>
       </c>
       <c r="BU15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV15">
-        <v>0</v>
-      </c>
-      <c r="BW15">
         <v>0</v>
       </c>
     </row>
@@ -4240,30 +4205,35 @@
       <c r="M16">
         <v>-0.02590428526022676</v>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
           <t>REML</t>
         </is>
       </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16">
-        <v>1</v>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -4278,165 +4248,160 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>1. ("In order to cope with any dependencies among these_x000D_
 effect sizes, we used the hierarchical linear modeling (HLM)_x000D_
 approach to meta-analysis").</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>One outlier found, results did not change by in/excluding it:  "This effect size did not have much leverage, and omitting it from the analysis had no impact on the stability of the_x000D_
 results."</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF16">
+        <v>0.3519042852602268</v>
+      </c>
       <c r="AG16">
-        <v>0.3519042852602268</v>
+        <v>0.3406784506076295</v>
       </c>
       <c r="AH16">
-        <v>0.3406784506076295</v>
+        <v>0.3631301199128241</v>
       </c>
       <c r="AI16">
-        <v>0.3631301199128241</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>4.075103789585998e-137</v>
       </c>
       <c r="AL16">
-        <v>4.075103789585998e-137</v>
+        <v>0.351903114121401</v>
       </c>
       <c r="AM16">
-        <v>0.351903114121401</v>
+        <v>0.3406773526773457</v>
       </c>
       <c r="AN16">
-        <v>0.3406773526773457</v>
+        <v>0.3631288755654563</v>
       </c>
       <c r="AO16">
-        <v>0.3631288755654563</v>
+        <v>0</v>
       </c>
       <c r="AP16">
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>3.810060846544709e-137</v>
       </c>
       <c r="AR16">
-        <v>3.810060846544709e-137</v>
+        <v>1.171138825750706e-006</v>
       </c>
       <c r="AS16">
-        <v>1.171138825750706e-006</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1.097930283744386e-006</v>
       </c>
       <c r="AU16">
-        <v>1.097930283744386e-006</v>
+        <v>1.244347367757026e-006</v>
       </c>
       <c r="AV16">
-        <v>1.244347367757026e-006</v>
+        <v>0</v>
       </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>0.3534372176584859</v>
       </c>
       <c r="AY16">
-        <v>0.3534372176584859</v>
+        <v>0.3223852353834779</v>
       </c>
       <c r="AZ16">
-        <v>0.3223852353834779</v>
+        <v>0.3844891999334938</v>
       </c>
       <c r="BA16">
-        <v>0.3844891999334938</v>
+        <v>0</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>3.053366527587873e-110</v>
       </c>
       <c r="BC16">
-        <v>3.053366527587873e-110</v>
+        <v>3.121235086796434e-027</v>
       </c>
       <c r="BD16">
-        <v>3.121235086796434e-027</v>
+        <v>20</v>
       </c>
       <c r="BE16">
+        <v>12.98701298701299</v>
+      </c>
+      <c r="BF16">
         <v>20</v>
       </c>
-      <c r="BF16">
-        <v>12.98701298701299</v>
-      </c>
       <c r="BG16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="BH16">
-        <v>100</v>
+        <v>0.3534281046072564</v>
       </c>
       <c r="BI16">
-        <v>0.3534281046072564</v>
+        <v>0.3223776716680876</v>
       </c>
       <c r="BJ16">
-        <v>0.3223776716680876</v>
+        <v>0.3844785375464253</v>
       </c>
       <c r="BK16">
-        <v>0.3844785375464253</v>
+        <v>0</v>
       </c>
       <c r="BL16">
-        <v>0</v>
+        <v>3.016872640945017e-110</v>
       </c>
       <c r="BM16">
-        <v>3.016872640945017e-110</v>
+        <v>2.907821671914248e-027</v>
       </c>
       <c r="BN16">
-        <v>2.907821671914248e-027</v>
+        <v>9.113051229414637e-006</v>
       </c>
       <c r="BO16">
-        <v>9.113051229414637e-006</v>
+        <v>0</v>
       </c>
       <c r="BP16">
-        <v>0</v>
+        <v>7.563715390235259e-006</v>
       </c>
       <c r="BQ16">
-        <v>7.563715390235259e-006</v>
+        <v>1.066238706859402e-005</v>
       </c>
       <c r="BR16">
-        <v>1.066238706859402e-005</v>
+        <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
         <v>0</v>
       </c>
     </row>
@@ -4480,26 +4445,31 @@
       <c r="M17">
         <v>-0.2230500136421112</v>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q17">
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4521,10 +4491,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -4533,151 +4501,148 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>1 - "For studies that permitted multiple comparisons by including more than one control group and/or feigning group, the sample size for each duplicated group was divided in half before composite effect sizes were calculated".</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF17">
+        <v>2.243050013642111</v>
+      </c>
       <c r="AG17">
-        <v>2.243050013642111</v>
+        <v>1.467125559483224</v>
       </c>
       <c r="AH17">
-        <v>1.467125559483224</v>
+        <v>3.018974467800999</v>
       </c>
       <c r="AI17">
-        <v>3.018974467800999</v>
+        <v>2.410628680326997</v>
       </c>
       <c r="AJ17">
-        <v>2.410628680326997</v>
+        <v>1.462692356432608e-008</v>
       </c>
       <c r="AK17">
-        <v>1.462692356432608e-008</v>
+        <v>2.144570291652658e-116</v>
       </c>
       <c r="AL17">
-        <v>2.144570291652658e-116</v>
+        <v>2.241328641391577</v>
       </c>
       <c r="AM17">
-        <v>2.241328641391577</v>
+        <v>1.463156792184156</v>
       </c>
       <c r="AN17">
-        <v>1.463156792184156</v>
+        <v>3.019500490598998</v>
       </c>
       <c r="AO17">
-        <v>3.019500490598998</v>
+        <v>2.425169747938619</v>
       </c>
       <c r="AP17">
-        <v>2.425169747938619</v>
+        <v>1.650045051675349e-008</v>
       </c>
       <c r="AQ17">
-        <v>1.650045051675349e-008</v>
+        <v>3.911812104350717e-117</v>
       </c>
       <c r="AR17">
-        <v>3.911812104350717e-117</v>
+        <v>0.001721372250534703</v>
       </c>
       <c r="AS17">
-        <v>0.001721372250534703</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.003968767299068254</v>
       </c>
       <c r="AU17">
-        <v>0.003968767299068254</v>
+        <v>-0.0005260227979988486</v>
       </c>
       <c r="AV17">
-        <v>-0.0005260227979988486</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>-0.01454106761162199</v>
       </c>
       <c r="AX17">
-        <v>-0.01454106761162199</v>
+        <v>2.483943603920217</v>
       </c>
       <c r="AY17">
-        <v>2.483943603920217</v>
+        <v>1.559629346441549</v>
       </c>
       <c r="AZ17">
-        <v>1.559629346441549</v>
+        <v>3.408257861398885</v>
       </c>
       <c r="BA17">
-        <v>3.408257861398885</v>
+        <v>2.789823146614805</v>
       </c>
       <c r="BB17">
-        <v>2.789823146614805</v>
+        <v>1.386084742262147e-007</v>
       </c>
       <c r="BC17">
-        <v>1.386084742262147e-007</v>
+        <v>1.460133388077708e-110</v>
       </c>
       <c r="BD17">
-        <v>1.460133388077708e-110</v>
+        <v>13</v>
       </c>
       <c r="BE17">
-        <v>13</v>
+        <v>81.25</v>
       </c>
       <c r="BF17">
-        <v>81.25</v>
+        <v>5</v>
       </c>
       <c r="BG17">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="BH17">
+        <v>2.481896098864509</v>
+      </c>
+      <c r="BI17">
+        <v>1.553363005372358</v>
+      </c>
+      <c r="BJ17">
+        <v>3.410429192356659</v>
+      </c>
+      <c r="BK17">
+        <v>2.816266545987511</v>
+      </c>
+      <c r="BL17">
+        <v>1.615978644179531e-007</v>
+      </c>
+      <c r="BM17">
+        <v>1.179521858282827e-111</v>
+      </c>
+      <c r="BN17">
+        <v>0.002047505055708498</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0.006266341069191217</v>
+      </c>
+      <c r="BQ17">
+        <v>-0.00217133095777422</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>-0.02644339937270646</v>
+      </c>
+      <c r="BT17">
         <v>5</v>
       </c>
-      <c r="BH17">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="BI17">
-        <v>2.481896098864509</v>
-      </c>
-      <c r="BJ17">
-        <v>1.553363005372358</v>
-      </c>
-      <c r="BK17">
-        <v>3.410429192356659</v>
-      </c>
-      <c r="BL17">
-        <v>2.816266545987511</v>
-      </c>
-      <c r="BM17">
-        <v>1.615978644179531e-007</v>
-      </c>
-      <c r="BN17">
-        <v>1.179521858282827e-111</v>
-      </c>
-      <c r="BO17">
-        <v>0.002047505055708498</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0.006266341069191217</v>
-      </c>
-      <c r="BR17">
-        <v>-0.00217133095777422</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>-0.02644339937270646</v>
-      </c>
       <c r="BU17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BV17">
-        <v>3</v>
-      </c>
-      <c r="BW17">
         <v>1</v>
       </c>
     </row>
@@ -4721,35 +4686,40 @@
       <c r="M18">
         <v>-0.06840181184005426</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q18">
+        <v>1</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18">
-        <v>1</v>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -4759,171 +4729,166 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
-      <c r="AC18">
-        <v>1</v>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>1. (Several, search "Independence of effect sizes." in MA).</t>
+        </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1. (Several, search "Independence of effect sizes." in MA).</t>
+          <t>Contacting authors for unpublished data. Outlier: "Except where noted, the results presented here did not differ significantly when the outlier was included."</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Contacting authors for unpublished data. Outlier: "Except where noted, the results presented here did not differ significantly when the outlier was included."</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF18">
+        <v>0.1985834710742396</v>
+      </c>
       <c r="AG18">
-        <v>0.1985834710742396</v>
+        <v>0.08800602946744522</v>
       </c>
       <c r="AH18">
-        <v>0.08800602946744522</v>
+        <v>0.3091609126810339</v>
       </c>
       <c r="AI18">
-        <v>0.3091609126810339</v>
+        <v>0.05566886460116143</v>
       </c>
       <c r="AJ18">
-        <v>0.05566886460116143</v>
+        <v>0.0004317843919245528</v>
       </c>
       <c r="AK18">
-        <v>0.0004317843919245528</v>
+        <v>0.001898540334206171</v>
       </c>
       <c r="AL18">
-        <v>0.001898540334206171</v>
+        <v>0.154002199633316</v>
       </c>
       <c r="AM18">
-        <v>0.154002199633316</v>
+        <v>0.07094739729775647</v>
       </c>
       <c r="AN18">
-        <v>0.07094739729775647</v>
+        <v>0.2370570019688755</v>
       </c>
       <c r="AO18">
-        <v>0.2370570019688755</v>
+        <v>0.002710257577443594</v>
       </c>
       <c r="AP18">
-        <v>0.002710257577443594</v>
+        <v>0.0002788314531104078</v>
       </c>
       <c r="AQ18">
-        <v>0.0002788314531104078</v>
+        <v>0.4060259493865844</v>
       </c>
       <c r="AR18">
-        <v>0.4060259493865844</v>
+        <v>0.04458127144092361</v>
       </c>
       <c r="AS18">
-        <v>0.04458127144092361</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>0.01705863216968875</v>
       </c>
       <c r="AU18">
-        <v>0.01705863216968875</v>
+        <v>0.07210391071215844</v>
       </c>
       <c r="AV18">
-        <v>0.07210391071215844</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>1</v>
+        <v>0.05295860702371784</v>
       </c>
       <c r="AX18">
-        <v>0.05295860702371784</v>
+        <v>0.3478556419601157</v>
       </c>
       <c r="AY18">
-        <v>0.3478556419601157</v>
+        <v>-0.0217360741725548</v>
       </c>
       <c r="AZ18">
-        <v>-0.0217360741725548</v>
+        <v>0.7174473580927863</v>
       </c>
       <c r="BA18">
-        <v>0.7174473580927863</v>
+        <v>0.3038825526364643</v>
       </c>
       <c r="BB18">
-        <v>0.3038825526364643</v>
+        <v>0.06508170625840863</v>
       </c>
       <c r="BC18">
-        <v>0.06508170625840863</v>
+        <v>2.502033234131458e-007</v>
       </c>
       <c r="BD18">
-        <v>2.502033234131458e-007</v>
+        <v>11</v>
       </c>
       <c r="BE18">
-        <v>11</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="BF18">
-        <v>25.58139534883721</v>
+        <v>3</v>
       </c>
       <c r="BG18">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="BH18">
+        <v>0.2297090750891771</v>
+      </c>
+      <c r="BI18">
+        <v>-0.0120863188540942</v>
+      </c>
+      <c r="BJ18">
+        <v>0.4715044690324485</v>
+      </c>
+      <c r="BK18">
+        <v>0.08440676750682009</v>
+      </c>
+      <c r="BL18">
+        <v>0.06260397016048737</v>
+      </c>
+      <c r="BM18">
+        <v>0.02005363508717473</v>
+      </c>
+      <c r="BN18">
+        <v>0.1181465668709386</v>
+      </c>
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BP18">
+        <v>0.009649755318460601</v>
+      </c>
+      <c r="BQ18">
+        <v>0.2459428890603378</v>
+      </c>
+      <c r="BR18">
+        <v>2</v>
+      </c>
+      <c r="BS18">
+        <v>0.2194757851296442</v>
+      </c>
+      <c r="BT18">
         <v>3</v>
       </c>
-      <c r="BH18">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="BI18">
-        <v>0.2297090750891771</v>
-      </c>
-      <c r="BJ18">
-        <v>-0.0120863188540942</v>
-      </c>
-      <c r="BK18">
-        <v>0.4715044690324485</v>
-      </c>
-      <c r="BL18">
-        <v>0.08440676750682009</v>
-      </c>
-      <c r="BM18">
-        <v>0.06260397016048737</v>
-      </c>
-      <c r="BN18">
-        <v>0.02005363508717473</v>
-      </c>
-      <c r="BO18">
-        <v>0.1181465668709386</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0.009649755318460601</v>
-      </c>
-      <c r="BR18">
-        <v>0.2459428890603378</v>
-      </c>
-      <c r="BS18">
-        <v>2</v>
-      </c>
-      <c r="BT18">
-        <v>0.2194757851296442</v>
-      </c>
       <c r="BU18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
         <v>0</v>
       </c>
     </row>
@@ -4967,26 +4932,31 @@
       <c r="M19">
         <v>0.001254405085947631</v>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
           <t>HO</t>
         </is>
       </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
       <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -5008,10 +4978,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -5020,137 +4988,137 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>1. ("Additionally, if a study included more than one measure of cognitive performance, the arithmetic mean of multiple dependent effect sizes Hedges’ g was calculated before deriving a single effect size Hedges’ d (cf. DeCoster, 2004).").</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF19">
+        <v>0.02874559491405237</v>
+      </c>
       <c r="AG19">
-        <v>0.02874559491405237</v>
+        <v>-0.008411098497448408</v>
       </c>
       <c r="AH19">
-        <v>-0.008411098497448408</v>
+        <v>0.06590228832555314</v>
       </c>
       <c r="AI19">
-        <v>0.06590228832555314</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>0.1294459840787261</v>
       </c>
       <c r="AK19">
-        <v>0.1294459840787261</v>
+        <v>0.4189213410848394</v>
       </c>
       <c r="AL19">
-        <v>0.4189213410848394</v>
+        <v>0.02374842161673574</v>
       </c>
       <c r="AM19">
-        <v>0.02374842161673574</v>
+        <v>-0.01473096576784248</v>
       </c>
       <c r="AN19">
-        <v>-0.01473096576784248</v>
+        <v>0.06222780900131396</v>
       </c>
       <c r="AO19">
-        <v>0.06222780900131396</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.2264186096119041</v>
       </c>
       <c r="AQ19">
-        <v>0.2264186096119041</v>
+        <v>0.3402122495993181</v>
       </c>
       <c r="AR19">
-        <v>0.3402122495993181</v>
+        <v>0.00499717329731663</v>
       </c>
       <c r="AS19">
-        <v>0.00499717329731663</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>-0.006319867270394075</v>
       </c>
       <c r="AU19">
-        <v>-0.006319867270394075</v>
+        <v>0.003674479324239185</v>
       </c>
       <c r="AV19">
-        <v>0.003674479324239185</v>
+        <v>0</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>0.03230608380023765</v>
       </c>
       <c r="AY19">
-        <v>0.03230608380023765</v>
+        <v>-0.00644449457877451</v>
       </c>
       <c r="AZ19">
-        <v>-0.00644449457877451</v>
+        <v>0.07105666217924982</v>
       </c>
       <c r="BA19">
-        <v>0.07105666217924982</v>
+        <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>0.1022571401748783</v>
       </c>
       <c r="BC19">
-        <v>0.1022571401748783</v>
+        <v>0.251040966616097</v>
       </c>
       <c r="BD19">
-        <v>0.251040966616097</v>
+        <v>14</v>
       </c>
       <c r="BE19">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="BF19">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="BG19">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="BH19">
-        <v>50</v>
+        <v>0.02710518823983092</v>
       </c>
       <c r="BI19">
-        <v>0.02710518823983092</v>
+        <v>-0.01314870294943331</v>
       </c>
       <c r="BJ19">
-        <v>-0.01314870294943331</v>
+        <v>0.06735907942909515</v>
       </c>
       <c r="BK19">
-        <v>0.06735907942909515</v>
+        <v>0</v>
       </c>
       <c r="BL19">
-        <v>0</v>
+        <v>0.1869175059171154</v>
       </c>
       <c r="BM19">
-        <v>0.1869175059171154</v>
+        <v>0.1817407317578427</v>
       </c>
       <c r="BN19">
-        <v>0.1817407317578427</v>
+        <v>0.005200895560406732</v>
       </c>
       <c r="BO19">
-        <v>0.005200895560406732</v>
+        <v>0</v>
       </c>
       <c r="BP19">
-        <v>0</v>
+        <v>-0.006704208370658799</v>
       </c>
       <c r="BQ19">
-        <v>-0.006704208370658799</v>
+        <v>0.003697582750154665</v>
       </c>
       <c r="BR19">
-        <v>0.003697582750154665</v>
+        <v>0</v>
       </c>
       <c r="BS19">
         <v>0</v>
@@ -5162,9 +5130,6 @@
         <v>0</v>
       </c>
       <c r="BV19">
-        <v>0</v>
-      </c>
-      <c r="BW19">
         <v>0</v>
       </c>
     </row>
@@ -5208,209 +5173,209 @@
       <c r="M20">
         <v>0.1468232362765187</v>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
           <t>LW</t>
         </is>
       </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20">
-        <v>1</v>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Egger's test</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Egger's test</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>Publication status used in meta-regression</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Publication status used in meta-regression</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
       <c r="Y20">
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AC20">
-        <v>1</v>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>1. ("If the same participants rated more than one leader category, these effect sizes were averaged prior to calculating study-level mean effect sizes but retained as separate effect sizes for moderator analyses.").</t>
+        </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>1. ("If the same participants rated more than one leader category, these effect sizes were averaged prior to calculating study-level mean effect sizes but retained as separate effect sizes for moderator analyses.").</t>
+          <t>Separate analyses with published and unpublished effect sizes. Contacting authors for unpublished data.</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Separate analyses with published and unpublished effect sizes. Contacting authors for unpublished data.</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF20">
+        <v>1.403176763723481</v>
+      </c>
       <c r="AG20">
-        <v>1.403176763723481</v>
+        <v>1.190189027727245</v>
       </c>
       <c r="AH20">
-        <v>1.190189027727245</v>
+        <v>1.616164499719718</v>
       </c>
       <c r="AI20">
-        <v>1.616164499719718</v>
+        <v>0.493963069718006</v>
       </c>
       <c r="AJ20">
-        <v>0.493963069718006</v>
+        <v>3.833311194519662e-038</v>
       </c>
       <c r="AK20">
-        <v>3.833311194519662e-038</v>
+        <v>5.047307021908612e-171</v>
       </c>
       <c r="AL20">
-        <v>5.047307021908612e-171</v>
+        <v>1.451325869466713</v>
       </c>
       <c r="AM20">
-        <v>1.451325869466713</v>
+        <v>1.219671831253081</v>
       </c>
       <c r="AN20">
-        <v>1.219671831253081</v>
+        <v>1.682979907680345</v>
       </c>
       <c r="AO20">
-        <v>1.682979907680345</v>
+        <v>0.5970519902461101</v>
       </c>
       <c r="AP20">
-        <v>0.5970519902461101</v>
+        <v>1.170249498007219e-034</v>
       </c>
       <c r="AQ20">
-        <v>1.170249498007219e-034</v>
+        <v>6.757372934456197e-211</v>
       </c>
       <c r="AR20">
-        <v>6.757372934456197e-211</v>
+        <v>-0.04814910574323172</v>
       </c>
       <c r="AS20">
-        <v>-0.04814910574323172</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>-0.0294828035258361</v>
       </c>
       <c r="AU20">
-        <v>-0.0294828035258361</v>
+        <v>-0.06681540796062735</v>
       </c>
       <c r="AV20">
-        <v>-0.06681540796062735</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>1</v>
+        <v>-0.1030889205281041</v>
       </c>
       <c r="AX20">
-        <v>-0.1030889205281041</v>
+        <v>1.446775092656554</v>
       </c>
       <c r="AY20">
-        <v>1.446775092656554</v>
+        <v>1.042957124502121</v>
       </c>
       <c r="AZ20">
-        <v>1.042957124502121</v>
+        <v>1.850593060810986</v>
       </c>
       <c r="BA20">
-        <v>1.850593060810986</v>
+        <v>0.770680867072962</v>
       </c>
       <c r="BB20">
-        <v>0.770680867072962</v>
+        <v>2.186474537364224e-012</v>
       </c>
       <c r="BC20">
-        <v>2.186474537364224e-012</v>
+        <v>8.75997169504425e-106</v>
       </c>
       <c r="BD20">
-        <v>8.75997169504425e-106</v>
+        <v>20</v>
       </c>
       <c r="BE20">
-        <v>20</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="BF20">
-        <v>41.66666666666667</v>
+        <v>8</v>
       </c>
       <c r="BG20">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="BH20">
-        <v>40</v>
+        <v>1.554718801226247</v>
       </c>
       <c r="BI20">
-        <v>1.554718801226247</v>
+        <v>1.111358705256429</v>
       </c>
       <c r="BJ20">
-        <v>1.111358705256429</v>
+        <v>1.998078897196066</v>
       </c>
       <c r="BK20">
-        <v>1.998078897196066</v>
+        <v>0.9456665743256952</v>
       </c>
       <c r="BL20">
-        <v>0.9456665743256952</v>
+        <v>6.288653432853854e-012</v>
       </c>
       <c r="BM20">
-        <v>6.288653432853854e-012</v>
+        <v>7.846328800482929e-132</v>
       </c>
       <c r="BN20">
-        <v>7.846328800482929e-132</v>
+        <v>-0.1079437085696939</v>
       </c>
       <c r="BO20">
-        <v>-0.1079437085696939</v>
+        <v>1</v>
       </c>
       <c r="BP20">
-        <v>1</v>
+        <v>-0.06840158075430747</v>
       </c>
       <c r="BQ20">
-        <v>-0.06840158075430747</v>
+        <v>-0.1474858363850804</v>
       </c>
       <c r="BR20">
-        <v>-0.1474858363850804</v>
+        <v>1</v>
       </c>
       <c r="BS20">
-        <v>1</v>
+        <v>-0.1749857072527332</v>
       </c>
       <c r="BT20">
-        <v>-0.1749857072527332</v>
+        <v>7</v>
       </c>
       <c r="BU20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
         <v>0</v>
       </c>
     </row>
@@ -5454,35 +5419,40 @@
       <c r="M21">
         <v>-0.0109581397206921</v>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
           <t>LW</t>
         </is>
       </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21">
-        <v>1</v>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>Adjusted Fail-safe N</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Adjusted Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -5492,14 +5462,12 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
       <c r="Y21">
         <v>0</v>
       </c>
@@ -5510,148 +5478,145 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>1. ("For studies reporting multiple correlations and using multiple measures, we aggregated within each study by accounting for the dependencies of measures.").</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF21">
+        <v>0.2509581397206921</v>
+      </c>
       <c r="AG21">
-        <v>0.2509581397206921</v>
+        <v>0.1415892088487856</v>
       </c>
       <c r="AH21">
-        <v>0.1415892088487856</v>
+        <v>0.3603270705925986</v>
       </c>
       <c r="AI21">
-        <v>0.3603270705925986</v>
+        <v>0.03083144061597048</v>
       </c>
       <c r="AJ21">
-        <v>0.03083144061597048</v>
+        <v>6.88099476467104e-006</v>
       </c>
       <c r="AK21">
-        <v>6.88099476467104e-006</v>
+        <v>3.481953538412446e-010</v>
       </c>
       <c r="AL21">
-        <v>3.481953538412446e-010</v>
+        <v>0.2383393382020502</v>
       </c>
       <c r="AM21">
-        <v>0.2383393382020502</v>
+        <v>0.1584953667612447</v>
       </c>
       <c r="AN21">
-        <v>0.1584953667612447</v>
+        <v>0.3181833096428557</v>
       </c>
       <c r="AO21">
-        <v>0.3181833096428557</v>
+        <v>0.008726617155309742</v>
       </c>
       <c r="AP21">
-        <v>0.008726617155309742</v>
+        <v>4.897519847522745e-009</v>
       </c>
       <c r="AQ21">
-        <v>4.897519847522745e-009</v>
+        <v>0.01119693620331457</v>
       </c>
       <c r="AR21">
-        <v>0.01119693620331457</v>
+        <v>0.01261880151864189</v>
       </c>
       <c r="AS21">
-        <v>0.01261880151864189</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>-0.01690615791245906</v>
       </c>
       <c r="AU21">
-        <v>-0.01690615791245906</v>
+        <v>0.04214376094974287</v>
       </c>
       <c r="AV21">
-        <v>0.04214376094974287</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>1</v>
+        <v>0.02210482346066073</v>
       </c>
       <c r="AX21">
-        <v>0.02210482346066073</v>
+        <v>0.2409772863694446</v>
       </c>
       <c r="AY21">
-        <v>0.2409772863694446</v>
+        <v>0.08049459934024489</v>
       </c>
       <c r="AZ21">
-        <v>0.08049459934024489</v>
+        <v>0.4014599733986444</v>
       </c>
       <c r="BA21">
-        <v>0.4014599733986444</v>
+        <v>0.04446043374301496</v>
       </c>
       <c r="BB21">
-        <v>0.04446043374301496</v>
+        <v>0.003250075007027019</v>
       </c>
       <c r="BC21">
-        <v>0.003250075007027019</v>
+        <v>8.536307169347625e-011</v>
       </c>
       <c r="BD21">
-        <v>8.536307169347625e-011</v>
+        <v>10</v>
       </c>
       <c r="BE21">
+        <v>62.5</v>
+      </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
         <v>10</v>
       </c>
-      <c r="BF21">
-        <v>62.5</v>
-      </c>
-      <c r="BG21">
-        <v>1</v>
-      </c>
       <c r="BH21">
-        <v>10</v>
+        <v>0.2145893638595315</v>
       </c>
       <c r="BI21">
-        <v>0.2145893638595315</v>
+        <v>0.1109883556004029</v>
       </c>
       <c r="BJ21">
-        <v>0.1109883556004029</v>
+        <v>0.3181903721186602</v>
       </c>
       <c r="BK21">
-        <v>0.3181903721186602</v>
+        <v>0.007368507821219845</v>
       </c>
       <c r="BL21">
-        <v>0.007368507821219845</v>
+        <v>4.913903224743249e-005</v>
       </c>
       <c r="BM21">
-        <v>4.913903224743249e-005</v>
+        <v>0.01316888556729928</v>
       </c>
       <c r="BN21">
-        <v>0.01316888556729928</v>
+        <v>0.02638792250991309</v>
       </c>
       <c r="BO21">
-        <v>0.02638792250991309</v>
+        <v>1</v>
       </c>
       <c r="BP21">
-        <v>1</v>
+        <v>-0.03049375626015802</v>
       </c>
       <c r="BQ21">
-        <v>-0.03049375626015802</v>
+        <v>0.08326960127998417</v>
       </c>
       <c r="BR21">
-        <v>0.08326960127998417</v>
+        <v>2</v>
       </c>
       <c r="BS21">
-        <v>2</v>
+        <v>0.03709192592179512</v>
       </c>
       <c r="BT21">
-        <v>0.03709192592179512</v>
+        <v>3</v>
       </c>
       <c r="BU21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV21">
-        <v>0</v>
-      </c>
-      <c r="BW21">
         <v>0</v>
       </c>
     </row>
@@ -5695,30 +5660,35 @@
       <c r="M22">
         <v>-0.004804016926505145</v>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q22">
+        <v>1</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22">
-        <v>1</v>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Trim and fill</t>
+        </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5733,16 +5703,14 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -5751,153 +5719,150 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>1 . ("Six studies presented data on (partly) overlapping samples. When samples of studies were overlapping, the papers that reported on the largest groups of participants were included in our meta-analysis.")</t>
+        </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>1 . ("Six studies presented data on (partly) overlapping samples. When samples of studies were overlapping, the papers that reported on the largest groups of participants were included in our meta-analysis.")</t>
+          <t>Outliers: authors mention no outliers were found, but do not perform any analyses: "No outliers (standardized z-values smaller than 3.29 or larger than 3.29; Tabachnick &amp; Fidell, 2001) were found for study effect sizes."</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Outliers: authors mention no outliers were found, but do not perform any analyses: "No outliers (standardized z-values smaller than 3.29 or larger than 3.29; Tabachnick &amp; Fidell, 2001) were found for study effect sizes."</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF22">
+        <v>0.1248040169265051</v>
+      </c>
       <c r="AG22">
-        <v>0.1248040169265051</v>
+        <v>0.0725970886073692</v>
       </c>
       <c r="AH22">
-        <v>0.0725970886073692</v>
+        <v>0.1770109452456411</v>
       </c>
       <c r="AI22">
-        <v>0.1770109452456411</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>2.793866160588649e-006</v>
       </c>
       <c r="AK22">
-        <v>2.793866160588649e-006</v>
+        <v>0.4789046533013923</v>
       </c>
       <c r="AL22">
-        <v>0.4789046533013923</v>
+        <v>0.1203160631399284</v>
       </c>
       <c r="AM22">
-        <v>0.1203160631399284</v>
+        <v>0.06801918693301461</v>
       </c>
       <c r="AN22">
-        <v>0.06801918693301461</v>
+        <v>0.1726129393468422</v>
       </c>
       <c r="AO22">
-        <v>0.1726129393468422</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>6.508382414650771e-006</v>
       </c>
       <c r="AQ22">
-        <v>6.508382414650771e-006</v>
+        <v>0.5465791965782085</v>
       </c>
       <c r="AR22">
-        <v>0.5465791965782085</v>
+        <v>0.004487953786576751</v>
       </c>
       <c r="AS22">
-        <v>0.004487953786576751</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.004577901674354595</v>
       </c>
       <c r="AU22">
-        <v>0.004577901674354595</v>
+        <v>0.004398005898798907</v>
       </c>
       <c r="AV22">
-        <v>0.004398005898798907</v>
+        <v>0</v>
       </c>
       <c r="AW22">
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>0.115906054059857</v>
       </c>
       <c r="AY22">
-        <v>0.2347407710881501</v>
+        <v>0.04304011465074757</v>
       </c>
       <c r="AZ22">
-        <v>0.01399871143253015</v>
+        <v>0.1887719934689665</v>
       </c>
       <c r="BA22">
-        <v>0.4554828307437701</v>
+        <v>0.003739564622387571</v>
       </c>
       <c r="BB22">
-        <v>0.1025330540563391</v>
+        <v>0.001822890057390284</v>
       </c>
       <c r="BC22">
-        <v>0.0371366835794448</v>
+        <v>0.2046779209446434</v>
       </c>
       <c r="BD22">
-        <v>8.536307169347625e-011</v>
+        <v>11</v>
       </c>
       <c r="BE22">
-        <v>10</v>
+        <v>68.75</v>
       </c>
       <c r="BF22">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="BG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22">
-        <v>10</v>
+        <v>0.108913910130457</v>
       </c>
       <c r="BI22">
-        <v>0.2138729914444559</v>
+        <v>0.03896951715575389</v>
       </c>
       <c r="BJ22">
-        <v>0.07729264698470817</v>
+        <v>0.1788583031051602</v>
       </c>
       <c r="BK22">
-        <v>0.3504533359042036</v>
+        <v>0.002608697742820481</v>
       </c>
       <c r="BL22">
-        <v>0.02563921920410204</v>
+        <v>0.00227354001421407</v>
       </c>
       <c r="BM22">
-        <v>0.002146803723770598</v>
+        <v>0.2638584749267575</v>
       </c>
       <c r="BN22">
-        <v>0.01316888556729928</v>
+        <v>0.006992143929399994</v>
       </c>
       <c r="BO22">
-        <v>0.02086777964369421</v>
+        <v>0</v>
       </c>
       <c r="BP22">
-        <v>0</v>
+        <v>0.00407059749499368</v>
       </c>
       <c r="BQ22">
-        <v>-0.06329393555217802</v>
+        <v>0.009913690363806321</v>
       </c>
       <c r="BR22">
-        <v>0.1050294948395665</v>
+        <v>0</v>
       </c>
       <c r="BS22">
-        <v>2</v>
+        <v>0.00113086687956709</v>
       </c>
       <c r="BT22">
-        <v>0.0768938348522371</v>
+        <v>0</v>
       </c>
       <c r="BU22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV22">
-        <v>0</v>
-      </c>
-      <c r="BW22">
         <v>0</v>
       </c>
     </row>
@@ -5941,210 +5906,210 @@
       <c r="M23">
         <v>-0.001892912096443211</v>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q23">
+        <v>1</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23">
-        <v>1</v>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>Funnel plot</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>Publication status used in meta-regression</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Publication status used in meta-regression</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>1. ("When multiple, independent samples were included within one_x000D_
 article, we treated them as separate studies").</t>
         </is>
       </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Separate analyses with published and unpublished effect sizes. Different publication bias methods show different results- Publication status used in meta-regression did not find any significant differences, but trim and fill and fail-safe N found some results for publication bias. Outliers were mentioned but no analyses performed: "Overall, standardized z values fell within the range of  3.26 to 3.26 for all effect sizes ( p   .001), implying that no outliers were present." Contacting the authors: "The data from [...] were obtained by e-mailing the authors."</t>
+        </is>
+      </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Separate analyses with published and unpublished effect sizes. Different publication bias methods show different results- Publication status used in meta-regression did not find any significant differences, but trim and fill and fail-safe N found some results for publication bias. Outliers were mentioned but no analyses performed: "Overall, standardized z values fell within the range of  3.26 to 3.26 for all effect sizes ( p   .001), implying that no outliers were present." Contacting the authors: "The data from [...] were obtained by e-mailing the authors."</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF23">
+        <v>0.2718929120964432</v>
+      </c>
       <c r="AG23">
+        <v>0.1931368367838089</v>
+      </c>
+      <c r="AH23">
+        <v>0.3506489874090776</v>
+      </c>
+      <c r="AI23">
+        <v>0.0002554239343344868</v>
+      </c>
+      <c r="AJ23">
+        <v>1.319659233083653e-011</v>
+      </c>
+      <c r="AK23">
+        <v>0.4146322884217815</v>
+      </c>
+      <c r="AL23">
+        <v>0.2657857961248207</v>
+      </c>
+      <c r="AM23">
+        <v>0.1915468664379424</v>
+      </c>
+      <c r="AN23">
+        <v>0.3400247258116991</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>2.267696036335327e-012</v>
+      </c>
+      <c r="AQ23">
+        <v>0.4313959421373603</v>
+      </c>
+      <c r="AR23">
+        <v>0.006107115971622501</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0.001589970345866498</v>
+      </c>
+      <c r="AU23">
+        <v>0.0106242615973785</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0.0002554239343344868</v>
+      </c>
+      <c r="AX23">
         <v>0.2718929120964432</v>
       </c>
-      <c r="AH23">
+      <c r="AY23">
         <v>0.1931368367838089</v>
       </c>
-      <c r="AI23">
+      <c r="AZ23">
         <v>0.3506489874090776</v>
       </c>
-      <c r="AJ23">
+      <c r="BA23">
         <v>0.0002554239343344868</v>
       </c>
-      <c r="AK23">
+      <c r="BB23">
         <v>1.319659233083653e-011</v>
       </c>
-      <c r="AL23">
+      <c r="BC23">
         <v>0.4146322884217815</v>
       </c>
-      <c r="AM23">
+      <c r="BD23">
+        <v>8</v>
+      </c>
+      <c r="BE23">
+        <v>100</v>
+      </c>
+      <c r="BF23">
+        <v>8</v>
+      </c>
+      <c r="BG23">
+        <v>100</v>
+      </c>
+      <c r="BH23">
         <v>0.2657857961248207</v>
       </c>
-      <c r="AN23">
+      <c r="BI23">
         <v>0.1915468664379424</v>
       </c>
-      <c r="AO23">
+      <c r="BJ23">
         <v>0.3400247258116991</v>
       </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
         <v>2.267696036335327e-012</v>
       </c>
-      <c r="AR23">
+      <c r="BM23">
         <v>0.4313959421373603</v>
       </c>
-      <c r="AS23">
+      <c r="BN23">
         <v>0.006107115971622501</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
         <v>0.001589970345866498</v>
       </c>
-      <c r="AV23">
+      <c r="BQ23">
         <v>0.0106242615973785</v>
       </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
         <v>0.0002554239343344868</v>
       </c>
-      <c r="AY23">
-        <v>0.2718929120964432</v>
-      </c>
-      <c r="AZ23">
-        <v>0.1931368367838089</v>
-      </c>
-      <c r="BA23">
-        <v>0.3506489874090776</v>
-      </c>
-      <c r="BB23">
-        <v>0.0002554239343344868</v>
-      </c>
-      <c r="BC23">
-        <v>1.319659233083653e-011</v>
-      </c>
-      <c r="BD23">
-        <v>0.4146322884217815</v>
-      </c>
-      <c r="BE23">
-        <v>8</v>
-      </c>
-      <c r="BF23">
-        <v>100</v>
-      </c>
-      <c r="BG23">
-        <v>8</v>
-      </c>
-      <c r="BH23">
-        <v>100</v>
-      </c>
-      <c r="BI23">
-        <v>0.2657857961248207</v>
-      </c>
-      <c r="BJ23">
-        <v>0.1915468664379424</v>
-      </c>
-      <c r="BK23">
-        <v>0.3400247258116991</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>2.267696036335327e-012</v>
-      </c>
-      <c r="BN23">
-        <v>0.4313959421373603</v>
-      </c>
-      <c r="BO23">
-        <v>0.006107115971622501</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
-        <v>0.001589970345866498</v>
-      </c>
-      <c r="BR23">
-        <v>0.0106242615973785</v>
-      </c>
-      <c r="BS23">
-        <v>0</v>
-      </c>
       <c r="BT23">
-        <v>0.0002554239343344868</v>
+        <v>1</v>
       </c>
       <c r="BU23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV23">
-        <v>0</v>
-      </c>
-      <c r="BW23">
         <v>0</v>
       </c>
     </row>
@@ -6188,30 +6153,35 @@
       <c r="M24">
         <v>-0.05286088172911196</v>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
           <t>MoM</t>
         </is>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
       <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -6226,171 +6196,166 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
-      <c r="AC24">
-        <v>1</v>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>1. ("If a given study had multiple ESs for a general outcome (e.g., an ES for depression and an ES for obsessive compulsive disorder under the general outcome “mental health”), then these ESs were averaged to create an overall ES for that study.").</t>
+        </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>1. ("If a given study had multiple ESs for a general outcome (e.g., an ES for depression and an ES for obsessive compulsive disorder under the general outcome “mental health”), then these ESs were averaged to create an overall ES for that study.").</t>
+          <t>Didn't do supgroup analysis due to small sample size and missing data</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Didn't do supgroup analysis due to small sample size and missing data</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF24">
+        <v>0.922860881729112</v>
+      </c>
       <c r="AG24">
-        <v>0.922860881729112</v>
+        <v>0.6744919403355932</v>
       </c>
       <c r="AH24">
-        <v>0.6744919403355932</v>
+        <v>1.171229823122631</v>
       </c>
       <c r="AI24">
-        <v>1.171229823122631</v>
+        <v>0.09327421044623742</v>
       </c>
       <c r="AJ24">
-        <v>0.09327421044623742</v>
+        <v>3.274232079182636e-013</v>
       </c>
       <c r="AK24">
-        <v>3.274232079182636e-013</v>
+        <v>0.02092794405986047</v>
       </c>
       <c r="AL24">
-        <v>0.02092794405986047</v>
+        <v>0.9223267201699172</v>
       </c>
       <c r="AM24">
-        <v>0.9223267201699172</v>
+        <v>0.6722745200929466</v>
       </c>
       <c r="AN24">
-        <v>0.6722745200929466</v>
+        <v>1.172378920246888</v>
       </c>
       <c r="AO24">
-        <v>1.172378920246888</v>
+        <v>0.09554892559199264</v>
       </c>
       <c r="AP24">
-        <v>0.09554892559199264</v>
+        <v>4.851357440170333e-013</v>
       </c>
       <c r="AQ24">
-        <v>4.851357440170333e-013</v>
+        <v>0.01934438701414739</v>
       </c>
       <c r="AR24">
-        <v>0.01934438701414739</v>
+        <v>0.0005341615591947235</v>
       </c>
       <c r="AS24">
-        <v>0.0005341615591947235</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.002217420242646595</v>
       </c>
       <c r="AU24">
-        <v>0.002217420242646595</v>
+        <v>-0.001149097124256926</v>
       </c>
       <c r="AV24">
-        <v>-0.001149097124256926</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>-0.002274715145755224</v>
       </c>
       <c r="AX24">
-        <v>-0.002274715145755224</v>
+        <v>0.8966888452285828</v>
       </c>
       <c r="AY24">
-        <v>0.8966888452285828</v>
+        <v>0.6776001383220681</v>
       </c>
       <c r="AZ24">
-        <v>0.6776001383220681</v>
+        <v>1.115777552135098</v>
       </c>
       <c r="BA24">
-        <v>1.115777552135098</v>
+        <v>0.006156710178576172</v>
       </c>
       <c r="BB24">
-        <v>0.006156710178576172</v>
+        <v>1.042374972193937e-015</v>
       </c>
       <c r="BC24">
-        <v>1.042374972193937e-015</v>
+        <v>0.3933024900425615</v>
       </c>
       <c r="BD24">
-        <v>0.3933024900425615</v>
+        <v>9</v>
       </c>
       <c r="BE24">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="BF24">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="BG24">
-        <v>1</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="BH24">
-        <v>11.11111111111111</v>
+        <v>0.9013562167141639</v>
       </c>
       <c r="BI24">
-        <v>0.9013562167141639</v>
+        <v>0.674747133346695</v>
       </c>
       <c r="BJ24">
-        <v>0.674747133346695</v>
+        <v>1.127965300081633</v>
       </c>
       <c r="BK24">
-        <v>1.127965300081633</v>
+        <v>0.009980111552470599</v>
       </c>
       <c r="BL24">
-        <v>0.009980111552470599</v>
+        <v>6.394214723386892e-015</v>
       </c>
       <c r="BM24">
-        <v>6.394214723386892e-015</v>
+        <v>0.3699530122914298</v>
       </c>
       <c r="BN24">
-        <v>0.3699530122914298</v>
+        <v>-0.004667371485581051</v>
       </c>
       <c r="BO24">
-        <v>-0.004667371485581051</v>
+        <v>0</v>
       </c>
       <c r="BP24">
-        <v>0</v>
+        <v>0.002853004975373108</v>
       </c>
       <c r="BQ24">
-        <v>0.002853004975373108</v>
+        <v>-0.0121877479465351</v>
       </c>
       <c r="BR24">
-        <v>-0.0121877479465351</v>
+        <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>-0.003823401373894426</v>
       </c>
       <c r="BT24">
-        <v>-0.003823401373894426</v>
+        <v>4</v>
       </c>
       <c r="BU24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV24">
-        <v>0</v>
-      </c>
-      <c r="BW24">
         <v>0</v>
       </c>
     </row>
@@ -6434,26 +6399,31 @@
       <c r="M25">
         <v>-0.04216313168459036</v>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>Stata</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stata</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
           <t>DL</t>
         </is>
       </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
       <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -6475,10 +6445,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -6490,148 +6458,145 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>1 . ("In order to account for dependencies in the data due to multiple treatment comparisons within one study, we divided the sample size among comparisons").</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF25">
+        <v>-0.04316313168459036</v>
+      </c>
       <c r="AG25">
-        <v>-0.04316313168459036</v>
+        <v>-0.2169434713780535</v>
       </c>
       <c r="AH25">
-        <v>-0.2169434713780535</v>
+        <v>0.1306172080088728</v>
       </c>
       <c r="AI25">
-        <v>0.1306172080088728</v>
+        <v>0.1415001469303451</v>
       </c>
       <c r="AJ25">
-        <v>0.1415001469303451</v>
+        <v>0.6263922636622687</v>
       </c>
       <c r="AK25">
-        <v>0.6263922636622687</v>
+        <v>4.25448513940874e-007</v>
       </c>
       <c r="AL25">
-        <v>4.25448513940874e-007</v>
+        <v>-0.04654158103882246</v>
       </c>
       <c r="AM25">
-        <v>-0.04654158103882246</v>
+        <v>-0.2121049453556998</v>
       </c>
       <c r="AN25">
-        <v>-0.2121049453556998</v>
+        <v>0.1190217832780549</v>
       </c>
       <c r="AO25">
-        <v>0.1190217832780549</v>
+        <v>0.1116570129116917</v>
       </c>
       <c r="AP25">
-        <v>0.1116570129116917</v>
+        <v>0.5816568246441725</v>
       </c>
       <c r="AQ25">
-        <v>0.5816568246441725</v>
+        <v>0.0001062516167340631</v>
       </c>
       <c r="AR25">
-        <v>0.0001062516167340631</v>
+        <v>-0.003378449354232094</v>
       </c>
       <c r="AS25">
-        <v>-0.003378449354232094</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>0.00483852602235374</v>
       </c>
       <c r="AU25">
-        <v>0.00483852602235374</v>
+        <v>0.01159542473081797</v>
       </c>
       <c r="AV25">
-        <v>0.01159542473081797</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>0.02984313401865334</v>
       </c>
       <c r="AX25">
-        <v>0.02984313401865334</v>
+        <v>-0.01139270587354634</v>
       </c>
       <c r="AY25">
-        <v>-0.01139270587354634</v>
+        <v>-0.2897738573712971</v>
       </c>
       <c r="AZ25">
-        <v>-0.2897738573712971</v>
+        <v>0.2669884456242044</v>
       </c>
       <c r="BA25">
-        <v>0.2669884456242044</v>
+        <v>0.2385934521082227</v>
       </c>
       <c r="BB25">
-        <v>0.2385934521082227</v>
+        <v>0.9360692626131397</v>
       </c>
       <c r="BC25">
-        <v>0.9360692626131397</v>
+        <v>9.931468842604719e-009</v>
       </c>
       <c r="BD25">
-        <v>9.931468842604719e-009</v>
+        <v>16</v>
       </c>
       <c r="BE25">
-        <v>16</v>
+        <v>55.17241379310345</v>
       </c>
       <c r="BF25">
-        <v>55.17241379310345</v>
+        <v>5</v>
       </c>
       <c r="BG25">
-        <v>5</v>
+        <v>31.25</v>
       </c>
       <c r="BH25">
-        <v>31.25</v>
+        <v>-0.01562065108315128</v>
       </c>
       <c r="BI25">
-        <v>-0.01562065108315128</v>
+        <v>-0.2891247242031788</v>
       </c>
       <c r="BJ25">
-        <v>-0.2891247242031788</v>
+        <v>0.2578834220368761</v>
       </c>
       <c r="BK25">
-        <v>0.2578834220368761</v>
+        <v>0.2100315986820081</v>
       </c>
       <c r="BL25">
-        <v>0.2100315986820081</v>
+        <v>0.9108713643388577</v>
       </c>
       <c r="BM25">
-        <v>0.9108713643388577</v>
+        <v>6.695580523989991e-006</v>
       </c>
       <c r="BN25">
-        <v>6.695580523989991e-006</v>
+        <v>-0.004227945209604948</v>
       </c>
       <c r="BO25">
-        <v>-0.004227945209604948</v>
+        <v>0</v>
       </c>
       <c r="BP25">
-        <v>0</v>
+        <v>0.000649133168118321</v>
       </c>
       <c r="BQ25">
-        <v>0.000649133168118321</v>
+        <v>0.009105023587328232</v>
       </c>
       <c r="BR25">
-        <v>0.009105023587328232</v>
+        <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>0.02856185342621456</v>
       </c>
       <c r="BT25">
-        <v>0.02856185342621456</v>
+        <v>3</v>
       </c>
       <c r="BU25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV25">
-        <v>0</v>
-      </c>
-      <c r="BW25">
         <v>0</v>
       </c>
     </row>
@@ -6675,57 +6640,60 @@
       <c r="M26">
         <v>-0.002301519066232716</v>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
           <t>DL</t>
         </is>
       </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
       <c r="R26">
         <v>1</v>
       </c>
-      <c r="S26">
-        <v>1</v>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>Funnel plot</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Egger's test</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Egger's test</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -6733,151 +6701,148 @@
       <c r="AB26">
         <v>1</v>
       </c>
-      <c r="AC26">
-        <v>1</v>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>1. Independence of results was ensured for all analyses. Thus, if a study reported results for more than one type of outcome measure of either anxiety or depressive symptom severity, an average ES across respective measures was calculated, so that only one result per study was used for each quantitative data synthesis.")</t>
+        </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>1. Independence of results was ensured for all analyses. Thus, if a study reported results for more than one type of outcome measure of either anxiety or depressive symptom severity, an average ES across respective measures was calculated, so that only one result per study was used for each quantitative data synthesis.")</t>
+          <t>Contacting authors for unpublished data. Only trim and fill found 1 study to impute, all other publication bias tests did not find evidence for publication bias.</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Contacting authors for unpublished data. Only trim and fill found 1 study to impute, all other publication bias tests did not find evidence for publication bias.</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF26">
+        <v>0.3723015190662327</v>
+      </c>
       <c r="AG26">
-        <v>0.3723015190662327</v>
+        <v>0.2464116842736387</v>
       </c>
       <c r="AH26">
-        <v>0.2464116842736387</v>
+        <v>0.4981913538588267</v>
       </c>
       <c r="AI26">
-        <v>0.4981913538588267</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>6.778650244784226e-009</v>
       </c>
       <c r="AK26">
-        <v>6.778650244784226e-009</v>
+        <v>0.6101902364731009</v>
       </c>
       <c r="AL26">
-        <v>0.6101902364731009</v>
+        <v>0.3975915210936848</v>
       </c>
       <c r="AM26">
-        <v>0.3975915210936848</v>
+        <v>0.2533373124917222</v>
       </c>
       <c r="AN26">
-        <v>0.2533373124917222</v>
+        <v>0.5418457296956474</v>
       </c>
       <c r="AO26">
-        <v>0.5418457296956474</v>
+        <v>0.007301802101383104</v>
       </c>
       <c r="AP26">
-        <v>0.007301802101383104</v>
+        <v>6.589220171717142e-008</v>
       </c>
       <c r="AQ26">
-        <v>6.589220171717142e-008</v>
+        <v>0.3076611139389464</v>
       </c>
       <c r="AR26">
-        <v>0.3076611139389464</v>
+        <v>-0.02529000202745207</v>
       </c>
       <c r="AS26">
-        <v>-0.02529000202745207</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>-0.006925628218083513</v>
       </c>
       <c r="AU26">
-        <v>-0.006925628218083513</v>
+        <v>-0.04365437583682064</v>
       </c>
       <c r="AV26">
-        <v>-0.04365437583682064</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>-0.007301802101383104</v>
       </c>
       <c r="AX26">
-        <v>-0.007301802101383104</v>
+        <v>0.3641467486005151</v>
       </c>
       <c r="AY26">
-        <v>0.3641467486005151</v>
+        <v>0.2372692815070285</v>
       </c>
       <c r="AZ26">
-        <v>0.2372692815070285</v>
+        <v>0.4910242156940017</v>
       </c>
       <c r="BA26">
-        <v>0.4910242156940017</v>
+        <v>0</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>1.85264534476616e-008</v>
       </c>
       <c r="BC26">
-        <v>1.85264534476616e-008</v>
+        <v>0.6224494743744462</v>
       </c>
       <c r="BD26">
-        <v>0.6224494743744462</v>
+        <v>8</v>
       </c>
       <c r="BE26">
-        <v>8</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="BF26">
-        <v>88.88888888888889</v>
+        <v>4</v>
       </c>
       <c r="BG26">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="BH26">
-        <v>50</v>
+        <v>0.3879896417203889</v>
       </c>
       <c r="BI26">
-        <v>0.3879896417203889</v>
+        <v>0.2417572180818357</v>
       </c>
       <c r="BJ26">
-        <v>0.2417572180818357</v>
+        <v>0.534222065358942</v>
       </c>
       <c r="BK26">
-        <v>0.534222065358942</v>
+        <v>0.007556211299924736</v>
       </c>
       <c r="BL26">
-        <v>0.007556211299924736</v>
+        <v>1.99016525221653e-007</v>
       </c>
       <c r="BM26">
-        <v>1.99016525221653e-007</v>
+        <v>0.2951889278844869</v>
       </c>
       <c r="BN26">
-        <v>0.2951889278844869</v>
+        <v>-0.02384289311987375</v>
       </c>
       <c r="BO26">
-        <v>-0.02384289311987375</v>
+        <v>0</v>
       </c>
       <c r="BP26">
-        <v>0</v>
+        <v>-0.004487936574807117</v>
       </c>
       <c r="BQ26">
-        <v>-0.004487936574807117</v>
+        <v>-0.04319784966494034</v>
       </c>
       <c r="BR26">
-        <v>-0.04319784966494034</v>
+        <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>-0.007556211299924736</v>
       </c>
       <c r="BT26">
-        <v>-0.007556211299924736</v>
+        <v>0</v>
       </c>
       <c r="BU26">
         <v>0</v>
       </c>
       <c r="BV26">
-        <v>0</v>
-      </c>
-      <c r="BW26">
         <v>0</v>
       </c>
     </row>
@@ -6921,35 +6886,40 @@
       <c r="M27">
         <v>-0.005397224869093997</v>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>SPSS</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>SPSS</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
           <t>LW</t>
         </is>
       </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
       <c r="R27">
         <v>1</v>
       </c>
-      <c r="S27">
-        <v>1</v>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -6959,14 +6929,12 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
       <c r="Y27">
         <v>0</v>
       </c>
@@ -6977,153 +6945,150 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>1. ("Moreover, inclusion of multiple effect sizes within studies would violate the assumption of independent samples; even though the particular subsamples may have differed on a characteristic such as race, the data shared characteristics including method, experimental design, location, and setting. To overcome this issue, we averaged all effect sizes within each study (weighted by the number of participants included in each analysis) to compute an aggregate effect size for that particular study (Mullen, 1989).").</t>
+        </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>1. ("Moreover, inclusion of multiple effect sizes within studies would violate the assumption of independent samples; even though the particular subsamples may have differed on a characteristic such as race, the data shared characteristics including method, experimental design, location, and setting. To overcome this issue, we averaged all effect sizes within each study (weighted by the number of participants included in each analysis) to compute an aggregate effect size for that particular study (Mullen, 1989).").</t>
+          <t>Separate analyses with published and unpublished effect sizes. Contacting authors for unpublished data</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Separate analyses with published and unpublished effect sizes. Contacting authors for unpublished data</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF27">
+        <v>0.178397224869094</v>
+      </c>
       <c r="AG27">
-        <v>0.178397224869094</v>
+        <v>0.158849047135147</v>
       </c>
       <c r="AH27">
-        <v>0.158849047135147</v>
+        <v>0.197945402603041</v>
       </c>
       <c r="AI27">
-        <v>0.197945402603041</v>
+        <v>0.01204141361590493</v>
       </c>
       <c r="AJ27">
-        <v>0.01204141361590493</v>
+        <v>1.497514654729896e-071</v>
       </c>
       <c r="AK27">
-        <v>1.497514654729896e-071</v>
+        <v>9.909445675653528e-066</v>
       </c>
       <c r="AL27">
-        <v>9.909445675653528e-066</v>
+        <v>0.1783795974816122</v>
       </c>
       <c r="AM27">
-        <v>0.1783795974816122</v>
+        <v>0.1587625569638924</v>
       </c>
       <c r="AN27">
-        <v>0.1587625569638924</v>
+        <v>0.1979966379993321</v>
       </c>
       <c r="AO27">
-        <v>0.1979966379993321</v>
+        <v>0.01216638757461709</v>
       </c>
       <c r="AP27">
-        <v>0.01216638757461709</v>
+        <v>4.758338862685781e-071</v>
       </c>
       <c r="AQ27">
-        <v>4.758338862685781e-071</v>
+        <v>1.188620819765823e-066</v>
       </c>
       <c r="AR27">
-        <v>1.188620819765823e-066</v>
+        <v>1.762738748176118e-005</v>
       </c>
       <c r="AS27">
-        <v>1.762738748176118e-005</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>8.649017125461622e-005</v>
       </c>
       <c r="AU27">
-        <v>8.649017125461622e-005</v>
+        <v>-5.123539629109386e-005</v>
       </c>
       <c r="AV27">
-        <v>-5.123539629109386e-005</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>-0.0001249739587121657</v>
       </c>
       <c r="AX27">
-        <v>-0.0001249739587121657</v>
+        <v>0.245715797277975</v>
       </c>
       <c r="AY27">
-        <v>0.245715797277975</v>
+        <v>0.189056049055809</v>
       </c>
       <c r="AZ27">
-        <v>0.189056049055809</v>
+        <v>0.302375545500141</v>
       </c>
       <c r="BA27">
-        <v>0.302375545500141</v>
+        <v>0.01274329932964601</v>
       </c>
       <c r="BB27">
-        <v>0.01274329932964601</v>
+        <v>1.899873638192926e-017</v>
       </c>
       <c r="BC27">
-        <v>1.899873638192926e-017</v>
+        <v>5.128538448111693e-016</v>
       </c>
       <c r="BD27">
-        <v>5.128538448111693e-016</v>
+        <v>21</v>
       </c>
       <c r="BE27">
-        <v>21</v>
+        <v>11.41304347826087</v>
       </c>
       <c r="BF27">
-        <v>11.41304347826087</v>
+        <v>14</v>
       </c>
       <c r="BG27">
-        <v>14</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="BH27">
-        <v>66.66666666666666</v>
+        <v>0.2460973855306017</v>
       </c>
       <c r="BI27">
-        <v>0.2460973855306017</v>
+        <v>0.1881592605470259</v>
       </c>
       <c r="BJ27">
-        <v>0.1881592605470259</v>
+        <v>0.3040355105141775</v>
       </c>
       <c r="BK27">
-        <v>0.3040355105141775</v>
+        <v>0.01352630331777505</v>
       </c>
       <c r="BL27">
-        <v>0.01352630331777505</v>
+        <v>8.424127984830247e-017</v>
       </c>
       <c r="BM27">
-        <v>8.424127984830247e-017</v>
+        <v>3.810361338156589e-017</v>
       </c>
       <c r="BN27">
-        <v>3.810361338156589e-017</v>
+        <v>-0.0003815882526267411</v>
       </c>
       <c r="BO27">
-        <v>-0.0003815882526267411</v>
+        <v>0</v>
       </c>
       <c r="BP27">
-        <v>0</v>
+        <v>0.0008967885087830529</v>
       </c>
       <c r="BQ27">
-        <v>0.0008967885087830529</v>
+        <v>-0.001659965014036535</v>
       </c>
       <c r="BR27">
-        <v>-0.001659965014036535</v>
+        <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>-0.0007830039881290413</v>
       </c>
       <c r="BT27">
-        <v>-0.0007830039881290413</v>
+        <v>0</v>
       </c>
       <c r="BU27">
         <v>0</v>
       </c>
       <c r="BV27">
-        <v>0</v>
-      </c>
-      <c r="BW27">
         <v>0</v>
       </c>
     </row>
@@ -7167,26 +7132,31 @@
       <c r="M28">
         <v>0.2829838276250654</v>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>SPSS</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>SPSS</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
           <t>LW</t>
         </is>
       </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
       <c r="R28">
         <v>1</v>
       </c>
-      <c r="S28">
-        <v>1</v>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -7208,10 +7178,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -7223,153 +7191,150 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>1. ("Multiple-experiment studies were allowed to provide data points for each of the separate experiments, as long as the samples were independent. Further, correlation coefficients presented for separate age groups within the same study were treated as separate data points (see Hunter, Schmidt, &amp; Jackson, 1986). About half of the included samples (n   27) reported more than one correlation coefficient of the simple span–complex span relation (because they used several simple and/or complex span tasks; see note in Table 1). As recommended by Hunter et al. (1986), the correlation coefficients in these cases were averaged to yield a single effect size estimate for that sample.").</t>
+        </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>1. ("Multiple-experiment studies were allowed to provide data points for each of the separate experiments, as long as the samples were independent. Further, correlation coefficients presented for separate age groups within the same study were treated as separate data points (see Hunter, Schmidt, &amp; Jackson, 1986). About half of the included samples (n   27) reported more than one correlation coefficient of the simple span–complex span relation (because they used several simple and/or complex span tasks; see note in Table 1). As recommended by Hunter et al. (1986), the correlation coefficients in these cases were averaged to yield a single effect size estimate for that sample.").</t>
+          <t>Author mentions publication bias but states she thinks it's not a problem because simple and complex span tasks are almost always significantly correlated with each other at all ages. No methods used to assess. Effect size: beta from Table 3.</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>Author mentions publication bias but states she thinks it's not a problem because simple and complex span tasks are almost always significantly correlated with each other at all ages. No methods used to assess. Effect size: beta from Table 3.</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF28">
+        <v>0.3770161723749347</v>
+      </c>
       <c r="AG28">
-        <v>0.3770161723749347</v>
+        <v>0.3279967152206605</v>
       </c>
       <c r="AH28">
-        <v>0.3279967152206605</v>
+        <v>0.4260356295292089</v>
       </c>
       <c r="AI28">
-        <v>0.4260356295292089</v>
+        <v>0.01214767753584697</v>
       </c>
       <c r="AJ28">
-        <v>0.01214767753584697</v>
+        <v>2.38732164697612e-051</v>
       </c>
       <c r="AK28">
-        <v>2.38732164697612e-051</v>
+        <v>3.778665680209292e-009</v>
       </c>
       <c r="AL28">
-        <v>3.778665680209292e-009</v>
+        <v>0.3767302634130753</v>
       </c>
       <c r="AM28">
-        <v>0.3767302634130753</v>
+        <v>0.3275281605689421</v>
       </c>
       <c r="AN28">
-        <v>0.3275281605689421</v>
+        <v>0.4259323662572084</v>
       </c>
       <c r="AO28">
-        <v>0.4259323662572084</v>
+        <v>0.01228776999754733</v>
       </c>
       <c r="AP28">
-        <v>0.01228776999754733</v>
+        <v>6.603279804574995e-051</v>
       </c>
       <c r="AQ28">
-        <v>6.603279804574995e-051</v>
+        <v>2.913779737903902e-009</v>
       </c>
       <c r="AR28">
-        <v>2.913779737903902e-009</v>
+        <v>0.0002859089618594268</v>
       </c>
       <c r="AS28">
-        <v>0.0002859089618594268</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>0.0004685546517184114</v>
       </c>
       <c r="AU28">
-        <v>0.0004685546517184114</v>
+        <v>0.0001032632720004423</v>
       </c>
       <c r="AV28">
-        <v>0.0001032632720004423</v>
+        <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>-0.0001400924617003599</v>
       </c>
       <c r="AX28">
-        <v>-0.0001400924617003599</v>
+        <v>0.4004223738504465</v>
       </c>
       <c r="AY28">
-        <v>0.4004223738504465</v>
+        <v>0.3302872144700778</v>
       </c>
       <c r="AZ28">
-        <v>0.3302872144700778</v>
+        <v>0.4705575332308152</v>
       </c>
       <c r="BA28">
-        <v>0.4705575332308152</v>
+        <v>0.01782932340961232</v>
       </c>
       <c r="BB28">
-        <v>0.01782932340961232</v>
+        <v>4.563604015276405e-029</v>
       </c>
       <c r="BC28">
-        <v>4.563604015276405e-029</v>
+        <v>2.060003744873921e-010</v>
       </c>
       <c r="BD28">
-        <v>2.060003744873921e-010</v>
+        <v>19</v>
       </c>
       <c r="BE28">
-        <v>19</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="BF28">
-        <v>63.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="BG28">
-        <v>14</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="BH28">
-        <v>73.68421052631578</v>
+        <v>0.400029626051871</v>
       </c>
       <c r="BI28">
-        <v>0.400029626051871</v>
+        <v>0.3295351500300334</v>
       </c>
       <c r="BJ28">
-        <v>0.3295351500300334</v>
+        <v>0.4705241020737086</v>
       </c>
       <c r="BK28">
-        <v>0.4705241020737086</v>
+        <v>0.01808579924554687</v>
       </c>
       <c r="BL28">
-        <v>0.01808579924554687</v>
+        <v>9.798513331043141e-029</v>
       </c>
       <c r="BM28">
-        <v>9.798513331043141e-029</v>
+        <v>1.45393953147856e-010</v>
       </c>
       <c r="BN28">
-        <v>1.45393953147856e-010</v>
+        <v>0.0003927477985755101</v>
       </c>
       <c r="BO28">
-        <v>0.0003927477985755101</v>
+        <v>0</v>
       </c>
       <c r="BP28">
-        <v>0</v>
+        <v>0.0007520644400443866</v>
       </c>
       <c r="BQ28">
-        <v>0.0007520644400443866</v>
+        <v>3.343115710663369e-005</v>
       </c>
       <c r="BR28">
-        <v>3.343115710663369e-005</v>
+        <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>-0.0002564758359345498</v>
       </c>
       <c r="BT28">
-        <v>-0.0002564758359345498</v>
+        <v>0</v>
       </c>
       <c r="BU28">
         <v>0</v>
       </c>
       <c r="BV28">
-        <v>0</v>
-      </c>
-      <c r="BW28">
         <v>0</v>
       </c>
     </row>
@@ -7413,210 +7378,210 @@
       <c r="M29">
         <v>-0.01002605578979304</v>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q29">
+        <v>1</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29">
-        <v>1</v>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Egger's test</t>
+        </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Egger's test</t>
+          <t>Trim and fill</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Trim and fill</t>
+          <t>Publication status used in meta-regression</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Publication status used in meta-regression</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>1</v>
       </c>
-      <c r="AC29">
-        <v>1</v>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>1. ("To preserve independence assumptions as we calculated effect sizes, we combined measures from each sample that fell into the same dependent variable category.")</t>
+        </is>
       </c>
       <c r="AD29" t="inlineStr">
-        <is>
-          <t>1. ("To preserve independence assumptions as we calculated effect sizes, we combined measures from each sample that fell into the same dependent variable category.")</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
         <is>
           <t>Contacting authors for unpublished data. Separate analyses with published and unpublished effect sizes. Outliers winsorized ("One outlier, which exceeded three standard deviations from the mean, was replaced with the next highest value (Lipsey_x000D_
 &amp; Wilson, 2001).").</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF29">
+        <v>0.100026055789793</v>
+      </c>
       <c r="AG29">
-        <v>0.100026055789793</v>
+        <v>0.0283542284793525</v>
       </c>
       <c r="AH29">
-        <v>0.0283542284793525</v>
+        <v>0.1716978831002336</v>
       </c>
       <c r="AI29">
-        <v>0.1716978831002336</v>
+        <v>0.03310713979591434</v>
       </c>
       <c r="AJ29">
-        <v>0.03310713979591434</v>
+        <v>0.00623141539140825</v>
       </c>
       <c r="AK29">
-        <v>0.00623141539140825</v>
+        <v>2.782427234165953e-015</v>
       </c>
       <c r="AL29">
-        <v>2.782427234165953e-015</v>
+        <v>0.08759656348440288</v>
       </c>
       <c r="AM29">
-        <v>0.08759656348440288</v>
+        <v>0.0183624362954519</v>
       </c>
       <c r="AN29">
-        <v>0.0183624362954519</v>
+        <v>0.1568306906733539</v>
       </c>
       <c r="AO29">
-        <v>0.1568306906733539</v>
+        <v>0.02874996362998256</v>
       </c>
       <c r="AP29">
-        <v>0.02874996362998256</v>
+        <v>0.0131459709750803</v>
       </c>
       <c r="AQ29">
-        <v>0.0131459709750803</v>
+        <v>2.625573422717372e-012</v>
       </c>
       <c r="AR29">
-        <v>2.625573422717372e-012</v>
+        <v>0.01242949230539016</v>
       </c>
       <c r="AS29">
-        <v>0.01242949230539016</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>0.009991792183900602</v>
       </c>
       <c r="AU29">
-        <v>0.009991792183900602</v>
+        <v>0.01486719242687973</v>
       </c>
       <c r="AV29">
-        <v>0.01486719242687973</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>0.004357176165931776</v>
       </c>
       <c r="AX29">
-        <v>0.004357176165931776</v>
+        <v>0.1020674573144624</v>
       </c>
       <c r="AY29">
-        <v>0.1020674573144624</v>
+        <v>-0.02389477985174487</v>
       </c>
       <c r="AZ29">
-        <v>-0.02389477985174487</v>
+        <v>0.2280296944806696</v>
       </c>
       <c r="BA29">
-        <v>0.2280296944806696</v>
+        <v>0.0651584045812388</v>
       </c>
       <c r="BB29">
-        <v>0.0651584045812388</v>
+        <v>0.1122495286864697</v>
       </c>
       <c r="BC29">
-        <v>0.1122495286864697</v>
+        <v>3.196069688827547e-014</v>
       </c>
       <c r="BD29">
-        <v>3.196069688827547e-014</v>
+        <v>20</v>
       </c>
       <c r="BE29">
-        <v>20</v>
+        <v>54.05405405405406</v>
       </c>
       <c r="BF29">
-        <v>54.05405405405406</v>
+        <v>6</v>
       </c>
       <c r="BG29">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="BH29">
-        <v>30</v>
+        <v>0.08220949156061003</v>
       </c>
       <c r="BI29">
-        <v>0.08220949156061003</v>
+        <v>-0.03810844383000103</v>
       </c>
       <c r="BJ29">
-        <v>-0.03810844383000103</v>
+        <v>0.2025274269512211</v>
       </c>
       <c r="BK29">
-        <v>0.2025274269512211</v>
+        <v>0.05526749861105359</v>
       </c>
       <c r="BL29">
-        <v>0.05526749861105359</v>
+        <v>0.1805113515324409</v>
       </c>
       <c r="BM29">
-        <v>0.1805113515324409</v>
+        <v>1.006365143459967e-010</v>
       </c>
       <c r="BN29">
-        <v>1.006365143459967e-010</v>
+        <v>0.01985796575385232</v>
       </c>
       <c r="BO29">
-        <v>0.01985796575385232</v>
+        <v>0</v>
       </c>
       <c r="BP29">
-        <v>0</v>
+        <v>-0.01421366397825616</v>
       </c>
       <c r="BQ29">
-        <v>-0.01421366397825616</v>
+        <v>0.02550226752944848</v>
       </c>
       <c r="BR29">
-        <v>0.02550226752944848</v>
+        <v>1</v>
       </c>
       <c r="BS29">
-        <v>1</v>
+        <v>0.009890905970185208</v>
       </c>
       <c r="BT29">
-        <v>0.009890905970185208</v>
+        <v>1</v>
       </c>
       <c r="BU29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV29">
-        <v>0</v>
-      </c>
-      <c r="BW29">
         <v>0</v>
       </c>
     </row>
@@ -7666,6 +7631,11 @@
       <c r="M30">
         <v>0.01962086113077982</v>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7673,19 +7643,19 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
           <t>HS</t>
         </is>
       </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
       <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -7707,10 +7677,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -7719,156 +7687,153 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>1</v>
       </c>
-      <c r="AC30">
-        <v>1</v>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Separate analyses with published and unpublished effect sizes. Mentions independent samples ("Finally, we included only results based on independent samples.").</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Separate analyses with published and unpublished effect sizes. Mentions independent samples ("Finally, we included only results based on independent samples.").</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF30">
+        <v>0.2103791388692202</v>
+      </c>
       <c r="AG30">
-        <v>0.2103791388692202</v>
+        <v>0.1634943543055696</v>
       </c>
       <c r="AH30">
-        <v>0.1634943543055696</v>
+        <v>0.2572639234328708</v>
       </c>
       <c r="AI30">
-        <v>0.2572639234328708</v>
+        <v>0.003926779373588089</v>
       </c>
       <c r="AJ30">
-        <v>0.003926779373588089</v>
+        <v>1.434873445004524e-018</v>
       </c>
       <c r="AK30">
-        <v>1.434873445004524e-018</v>
+        <v>0.008100424269176518</v>
       </c>
       <c r="AL30">
-        <v>0.008100424269176518</v>
+        <v>0.2129958218067675</v>
       </c>
       <c r="AM30">
-        <v>0.2129958218067675</v>
+        <v>0.1672420292100166</v>
       </c>
       <c r="AN30">
-        <v>0.1672420292100166</v>
+        <v>0.2587496144035185</v>
       </c>
       <c r="AO30">
-        <v>0.2587496144035185</v>
+        <v>0.003549341046598833</v>
       </c>
       <c r="AP30">
-        <v>0.003549341046598833</v>
+        <v>7.230615451080761e-020</v>
       </c>
       <c r="AQ30">
-        <v>7.230615451080761e-020</v>
+        <v>0.01271845336127717</v>
       </c>
       <c r="AR30">
-        <v>0.01271845336127717</v>
+        <v>-0.002616682937547354</v>
       </c>
       <c r="AS30">
-        <v>-0.002616682937547354</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>-0.003747674904447024</v>
       </c>
       <c r="AU30">
-        <v>-0.003747674904447024</v>
+        <v>-0.001485690970647713</v>
       </c>
       <c r="AV30">
-        <v>-0.001485690970647713</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>0.0003774383269892559</v>
       </c>
       <c r="AX30">
-        <v>0.0003774383269892559</v>
+        <v>0.1373424561305737</v>
       </c>
       <c r="AY30">
-        <v>0.1373424561305737</v>
+        <v>0.05921254222973722</v>
       </c>
       <c r="AZ30">
-        <v>0.05921254222973722</v>
+        <v>0.2154723700314102</v>
       </c>
       <c r="BA30">
-        <v>0.2154723700314102</v>
+        <v>0.006330427501697535</v>
       </c>
       <c r="BB30">
-        <v>0.006330427501697535</v>
+        <v>0.0005702834389282293</v>
       </c>
       <c r="BC30">
-        <v>0.0005702834389282293</v>
+        <v>0.04329240574782205</v>
       </c>
       <c r="BD30">
-        <v>0.04329240574782205</v>
+        <v>10</v>
       </c>
       <c r="BE30">
-        <v>10</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="BF30">
-        <v>58.82352941176471</v>
+        <v>9</v>
       </c>
       <c r="BG30">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="BH30">
-        <v>90</v>
+        <v>0.1417659109759833</v>
       </c>
       <c r="BI30">
-        <v>0.1417659109759833</v>
+        <v>0.06580801207647997</v>
       </c>
       <c r="BJ30">
-        <v>0.06580801207647997</v>
+        <v>0.2177238098754866</v>
       </c>
       <c r="BK30">
-        <v>0.2177238098754866</v>
+        <v>0.005528351448378167</v>
       </c>
       <c r="BL30">
-        <v>0.005528351448378167</v>
+        <v>0.0002541638241584272</v>
       </c>
       <c r="BM30">
-        <v>0.0002541638241584272</v>
+        <v>0.05833207323438508</v>
       </c>
       <c r="BN30">
-        <v>0.05833207323438508</v>
+        <v>-0.004423454845409569</v>
       </c>
       <c r="BO30">
-        <v>-0.004423454845409569</v>
+        <v>0</v>
       </c>
       <c r="BP30">
-        <v>0</v>
+        <v>-0.006595469846742752</v>
       </c>
       <c r="BQ30">
-        <v>-0.006595469846742752</v>
+        <v>-0.002251439844076386</v>
       </c>
       <c r="BR30">
-        <v>-0.002251439844076386</v>
+        <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>0.0008020760533193677</v>
       </c>
       <c r="BT30">
-        <v>0.0008020760533193677</v>
+        <v>2</v>
       </c>
       <c r="BU30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV30">
-        <v>0</v>
-      </c>
-      <c r="BW30">
         <v>0</v>
       </c>
     </row>
@@ -7912,52 +7877,55 @@
       <c r="M31">
         <v>-0.03921775810880546</v>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q31">
+        <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31">
-        <v>1</v>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Funnel plot</t>
+        </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Funnel plot</t>
+          <t>Egger's test</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Egger's test</t>
+          <t>Fail-safe N</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
       <c r="Y31">
         <v>0</v>
       </c>
@@ -7965,156 +7933,153 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
-      <c r="AC31">
-        <v>1</v>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>1. ("Whenever multiple comparisons from one experiment led to the same participants being represented in more than one effect size, we adjusted the N for each group accordingly when calculating the standard error").</t>
+        </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>1. ("Whenever multiple comparisons from one experiment led to the same participants being represented in more than one effect size, we adjusted the N for each group accordingly when calculating the standard error").</t>
+          <t>Contacting authors for unpublished data</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Contacting authors for unpublished data</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
           <t>Same</t>
         </is>
       </c>
+      <c r="AF31">
+        <v>0.6492177581088054</v>
+      </c>
       <c r="AG31">
-        <v>0.6492177581088054</v>
+        <v>0.4675703428322962</v>
       </c>
       <c r="AH31">
-        <v>0.4675703428322962</v>
+        <v>0.8308651733853147</v>
       </c>
       <c r="AI31">
-        <v>0.8308651733853147</v>
+        <v>0.1738405043440016</v>
       </c>
       <c r="AJ31">
-        <v>0.1738405043440016</v>
+        <v>2.469539822041393e-012</v>
       </c>
       <c r="AK31">
-        <v>2.469539822041393e-012</v>
+        <v>5.848070198158787e-010</v>
       </c>
       <c r="AL31">
-        <v>5.848070198158787e-010</v>
+        <v>0.7454550142112318</v>
       </c>
       <c r="AM31">
-        <v>0.7454550142112318</v>
+        <v>0.4823676648813013</v>
       </c>
       <c r="AN31">
-        <v>0.4823676648813013</v>
+        <v>1.008542363541162</v>
       </c>
       <c r="AO31">
-        <v>1.008542363541162</v>
+        <v>0.2341082034485099</v>
       </c>
       <c r="AP31">
-        <v>0.2341082034485099</v>
+        <v>2.799484996148726e-008</v>
       </c>
       <c r="AQ31">
-        <v>2.799484996148726e-008</v>
+        <v>1.360790923038061e-005</v>
       </c>
       <c r="AR31">
-        <v>1.360790923038061e-005</v>
+        <v>-0.09623725610242639</v>
       </c>
       <c r="AS31">
-        <v>-0.09623725610242639</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>-0.01479732204900519</v>
       </c>
       <c r="AU31">
-        <v>-0.01479732204900519</v>
+        <v>-0.1776771901558476</v>
       </c>
       <c r="AV31">
-        <v>-0.1776771901558476</v>
+        <v>2</v>
       </c>
       <c r="AW31">
-        <v>2</v>
+        <v>-0.0602676991045083</v>
       </c>
       <c r="AX31">
-        <v>-0.0602676991045083</v>
+        <v>0.7511603872358148</v>
       </c>
       <c r="AY31">
-        <v>0.7511603872358148</v>
+        <v>0.4920877285797916</v>
       </c>
       <c r="AZ31">
-        <v>0.4920877285797916</v>
+        <v>1.010233045891838</v>
       </c>
       <c r="BA31">
-        <v>1.010233045891838</v>
+        <v>0.2472439410853111</v>
       </c>
       <c r="BB31">
-        <v>0.2472439410853111</v>
+        <v>1.32539506033041e-008</v>
       </c>
       <c r="BC31">
-        <v>1.32539506033041e-008</v>
+        <v>5.796153591852084e-010</v>
       </c>
       <c r="BD31">
-        <v>5.796153591852084e-010</v>
+        <v>20</v>
       </c>
       <c r="BE31">
-        <v>20</v>
+        <v>64.51612903225806</v>
       </c>
       <c r="BF31">
-        <v>64.51612903225806</v>
+        <v>7</v>
       </c>
       <c r="BG31">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="BH31">
-        <v>35</v>
+        <v>0.7363101960034751</v>
       </c>
       <c r="BI31">
-        <v>0.7363101960034751</v>
+        <v>0.4475578798361334</v>
       </c>
       <c r="BJ31">
-        <v>0.4475578798361334</v>
+        <v>1.025062512170817</v>
       </c>
       <c r="BK31">
-        <v>1.025062512170817</v>
+        <v>0.3201467330206949</v>
       </c>
       <c r="BL31">
-        <v>0.3201467330206949</v>
+        <v>5.797232083293125e-007</v>
       </c>
       <c r="BM31">
-        <v>5.797232083293125e-007</v>
+        <v>6.529792183361627e-012</v>
       </c>
       <c r="BN31">
-        <v>6.529792183361627e-012</v>
+        <v>0.01485019123233966</v>
       </c>
       <c r="BO31">
-        <v>0.01485019123233966</v>
+        <v>0</v>
       </c>
       <c r="BP31">
-        <v>0</v>
+        <v>0.04452984874365817</v>
       </c>
       <c r="BQ31">
-        <v>0.04452984874365817</v>
+        <v>-0.01482946627897874</v>
       </c>
       <c r="BR31">
-        <v>-0.01482946627897874</v>
+        <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>-0.07290279193538379</v>
       </c>
       <c r="BT31">
-        <v>-0.07290279193538379</v>
+        <v>4</v>
       </c>
       <c r="BU31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV31">
-        <v>0</v>
-      </c>
-      <c r="BW31">
         <v>0</v>
       </c>
     </row>
@@ -8158,30 +8123,35 @@
       <c r="M32">
         <v>0</v>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
           <t>LW</t>
         </is>
       </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32">
-        <v>1</v>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Fail-safe N</t>
+        </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Fail-safe N</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -8196,16 +8166,14 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -8214,155 +8182,152 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="inlineStr">
         <is>
           <t>1. ("To ensure that effect sizes were independent, only one_x000D_
 publication and only one coding system was chosen for each_x000D_
 set of participants.")</t>
         </is>
       </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Outliers winsorized to minimize the influence of outliers. Only published studies used.</t>
+        </is>
+      </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Outliers winsorized to minimize the influence of outliers. Only published studies used.</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
           <t>Different</t>
         </is>
       </c>
+      <c r="AF32">
+        <v>0.6410653536434148</v>
+      </c>
       <c r="AG32">
-        <v>0.6410653536434148</v>
+        <v>0.5703518516263181</v>
       </c>
       <c r="AH32">
-        <v>0.5703518516263181</v>
+        <v>0.7117788556605115</v>
       </c>
       <c r="AI32">
-        <v>0.7117788556605115</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1.242069925247013e-070</v>
       </c>
       <c r="AK32">
-        <v>1.242069925247013e-070</v>
+        <v>0.1967763244180577</v>
       </c>
       <c r="AL32">
-        <v>0.1967763244180577</v>
+        <v>0.6625602662103102</v>
       </c>
       <c r="AM32">
-        <v>0.6625602662103102</v>
+        <v>0.5918467984822748</v>
       </c>
       <c r="AN32">
-        <v>0.5918467984822748</v>
+        <v>0.7332737339383455</v>
       </c>
       <c r="AO32">
-        <v>0.7332737339383455</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>2.543002037789061e-075</v>
       </c>
       <c r="AQ32">
-        <v>2.543002037789061e-075</v>
+        <v>0.0002043668883836308</v>
       </c>
       <c r="AR32">
-        <v>0.0002043668883836308</v>
+        <v>-0.0214949125668954</v>
       </c>
       <c r="AS32">
-        <v>-0.0214949125668954</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>-0.02149494685595677</v>
       </c>
       <c r="AU32">
-        <v>-0.02149494685595677</v>
+        <v>-0.02149487827783403</v>
       </c>
       <c r="AV32">
-        <v>-0.02149487827783403</v>
+        <v>0</v>
       </c>
       <c r="AW32">
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>0</v>
+        <v>0.6481691109060378</v>
       </c>
       <c r="AY32">
-        <v>0.6481691109060378</v>
+        <v>0.5263045062213746</v>
       </c>
       <c r="AZ32">
-        <v>0.5263045062213746</v>
+        <v>0.770033715590701</v>
       </c>
       <c r="BA32">
-        <v>0.770033715590701</v>
+        <v>0</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1.914904299377971e-025</v>
       </c>
       <c r="BC32">
-        <v>1.914904299377971e-025</v>
+        <v>0.01871308866204621</v>
       </c>
       <c r="BD32">
-        <v>0.01871308866204621</v>
+        <v>13</v>
       </c>
       <c r="BE32">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="BF32">
-        <v>32.5</v>
+        <v>6</v>
       </c>
       <c r="BG32">
-        <v>6</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="BH32">
-        <v>46.15384615384615</v>
+        <v>0.7120079808242804</v>
       </c>
       <c r="BI32">
-        <v>0.7120079808242804</v>
+        <v>0.5901435516410586</v>
       </c>
       <c r="BJ32">
-        <v>0.5901435516410586</v>
+        <v>0.8338724100075022</v>
       </c>
       <c r="BK32">
-        <v>0.8338724100075022</v>
+        <v>0</v>
       </c>
       <c r="BL32">
-        <v>0</v>
+        <v>2.315605209567172e-030</v>
       </c>
       <c r="BM32">
-        <v>2.315605209567172e-030</v>
+        <v>1.733718499190349e-007</v>
       </c>
       <c r="BN32">
-        <v>1.733718499190349e-007</v>
+        <v>-0.06383886991824261</v>
       </c>
       <c r="BO32">
-        <v>-0.06383886991824261</v>
+        <v>1</v>
       </c>
       <c r="BP32">
-        <v>1</v>
+        <v>-0.06383904541968399</v>
       </c>
       <c r="BQ32">
-        <v>-0.06383904541968399</v>
+        <v>-0.06383869441680123</v>
       </c>
       <c r="BR32">
-        <v>-0.06383869441680123</v>
+        <v>1</v>
       </c>
       <c r="BS32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV32">
-        <v>0</v>
-      </c>
-      <c r="BW32">
         <v>0</v>
       </c>
     </row>
@@ -8406,8 +8371,10 @@
       <c r="M33">
         <v>0.007086231489093993</v>
       </c>
-      <c r="N33">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -8419,16 +8386,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="Q33">
+        <v>0</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33">
-        <v>0</v>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -8450,10 +8417,8 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -8467,151 +8432,148 @@
       <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Authors state a rho coefficient as overall estimate, but never mention transforming the correlations to rho, or anything related to reliability estimates. We interpreted these estimates as correlations.</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Authors state a rho coefficient as overall estimate, but never mention transforming the correlations to rho, or anything related to reliability estimates. We interpreted these estimates as correlations.</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
           <t>Null</t>
         </is>
       </c>
+      <c r="AF33">
+        <v>0.01591376851090601</v>
+      </c>
       <c r="AG33">
-        <v>0.01591376851090601</v>
+        <v>-0.06585695761896711</v>
       </c>
       <c r="AH33">
-        <v>-0.06585695761896711</v>
+        <v>0.09768449464077912</v>
       </c>
       <c r="AI33">
-        <v>0.09768449464077912</v>
+        <v>0.014882014021684</v>
       </c>
       <c r="AJ33">
-        <v>0.014882014021684</v>
+        <v>0.702878713980711</v>
       </c>
       <c r="AK33">
-        <v>0.702878713980711</v>
+        <v>3.912667603441149e-005</v>
       </c>
       <c r="AL33">
-        <v>3.912667603441149e-005</v>
+        <v>0.01523652194346652</v>
       </c>
       <c r="AM33">
-        <v>0.01523652194346652</v>
+        <v>-0.06854842401801824</v>
       </c>
       <c r="AN33">
-        <v>-0.06854842401801824</v>
+        <v>0.09902146790495127</v>
       </c>
       <c r="AO33">
-        <v>0.09902146790495127</v>
+        <v>0.01556005157274684</v>
       </c>
       <c r="AP33">
-        <v>0.01556005157274684</v>
+        <v>0.721522444798954</v>
       </c>
       <c r="AQ33">
-        <v>0.721522444798954</v>
+        <v>4.001070626654893e-005</v>
       </c>
       <c r="AR33">
-        <v>4.001070626654893e-005</v>
+        <v>0.0006772465674394854</v>
       </c>
       <c r="AS33">
-        <v>0.0006772465674394854</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>-0.002691466399051129</v>
       </c>
       <c r="AU33">
-        <v>-0.002691466399051129</v>
+        <v>-0.001336973264172148</v>
       </c>
       <c r="AV33">
-        <v>-0.001336973264172148</v>
+        <v>0</v>
       </c>
       <c r="AW33">
-        <v>0</v>
+        <v>-0.0006780375510628423</v>
       </c>
       <c r="AX33">
-        <v>-0.0006780375510628423</v>
+        <v>0.1043698099637569</v>
       </c>
       <c r="AY33">
-        <v>0.1043698099637569</v>
+        <v>-0.002208482040168491</v>
       </c>
       <c r="AZ33">
-        <v>-0.002208482040168491</v>
+        <v>0.2109481019676823</v>
       </c>
       <c r="BA33">
-        <v>0.2109481019676823</v>
+        <v>0.01205499911852401</v>
       </c>
       <c r="BB33">
-        <v>0.01205499911852401</v>
+        <v>0.05494002589064859</v>
       </c>
       <c r="BC33">
-        <v>0.05494002589064859</v>
+        <v>0.006355053833780786</v>
       </c>
       <c r="BD33">
-        <v>0.006355053833780786</v>
+        <v>6</v>
       </c>
       <c r="BE33">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="BF33">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="BG33">
-        <v>4</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="BH33">
-        <v>66.66666666666666</v>
+        <v>0.1062506349768996</v>
       </c>
       <c r="BI33">
-        <v>0.1062506349768996</v>
+        <v>-0.004618177502581075</v>
       </c>
       <c r="BJ33">
-        <v>-0.004618177502581075</v>
+        <v>0.2171194474563802</v>
       </c>
       <c r="BK33">
-        <v>0.2171194474563802</v>
+        <v>0.01280752792799045</v>
       </c>
       <c r="BL33">
-        <v>0.01280752792799045</v>
+        <v>0.06033701983844891</v>
       </c>
       <c r="BM33">
-        <v>0.06033701983844891</v>
+        <v>0.007475511930998654</v>
       </c>
       <c r="BN33">
-        <v>0.007475511930998654</v>
+        <v>-0.00188082501314267</v>
       </c>
       <c r="BO33">
-        <v>-0.00188082501314267</v>
+        <v>0</v>
       </c>
       <c r="BP33">
-        <v>0</v>
+        <v>-0.002409695462412584</v>
       </c>
       <c r="BQ33">
-        <v>-0.002409695462412584</v>
+        <v>-0.00617134548869791</v>
       </c>
       <c r="BR33">
-        <v>-0.00617134548869791</v>
+        <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>-0.0007525288094664424</v>
       </c>
       <c r="BT33">
-        <v>-0.0007525288094664424</v>
+        <v>3</v>
       </c>
       <c r="BU33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV33">
-        <v>0</v>
-      </c>
-      <c r="BW33">
         <v>0</v>
       </c>
     </row>
@@ -8655,12 +8617,14 @@
       <c r="M34">
         <v>-0.0002902514273088047</v>
       </c>
-      <c r="N34">
-        <v>0</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -8668,16 +8632,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="Q34">
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -8699,168 +8663,163 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="X34">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>1. ("For example, when multiple relevant correlations were reported from the same sample (e.g., Wong, Tran, &amp; Lai, 2009), the average of the correlations was coded as the effect size."</t>
+        </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>1. ("For example, when multiple relevant correlations were reported from the same sample (e.g., Wong, Tran, &amp; Lai, 2009), the average of the correlations was coded as the effect size."</t>
+          <t>One outlier removed: "This finding was contradictory to the findings of the other studies that indicated either nonsignificant or negative associations between the two variables. Thus, we conducted a new metaanalysis after excluding Obasi and Leong’s study".</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>One outlier removed: "This finding was contradictory to the findings of the other studies that indicated either nonsignificant or negative associations between the two variables. Thus, we conducted a new metaanalysis after excluding Obasi and Leong’s study".</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
           <t>Different</t>
         </is>
       </c>
+      <c r="AF34">
+        <v>0.07029025142730881</v>
+      </c>
       <c r="AG34">
-        <v>0.07029025142730881</v>
+        <v>-0.0273785172071723</v>
       </c>
       <c r="AH34">
-        <v>-0.0273785172071723</v>
+        <v>0.1666296805339677</v>
       </c>
       <c r="AI34">
-        <v>0.1666296805339677</v>
+        <v>0.02179397912086811</v>
       </c>
       <c r="AJ34">
-        <v>0.02179397912086811</v>
+        <v>0.1582150373746157</v>
       </c>
       <c r="AK34">
-        <v>0.1582150373746157</v>
+        <v>7.442271583153371e-007</v>
       </c>
       <c r="AL34">
-        <v>7.442271583153371e-007</v>
+        <v>0.06995956855926525</v>
       </c>
       <c r="AM34">
-        <v>0.06995956855926525</v>
+        <v>-0.02808077505402375</v>
       </c>
       <c r="AN34">
-        <v>-0.02808077505402375</v>
+        <v>0.1666667848502807</v>
       </c>
       <c r="AO34">
-        <v>0.1666667848502807</v>
+        <v>0.02201189168175686</v>
       </c>
       <c r="AP34">
-        <v>0.02201189168175686</v>
+        <v>0.1617712029091641</v>
       </c>
       <c r="AQ34">
-        <v>0.1617712029091641</v>
+        <v>6.344770003781543e-007</v>
       </c>
       <c r="AR34">
-        <v>6.344770003781543e-007</v>
+        <v>0.0003306828680435664</v>
       </c>
       <c r="AS34">
-        <v>0.0003306828680435664</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>-0.0007022578468514479</v>
       </c>
       <c r="AU34">
-        <v>-0.0007022578468514479</v>
+        <v>-3.710431631295807e-005</v>
       </c>
       <c r="AV34">
-        <v>-3.710431631295807e-005</v>
+        <v>0</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>-0.0002179125608887528</v>
       </c>
       <c r="AX34">
-        <v>-0.0002179125608887528</v>
+        <v>0.06821606300624077</v>
       </c>
       <c r="AY34">
-        <v>0.06821606300624077</v>
+        <v>-0.03258480909093028</v>
       </c>
       <c r="AZ34">
-        <v>-0.03258480909093028</v>
+        <v>0.167643173321367</v>
       </c>
       <c r="BA34">
-        <v>0.167643173321367</v>
+        <v>0.02258203410149158</v>
       </c>
       <c r="BB34">
-        <v>0.02258203410149158</v>
+        <v>0.184541071953189</v>
       </c>
       <c r="BC34">
-        <v>0.184541071953189</v>
+        <v>3.326166487336767e-007</v>
       </c>
       <c r="BD34">
-        <v>3.326166487336767e-007</v>
+        <v>11</v>
       </c>
       <c r="BE34">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="BF34">
         <v>11</v>
       </c>
-      <c r="BF34">
-        <v>91.66666666666666</v>
-      </c>
       <c r="BG34">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="BH34">
-        <v>100</v>
+        <v>0.06786174736907383</v>
       </c>
       <c r="BI34">
-        <v>0.06786174736907383</v>
+        <v>-0.03332370988898327</v>
       </c>
       <c r="BJ34">
-        <v>-0.03332370988898327</v>
+        <v>0.1676701696782856</v>
       </c>
       <c r="BK34">
-        <v>0.1676701696782856</v>
+        <v>0.02280223243774495</v>
       </c>
       <c r="BL34">
-        <v>0.02280223243774495</v>
+        <v>0.1885137275649342</v>
       </c>
       <c r="BM34">
-        <v>0.1885137275649342</v>
+        <v>2.826370488737467e-007</v>
       </c>
       <c r="BN34">
-        <v>2.826370488737467e-007</v>
+        <v>0.0003543156371669382</v>
       </c>
       <c r="BO34">
-        <v>0.0003543156371669382</v>
+        <v>0</v>
       </c>
       <c r="BP34">
-        <v>0</v>
+        <v>-0.0007389007980529924</v>
       </c>
       <c r="BQ34">
-        <v>-0.0007389007980529924</v>
+        <v>-2.699635691860713e-005</v>
       </c>
       <c r="BR34">
-        <v>-2.699635691860713e-005</v>
+        <v>0</v>
       </c>
       <c r="BS34">
-        <v>0</v>
+        <v>-0.0002201983362533702</v>
       </c>
       <c r="BT34">
-        <v>-0.0002201983362533702</v>
+        <v>2</v>
       </c>
       <c r="BU34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV34">
-        <v>0</v>
-      </c>
-      <c r="BW34">
         <v>0</v>
       </c>
     </row>

--- a/codebooks/codebook-meta-analyses-complete.xlsx
+++ b/codebooks/codebook-meta-analyses-complete.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV34"/>
+  <dimension ref="A1:CN34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,6 +728,96 @@
           <t>outeff3.s</t>
         </is>
       </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>eff.sso</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>cilb.sso</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>ciub.sso</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>tau2.sso</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>pval.sso</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>pval.het.sso</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>eff.ssc</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>cilb.ssc</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>ciub.ssc</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>tau2.ssc</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>pval.ssc</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>pval.het.ssc</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>disc.ss</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>disccat.ss</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>disc.cilb.ss</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>disc.ciub.ss</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>disccat.ci.ss</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>disc.tau2.ss</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -980,6 +1070,60 @@
       <c r="BV2">
         <v>0</v>
       </c>
+      <c r="BW2">
+        <v>0.1562812525882797</v>
+      </c>
+      <c r="BX2">
+        <v>-0.2078952938704898</v>
+      </c>
+      <c r="BY2">
+        <v>0.5204577990470491</v>
+      </c>
+      <c r="BZ2">
+        <v>0.6095238012022537</v>
+      </c>
+      <c r="CA2">
+        <v>0.4002969399016501</v>
+      </c>
+      <c r="CB2">
+        <v>6.538955729783057e-034</v>
+      </c>
+      <c r="CC2">
+        <v>0.1819052396079618</v>
+      </c>
+      <c r="CD2">
+        <v>-0.2051571811196986</v>
+      </c>
+      <c r="CE2">
+        <v>0.5689676603356223</v>
+      </c>
+      <c r="CF2">
+        <v>0.6987483621834335</v>
+      </c>
+      <c r="CG2">
+        <v>0.3569921206392634</v>
+      </c>
+      <c r="CH2">
+        <v>1.75737769591732e-039</v>
+      </c>
+      <c r="CI2">
+        <v>-0.02562398701968216</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0.002738112750791222</v>
+      </c>
+      <c r="CL2">
+        <v>-0.04850986128857315</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>-0.08922456098117981</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1232,6 +1376,60 @@
       <c r="BV3">
         <v>0</v>
       </c>
+      <c r="BW3">
+        <v>-0.5833407939435682</v>
+      </c>
+      <c r="BX3">
+        <v>-1.017495561497131</v>
+      </c>
+      <c r="BY3">
+        <v>-0.149186026390005</v>
+      </c>
+      <c r="BZ3">
+        <v>0.8142797023985703</v>
+      </c>
+      <c r="CA3">
+        <v>0.008452109040437804</v>
+      </c>
+      <c r="CB3">
+        <v>8.120730092213389e-029</v>
+      </c>
+      <c r="CC3">
+        <v>-0.6440177409433604</v>
+      </c>
+      <c r="CD3">
+        <v>-1.050212805158454</v>
+      </c>
+      <c r="CE3">
+        <v>-0.2378226767282671</v>
+      </c>
+      <c r="CF3">
+        <v>0.7056842599021495</v>
+      </c>
+      <c r="CG3">
+        <v>0.001886763323188902</v>
+      </c>
+      <c r="CH3">
+        <v>7.005216040397688e-025</v>
+      </c>
+      <c r="CI3">
+        <v>-0.0606769469997922</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>-0.03271724366132256</v>
+      </c>
+      <c r="CL3">
+        <v>-0.08863665033826207</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>0.1085954424964208</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1478,6 +1676,60 @@
       <c r="BV4">
         <v>0</v>
       </c>
+      <c r="BW4">
+        <v>0.9488800016677964</v>
+      </c>
+      <c r="BX4">
+        <v>0.7213153043796848</v>
+      </c>
+      <c r="BY4">
+        <v>1.176444698955908</v>
+      </c>
+      <c r="BZ4">
+        <v>0.04948394840142737</v>
+      </c>
+      <c r="CA4">
+        <v>3.020841677108665e-016</v>
+      </c>
+      <c r="CB4">
+        <v>0.1103684190907713</v>
+      </c>
+      <c r="CC4">
+        <v>0.9486500126959635</v>
+      </c>
+      <c r="CD4">
+        <v>0.7223555137463726</v>
+      </c>
+      <c r="CE4">
+        <v>1.174944511645554</v>
+      </c>
+      <c r="CF4">
+        <v>0.04804096103950869</v>
+      </c>
+      <c r="CG4">
+        <v>2.097515541434189e-016</v>
+      </c>
+      <c r="CH4">
+        <v>0.115549648479846</v>
+      </c>
+      <c r="CI4">
+        <v>0.0002299889718329062</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>-0.001040209366687805</v>
+      </c>
+      <c r="CL4">
+        <v>0.001500187310353507</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0.001442987361918682</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1730,6 +1982,60 @@
       <c r="BV5">
         <v>0</v>
       </c>
+      <c r="BW5">
+        <v>-0.06389451283156344</v>
+      </c>
+      <c r="BX5">
+        <v>-0.2717619129195595</v>
+      </c>
+      <c r="BY5">
+        <v>0.1439728872564326</v>
+      </c>
+      <c r="BZ5">
+        <v>0.1707985390079616</v>
+      </c>
+      <c r="CA5">
+        <v>0.5468707022906956</v>
+      </c>
+      <c r="CB5">
+        <v>6.617804943593133e-013</v>
+      </c>
+      <c r="CC5">
+        <v>-0.01992172240974485</v>
+      </c>
+      <c r="CD5">
+        <v>-0.2245359724563966</v>
+      </c>
+      <c r="CE5">
+        <v>0.1846925276369069</v>
+      </c>
+      <c r="CF5">
+        <v>0.1652203637145759</v>
+      </c>
+      <c r="CG5">
+        <v>0.8486613835624802</v>
+      </c>
+      <c r="CH5">
+        <v>2.075823120971917e-013</v>
+      </c>
+      <c r="CI5">
+        <v>0.04397279042181859</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.04722594046316289</v>
+      </c>
+      <c r="CL5">
+        <v>-0.04071964038047429</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0.005578175293385612</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1976,6 +2282,60 @@
       <c r="BV6">
         <v>0</v>
       </c>
+      <c r="BW6">
+        <v>0.4783743121352498</v>
+      </c>
+      <c r="BX6">
+        <v>0.2991844338568782</v>
+      </c>
+      <c r="BY6">
+        <v>0.6575641904136214</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>1.673064838675424e-007</v>
+      </c>
+      <c r="CB6">
+        <v>0.5653011495228284</v>
+      </c>
+      <c r="CC6">
+        <v>0.6394595250637707</v>
+      </c>
+      <c r="CD6">
+        <v>0.3609291262089646</v>
+      </c>
+      <c r="CE6">
+        <v>0.9179899239185768</v>
+      </c>
+      <c r="CF6">
+        <v>0.1031379013627066</v>
+      </c>
+      <c r="CG6">
+        <v>6.803287872694518e-006</v>
+      </c>
+      <c r="CH6">
+        <v>0.002498028332521066</v>
+      </c>
+      <c r="CI6">
+        <v>-0.1610852129285209</v>
+      </c>
+      <c r="CJ6">
+        <v>2</v>
+      </c>
+      <c r="CK6">
+        <v>-0.06174469235208635</v>
+      </c>
+      <c r="CL6">
+        <v>-0.2604257335049555</v>
+      </c>
+      <c r="CM6">
+        <v>3</v>
+      </c>
+      <c r="CN6">
+        <v>-0.1031379013627066</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2228,6 +2588,60 @@
       <c r="BV7">
         <v>0</v>
       </c>
+      <c r="BW7">
+        <v>0.3197779875458057</v>
+      </c>
+      <c r="BX7">
+        <v>0.2485994316421966</v>
+      </c>
+      <c r="BY7">
+        <v>0.3909565434494148</v>
+      </c>
+      <c r="BZ7">
+        <v>0.009005061714293506</v>
+      </c>
+      <c r="CA7">
+        <v>1.304245965562579e-018</v>
+      </c>
+      <c r="CB7">
+        <v>0.0004489492569435359</v>
+      </c>
+      <c r="CC7">
+        <v>0.3792131763232198</v>
+      </c>
+      <c r="CD7">
+        <v>0.2939602033070982</v>
+      </c>
+      <c r="CE7">
+        <v>0.4644661493393415</v>
+      </c>
+      <c r="CF7">
+        <v>0.01578737761981627</v>
+      </c>
+      <c r="CG7">
+        <v>2.829024767809491e-018</v>
+      </c>
+      <c r="CH7">
+        <v>1.594713135456246e-007</v>
+      </c>
+      <c r="CI7">
+        <v>-0.05943518877741416</v>
+      </c>
+      <c r="CJ7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
+        <v>-0.0453607716649016</v>
+      </c>
+      <c r="CL7">
+        <v>-0.07350960588992672</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>-0.00678231590552276</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2480,6 +2894,60 @@
       <c r="BV8">
         <v>0</v>
       </c>
+      <c r="BW8">
+        <v>0.3288324322673673</v>
+      </c>
+      <c r="BX8">
+        <v>0.2680325690446915</v>
+      </c>
+      <c r="BY8">
+        <v>0.389632295490043</v>
+      </c>
+      <c r="BZ8">
+        <v>0.01325914809525594</v>
+      </c>
+      <c r="CA8">
+        <v>2.968726440173775e-026</v>
+      </c>
+      <c r="CB8">
+        <v>5.040563923426403e-019</v>
+      </c>
+      <c r="CC8">
+        <v>0.331020105378539</v>
+      </c>
+      <c r="CD8">
+        <v>0.2689195118239687</v>
+      </c>
+      <c r="CE8">
+        <v>0.3931206989331093</v>
+      </c>
+      <c r="CF8">
+        <v>0.01410319731962555</v>
+      </c>
+      <c r="CG8">
+        <v>1.506548913480263e-025</v>
+      </c>
+      <c r="CH8">
+        <v>1.502158422021066e-020</v>
+      </c>
+      <c r="CI8">
+        <v>-0.00218767311117174</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>-0.0008869427792771445</v>
+      </c>
+      <c r="CL8">
+        <v>-0.003488403443066335</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>-0.000844049224369604</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2726,6 +3194,60 @@
       <c r="BV9">
         <v>0</v>
       </c>
+      <c r="BW9">
+        <v>0.03462114502858761</v>
+      </c>
+      <c r="BX9">
+        <v>-0.02338442852423335</v>
+      </c>
+      <c r="BY9">
+        <v>0.09239439738630383</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0.2420313292111013</v>
+      </c>
+      <c r="CB9">
+        <v>0.9978854158591751</v>
+      </c>
+      <c r="CC9">
+        <v>0.006536020611993066</v>
+      </c>
+      <c r="CD9">
+        <v>-0.006849313171637951</v>
+      </c>
+      <c r="CE9">
+        <v>0.01991901262482477</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0.338544954518245</v>
+      </c>
+      <c r="CH9">
+        <v>0.8472197817287268</v>
+      </c>
+      <c r="CI9">
+        <v>0.02808512441659455</v>
+      </c>
+      <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
+        <v>0.0165351153525954</v>
+      </c>
+      <c r="CL9">
+        <v>0.07247538476147905</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2925,6 +3447,48 @@
       <c r="BS10">
         <v>-0.004877955411734317</v>
       </c>
+      <c r="BW10">
+        <v>0.1316229162674842</v>
+      </c>
+      <c r="BX10">
+        <v>0.1305242610908336</v>
+      </c>
+      <c r="BY10">
+        <v>0.1327215714441348</v>
+      </c>
+      <c r="BZ10">
+        <v>0.02386842924619144</v>
+      </c>
+      <c r="CC10">
+        <v>0.1265253425646676</v>
+      </c>
+      <c r="CD10">
+        <v>0.1253247014480996</v>
+      </c>
+      <c r="CE10">
+        <v>0.1277259836812355</v>
+      </c>
+      <c r="CF10">
+        <v>0.02874638465792576</v>
+      </c>
+      <c r="CI10">
+        <v>0.00509757370281666</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0.00519955964273397</v>
+      </c>
+      <c r="CL10">
+        <v>0.004995587762899351</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>-0.004877955411734317</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3179,6 +3743,60 @@
       <c r="BV11">
         <v>0</v>
       </c>
+      <c r="BW11">
+        <v>0.2234946394056282</v>
+      </c>
+      <c r="BX11">
+        <v>0.1194304659368936</v>
+      </c>
+      <c r="BY11">
+        <v>0.3275588128743628</v>
+      </c>
+      <c r="BZ11">
+        <v>0.04287711040617763</v>
+      </c>
+      <c r="CA11">
+        <v>2.561182144864344e-005</v>
+      </c>
+      <c r="CB11">
+        <v>1.514432960984242e-013</v>
+      </c>
+      <c r="CC11">
+        <v>0.2305904978717135</v>
+      </c>
+      <c r="CD11">
+        <v>0.122626260923829</v>
+      </c>
+      <c r="CE11">
+        <v>0.338554734819598</v>
+      </c>
+      <c r="CF11">
+        <v>0.04707833844168591</v>
+      </c>
+      <c r="CG11">
+        <v>2.837886059742906e-005</v>
+      </c>
+      <c r="CH11">
+        <v>4.914286893997635e-014</v>
+      </c>
+      <c r="CI11">
+        <v>-0.00709585846608532</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>-0.003195794986935396</v>
+      </c>
+      <c r="CL11">
+        <v>-0.01099592194523524</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>-0.004201228035508278</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3425,6 +4043,60 @@
       <c r="BV12">
         <v>0</v>
       </c>
+      <c r="BW12">
+        <v>0.01452530481329245</v>
+      </c>
+      <c r="BX12">
+        <v>-0.09097612890672413</v>
+      </c>
+      <c r="BY12">
+        <v>0.120026738533309</v>
+      </c>
+      <c r="BZ12">
+        <v>0.02515094682441289</v>
+      </c>
+      <c r="CA12">
+        <v>0.7872792104382098</v>
+      </c>
+      <c r="CB12">
+        <v>1.785913043062669e-010</v>
+      </c>
+      <c r="CC12">
+        <v>0.01787409251523878</v>
+      </c>
+      <c r="CD12">
+        <v>-0.08881046268056422</v>
+      </c>
+      <c r="CE12">
+        <v>0.1245586477110418</v>
+      </c>
+      <c r="CF12">
+        <v>0.02588520129736124</v>
+      </c>
+      <c r="CG12">
+        <v>0.7426278824611245</v>
+      </c>
+      <c r="CH12">
+        <v>8.470636649638278e-011</v>
+      </c>
+      <c r="CI12">
+        <v>-0.003348787701946323</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0.002165666226159907</v>
+      </c>
+      <c r="CL12">
+        <v>-0.004531909177732746</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>-0.0007342544729483577</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3666,6 +4338,60 @@
       <c r="BV13">
         <v>0</v>
       </c>
+      <c r="BW13">
+        <v>0.3214474296083071</v>
+      </c>
+      <c r="BX13">
+        <v>0.2090317133957518</v>
+      </c>
+      <c r="BY13">
+        <v>0.4338631458208624</v>
+      </c>
+      <c r="BZ13">
+        <v>0.01773327488799818</v>
+      </c>
+      <c r="CA13">
+        <v>2.089481419278802e-008</v>
+      </c>
+      <c r="CB13">
+        <v>0.0201473637368239</v>
+      </c>
+      <c r="CC13">
+        <v>0.3227130662182568</v>
+      </c>
+      <c r="CD13">
+        <v>0.163145528109776</v>
+      </c>
+      <c r="CE13">
+        <v>0.4822806043267376</v>
+      </c>
+      <c r="CF13">
+        <v>0.05316727715547815</v>
+      </c>
+      <c r="CG13">
+        <v>7.374246563075689e-005</v>
+      </c>
+      <c r="CH13">
+        <v>1.84566579492699e-006</v>
+      </c>
+      <c r="CI13">
+        <v>-0.001265636609949716</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0.04588618528597582</v>
+      </c>
+      <c r="CL13">
+        <v>-0.04841745850587526</v>
+      </c>
+      <c r="CM13">
+        <v>1</v>
+      </c>
+      <c r="CN13">
+        <v>-0.03543400226747997</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3918,6 +4644,60 @@
       <c r="BV14">
         <v>0</v>
       </c>
+      <c r="BW14">
+        <v>0.4942390848013875</v>
+      </c>
+      <c r="BX14">
+        <v>0.1616167126979792</v>
+      </c>
+      <c r="BY14">
+        <v>0.8268614569047958</v>
+      </c>
+      <c r="BZ14">
+        <v>0.4882478062767915</v>
+      </c>
+      <c r="CA14">
+        <v>0.003587962757099451</v>
+      </c>
+      <c r="CB14">
+        <v>3.326011954379805e-031</v>
+      </c>
+      <c r="CC14">
+        <v>0.4382510572980859</v>
+      </c>
+      <c r="CD14">
+        <v>0.1185626631855806</v>
+      </c>
+      <c r="CE14">
+        <v>0.7579394514105913</v>
+      </c>
+      <c r="CF14">
+        <v>0.4411581053393927</v>
+      </c>
+      <c r="CG14">
+        <v>0.007212830490347947</v>
+      </c>
+      <c r="CH14">
+        <v>2.062488603495059e-027</v>
+      </c>
+      <c r="CI14">
+        <v>0.05598802750330162</v>
+      </c>
+      <c r="CJ14">
+        <v>1</v>
+      </c>
+      <c r="CK14">
+        <v>0.04305404951239861</v>
+      </c>
+      <c r="CL14">
+        <v>0.06892200549420458</v>
+      </c>
+      <c r="CM14">
+        <v>1</v>
+      </c>
+      <c r="CN14">
+        <v>0.04708970093739889</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4164,6 +4944,60 @@
       <c r="BV15">
         <v>0</v>
       </c>
+      <c r="BW15">
+        <v>0.09034168398474529</v>
+      </c>
+      <c r="BX15">
+        <v>-0.06911423722752368</v>
+      </c>
+      <c r="BY15">
+        <v>0.2452964613845468</v>
+      </c>
+      <c r="BZ15">
+        <v>0.0858812313827388</v>
+      </c>
+      <c r="CA15">
+        <v>0.2665737675319793</v>
+      </c>
+      <c r="CB15">
+        <v>1.583921561076824e-008</v>
+      </c>
+      <c r="CC15">
+        <v>0.0618516742100103</v>
+      </c>
+      <c r="CD15">
+        <v>-0.09182334308264481</v>
+      </c>
+      <c r="CE15">
+        <v>0.2126490080137123</v>
+      </c>
+      <c r="CF15">
+        <v>0.07722683823533644</v>
+      </c>
+      <c r="CG15">
+        <v>0.4306230456658797</v>
+      </c>
+      <c r="CH15">
+        <v>2.11003432837267e-007</v>
+      </c>
+      <c r="CI15">
+        <v>0.028490009774735</v>
+      </c>
+      <c r="CJ15">
+        <v>1</v>
+      </c>
+      <c r="CK15">
+        <v>-0.02270910585512113</v>
+      </c>
+      <c r="CL15">
+        <v>0.03264745337083441</v>
+      </c>
+      <c r="CM15">
+        <v>1</v>
+      </c>
+      <c r="CN15">
+        <v>0.008654393147402364</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4404,6 +5238,60 @@
       <c r="BS16">
         <v>0</v>
       </c>
+      <c r="BW16">
+        <v>0.3534372176584859</v>
+      </c>
+      <c r="BX16">
+        <v>0.3223852353834779</v>
+      </c>
+      <c r="BY16">
+        <v>0.3844891999334938</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>3.053366527587873e-110</v>
+      </c>
+      <c r="CB16">
+        <v>3.121235086796434e-027</v>
+      </c>
+      <c r="CC16">
+        <v>0.3534281046072564</v>
+      </c>
+      <c r="CD16">
+        <v>0.3223776716680876</v>
+      </c>
+      <c r="CE16">
+        <v>0.3844785375464253</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>3.016872640945017e-110</v>
+      </c>
+      <c r="CH16">
+        <v>2.907821671914248e-027</v>
+      </c>
+      <c r="CI16">
+        <v>9.113051229414637e-006</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>7.563715390235259e-006</v>
+      </c>
+      <c r="CL16">
+        <v>1.066238706859402e-005</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4645,6 +5533,60 @@
       <c r="BV17">
         <v>1</v>
       </c>
+      <c r="BW17">
+        <v>2.651932725617638</v>
+      </c>
+      <c r="BX17">
+        <v>1.692781034058493</v>
+      </c>
+      <c r="BY17">
+        <v>3.611084417176783</v>
+      </c>
+      <c r="BZ17">
+        <v>1.825255966731548</v>
+      </c>
+      <c r="CA17">
+        <v>5.991598137601245e-008</v>
+      </c>
+      <c r="CB17">
+        <v>9.343610434775959e-050</v>
+      </c>
+      <c r="CC17">
+        <v>2.648402036332383</v>
+      </c>
+      <c r="CD17">
+        <v>1.68704763668341</v>
+      </c>
+      <c r="CE17">
+        <v>3.609756435981356</v>
+      </c>
+      <c r="CF17">
+        <v>1.834057291986203</v>
+      </c>
+      <c r="CG17">
+        <v>6.685031839656448e-008</v>
+      </c>
+      <c r="CH17">
+        <v>5.291314788852722e-050</v>
+      </c>
+      <c r="CI17">
+        <v>0.003530689285254685</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0.005733397375082383</v>
+      </c>
+      <c r="CL17">
+        <v>0.001327981195426986</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>-0.00880132525465438</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4891,6 +5833,60 @@
       <c r="BV18">
         <v>0</v>
       </c>
+      <c r="BW18">
+        <v>0.5648755531719103</v>
+      </c>
+      <c r="BX18">
+        <v>0.08629502792453642</v>
+      </c>
+      <c r="BY18">
+        <v>1.043456078419284</v>
+      </c>
+      <c r="BZ18">
+        <v>0.3745762977706751</v>
+      </c>
+      <c r="CA18">
+        <v>0.02070208577381388</v>
+      </c>
+      <c r="CB18">
+        <v>1.700605048457078e-005</v>
+      </c>
+      <c r="CC18">
+        <v>0.4179751502438582</v>
+      </c>
+      <c r="CD18">
+        <v>0.160992216523348</v>
+      </c>
+      <c r="CE18">
+        <v>0.6749580839643683</v>
+      </c>
+      <c r="CF18">
+        <v>0.03942708167471537</v>
+      </c>
+      <c r="CG18">
+        <v>0.001433479966728633</v>
+      </c>
+      <c r="CH18">
+        <v>0.1975273974336537</v>
+      </c>
+      <c r="CI18">
+        <v>0.1469004029280521</v>
+      </c>
+      <c r="CJ18">
+        <v>1</v>
+      </c>
+      <c r="CK18">
+        <v>-0.07469718859881158</v>
+      </c>
+      <c r="CL18">
+        <v>0.3684979944549158</v>
+      </c>
+      <c r="CM18">
+        <v>3</v>
+      </c>
+      <c r="CN18">
+        <v>0.3351492160959598</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5132,6 +6128,60 @@
       <c r="BV19">
         <v>0</v>
       </c>
+      <c r="BW19">
+        <v>0.02755284903452375</v>
+      </c>
+      <c r="BX19">
+        <v>-0.01152522035969185</v>
+      </c>
+      <c r="BY19">
+        <v>0.06663091842873935</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0.1669976326150932</v>
+      </c>
+      <c r="CB19">
+        <v>0.2542914015322366</v>
+      </c>
+      <c r="CC19">
+        <v>0.02187371464423514</v>
+      </c>
+      <c r="CD19">
+        <v>-0.01874764949526913</v>
+      </c>
+      <c r="CE19">
+        <v>0.0624950787837394</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0.2912434898102752</v>
+      </c>
+      <c r="CH19">
+        <v>0.1832799891913587</v>
+      </c>
+      <c r="CI19">
+        <v>0.005679134390288609</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>-0.007222429135577274</v>
+      </c>
+      <c r="CL19">
+        <v>0.004135839644999945</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5378,6 +6428,60 @@
       <c r="BV20">
         <v>0</v>
       </c>
+      <c r="BW20">
+        <v>1.692174986574253</v>
+      </c>
+      <c r="BX20">
+        <v>1.273722774642317</v>
+      </c>
+      <c r="BY20">
+        <v>2.110627198506188</v>
+      </c>
+      <c r="BZ20">
+        <v>0.6402996991712514</v>
+      </c>
+      <c r="CA20">
+        <v>2.265362252674332e-015</v>
+      </c>
+      <c r="CB20">
+        <v>1.373316114528159e-069</v>
+      </c>
+      <c r="CC20">
+        <v>1.827721058213041</v>
+      </c>
+      <c r="CD20">
+        <v>1.378492663988993</v>
+      </c>
+      <c r="CE20">
+        <v>2.276949452437089</v>
+      </c>
+      <c r="CF20">
+        <v>0.7524004970098662</v>
+      </c>
+      <c r="CG20">
+        <v>1.532870379729463e-015</v>
+      </c>
+      <c r="CH20">
+        <v>7.658170163788591e-083</v>
+      </c>
+      <c r="CI20">
+        <v>-0.1355460716387882</v>
+      </c>
+      <c r="CJ20">
+        <v>1</v>
+      </c>
+      <c r="CK20">
+        <v>-0.1047698893466755</v>
+      </c>
+      <c r="CL20">
+        <v>-0.1663222539309008</v>
+      </c>
+      <c r="CM20">
+        <v>2</v>
+      </c>
+      <c r="CN20">
+        <v>-0.1121007978386148</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5619,6 +6723,60 @@
       <c r="BV21">
         <v>0</v>
       </c>
+      <c r="BW21">
+        <v>0.2409772863694446</v>
+      </c>
+      <c r="BX21">
+        <v>0.08049459934024489</v>
+      </c>
+      <c r="BY21">
+        <v>0.4014599733986444</v>
+      </c>
+      <c r="BZ21">
+        <v>0.04446043374301496</v>
+      </c>
+      <c r="CA21">
+        <v>0.003250075007027019</v>
+      </c>
+      <c r="CB21">
+        <v>8.536307169347625e-011</v>
+      </c>
+      <c r="CC21">
+        <v>0.2145893638595315</v>
+      </c>
+      <c r="CD21">
+        <v>0.1109883556004029</v>
+      </c>
+      <c r="CE21">
+        <v>0.3181903721186602</v>
+      </c>
+      <c r="CF21">
+        <v>0.007368507821219845</v>
+      </c>
+      <c r="CG21">
+        <v>4.913903224743249e-005</v>
+      </c>
+      <c r="CH21">
+        <v>0.01316888556729928</v>
+      </c>
+      <c r="CI21">
+        <v>0.02638792250991309</v>
+      </c>
+      <c r="CJ21">
+        <v>1</v>
+      </c>
+      <c r="CK21">
+        <v>-0.03049375626015802</v>
+      </c>
+      <c r="CL21">
+        <v>0.08326960127998417</v>
+      </c>
+      <c r="CM21">
+        <v>2</v>
+      </c>
+      <c r="CN21">
+        <v>0.03709192592179512</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5865,6 +7023,60 @@
       <c r="BV22">
         <v>0</v>
       </c>
+      <c r="BW22">
+        <v>0.2409772863694446</v>
+      </c>
+      <c r="BX22">
+        <v>0.08049459934024489</v>
+      </c>
+      <c r="BY22">
+        <v>0.4014599733986444</v>
+      </c>
+      <c r="BZ22">
+        <v>0.04446043374301496</v>
+      </c>
+      <c r="CA22">
+        <v>0.003250075007027019</v>
+      </c>
+      <c r="CB22">
+        <v>8.536307169347625e-011</v>
+      </c>
+      <c r="CC22">
+        <v>0.2145893638595315</v>
+      </c>
+      <c r="CD22">
+        <v>0.1109883556004029</v>
+      </c>
+      <c r="CE22">
+        <v>0.3181903721186602</v>
+      </c>
+      <c r="CF22">
+        <v>0.007368507821219845</v>
+      </c>
+      <c r="CG22">
+        <v>4.913903224743249e-005</v>
+      </c>
+      <c r="CH22">
+        <v>0.01316888556729928</v>
+      </c>
+      <c r="CI22">
+        <v>0.02638792250991309</v>
+      </c>
+      <c r="CJ22">
+        <v>1</v>
+      </c>
+      <c r="CK22">
+        <v>-0.03049375626015802</v>
+      </c>
+      <c r="CL22">
+        <v>0.08326960127998417</v>
+      </c>
+      <c r="CM22">
+        <v>2</v>
+      </c>
+      <c r="CN22">
+        <v>0.03709192592179512</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6112,6 +7324,60 @@
       <c r="BV23">
         <v>0</v>
       </c>
+      <c r="BW23">
+        <v>0.2718929120964432</v>
+      </c>
+      <c r="BX23">
+        <v>0.1931368367838089</v>
+      </c>
+      <c r="BY23">
+        <v>0.3506489874090776</v>
+      </c>
+      <c r="BZ23">
+        <v>0.0002554239343344868</v>
+      </c>
+      <c r="CA23">
+        <v>1.319659233083653e-011</v>
+      </c>
+      <c r="CB23">
+        <v>0.4146322884217815</v>
+      </c>
+      <c r="CC23">
+        <v>0.2657857961248207</v>
+      </c>
+      <c r="CD23">
+        <v>0.1915468664379424</v>
+      </c>
+      <c r="CE23">
+        <v>0.3400247258116991</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>2.267696036335327e-012</v>
+      </c>
+      <c r="CH23">
+        <v>0.4313959421373603</v>
+      </c>
+      <c r="CI23">
+        <v>0.006107115971622501</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CK23">
+        <v>0.001589970345866498</v>
+      </c>
+      <c r="CL23">
+        <v>0.0106242615973785</v>
+      </c>
+      <c r="CM23">
+        <v>0</v>
+      </c>
+      <c r="CN23">
+        <v>0.0002554239343344868</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6358,6 +7624,60 @@
       <c r="BV24">
         <v>0</v>
       </c>
+      <c r="BW24">
+        <v>0.6568167240972516</v>
+      </c>
+      <c r="BX24">
+        <v>0.3613463715160387</v>
+      </c>
+      <c r="BY24">
+        <v>0.9522870766784644</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>1.319127201660234e-005</v>
+      </c>
+      <c r="CB24">
+        <v>0.8428123520975813</v>
+      </c>
+      <c r="CC24">
+        <v>0.6535534519270327</v>
+      </c>
+      <c r="CD24">
+        <v>0.3580825657980714</v>
+      </c>
+      <c r="CE24">
+        <v>0.9490243380559941</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
+        <v>1.455921648253885e-005</v>
+      </c>
+      <c r="CH24">
+        <v>0.7996298618094583</v>
+      </c>
+      <c r="CI24">
+        <v>0.003263272170218823</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CK24">
+        <v>0.003263805717967305</v>
+      </c>
+      <c r="CL24">
+        <v>0.003262738622470285</v>
+      </c>
+      <c r="CM24">
+        <v>0</v>
+      </c>
+      <c r="CN24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6599,6 +7919,60 @@
       <c r="BV25">
         <v>0</v>
       </c>
+      <c r="BW25">
+        <v>0.05777607567358303</v>
+      </c>
+      <c r="BX25">
+        <v>-0.2062797082635914</v>
+      </c>
+      <c r="BY25">
+        <v>0.3218318596107574</v>
+      </c>
+      <c r="BZ25">
+        <v>0.1900819153612982</v>
+      </c>
+      <c r="CA25">
+        <v>0.6680359596682682</v>
+      </c>
+      <c r="CB25">
+        <v>1.208614706999175e-006</v>
+      </c>
+      <c r="CC25">
+        <v>0.04964754119960158</v>
+      </c>
+      <c r="CD25">
+        <v>-0.2106361187572612</v>
+      </c>
+      <c r="CE25">
+        <v>0.3099312011564644</v>
+      </c>
+      <c r="CF25">
+        <v>0.1660714107016625</v>
+      </c>
+      <c r="CG25">
+        <v>0.7085149274359585</v>
+      </c>
+      <c r="CH25">
+        <v>0.0001463626769408252</v>
+      </c>
+      <c r="CI25">
+        <v>0.008128534473981451</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CK25">
+        <v>-0.004356410493669888</v>
+      </c>
+      <c r="CL25">
+        <v>0.011900658454293</v>
+      </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>0.02401050465963567</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6845,6 +8219,60 @@
       <c r="BV26">
         <v>0</v>
       </c>
+      <c r="BW26">
+        <v>0.4454657135131774</v>
+      </c>
+      <c r="BX26">
+        <v>0.2875820520918239</v>
+      </c>
+      <c r="BY26">
+        <v>0.603349374934531</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>3.202295485940333e-008</v>
+      </c>
+      <c r="CB26">
+        <v>0.7877067667673321</v>
+      </c>
+      <c r="CC26">
+        <v>0.4650927523594631</v>
+      </c>
+      <c r="CD26">
+        <v>0.2997660898945778</v>
+      </c>
+      <c r="CE26">
+        <v>0.6304194148243485</v>
+      </c>
+      <c r="CF26">
+        <v>0.001932430996318081</v>
+      </c>
+      <c r="CG26">
+        <v>3.513259500914458e-008</v>
+      </c>
+      <c r="CH26">
+        <v>0.3890470617961663</v>
+      </c>
+      <c r="CI26">
+        <v>-0.01962703884628569</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
+        <v>-0.0121840378027539</v>
+      </c>
+      <c r="CL26">
+        <v>-0.02707003988981749</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>-0.001932430996318081</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7091,6 +8519,60 @@
       <c r="BV27">
         <v>0</v>
       </c>
+      <c r="BW27">
+        <v>0.245715797277975</v>
+      </c>
+      <c r="BX27">
+        <v>0.189056049055809</v>
+      </c>
+      <c r="BY27">
+        <v>0.302375545500141</v>
+      </c>
+      <c r="BZ27">
+        <v>0.01274329932964601</v>
+      </c>
+      <c r="CA27">
+        <v>1.899873638192926e-017</v>
+      </c>
+      <c r="CB27">
+        <v>5.128538448111693e-016</v>
+      </c>
+      <c r="CC27">
+        <v>0.2460973855306017</v>
+      </c>
+      <c r="CD27">
+        <v>0.1881592605470259</v>
+      </c>
+      <c r="CE27">
+        <v>0.3040355105141775</v>
+      </c>
+      <c r="CF27">
+        <v>0.01352630331777505</v>
+      </c>
+      <c r="CG27">
+        <v>8.424127984830247e-017</v>
+      </c>
+      <c r="CH27">
+        <v>3.810361338156589e-017</v>
+      </c>
+      <c r="CI27">
+        <v>-0.0003815882526267411</v>
+      </c>
+      <c r="CJ27">
+        <v>0</v>
+      </c>
+      <c r="CK27">
+        <v>0.0008967885087830529</v>
+      </c>
+      <c r="CL27">
+        <v>-0.001659965014036535</v>
+      </c>
+      <c r="CM27">
+        <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>-0.0007830039881290413</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7337,6 +8819,60 @@
       <c r="BV28">
         <v>0</v>
       </c>
+      <c r="BW28">
+        <v>0.411101741182921</v>
+      </c>
+      <c r="BX28">
+        <v>0.3343090464197358</v>
+      </c>
+      <c r="BY28">
+        <v>0.4878944359461063</v>
+      </c>
+      <c r="BZ28">
+        <v>0.01933970781488227</v>
+      </c>
+      <c r="CA28">
+        <v>9.355596121748532e-026</v>
+      </c>
+      <c r="CB28">
+        <v>2.833902358746293e-010</v>
+      </c>
+      <c r="CC28">
+        <v>0.4106611359235461</v>
+      </c>
+      <c r="CD28">
+        <v>0.3334244349003181</v>
+      </c>
+      <c r="CE28">
+        <v>0.4878978369467742</v>
+      </c>
+      <c r="CF28">
+        <v>0.01965058251717087</v>
+      </c>
+      <c r="CG28">
+        <v>1.989223702184797e-025</v>
+      </c>
+      <c r="CH28">
+        <v>1.939959339030204e-010</v>
+      </c>
+      <c r="CI28">
+        <v>0.0004406052593748933</v>
+      </c>
+      <c r="CJ28">
+        <v>0</v>
+      </c>
+      <c r="CK28">
+        <v>0.0008846115194177107</v>
+      </c>
+      <c r="CL28">
+        <v>-3.401000667924148e-006</v>
+      </c>
+      <c r="CM28">
+        <v>0</v>
+      </c>
+      <c r="CN28">
+        <v>-0.0003108747022885945</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7584,6 +9120,60 @@
       <c r="BV29">
         <v>0</v>
       </c>
+      <c r="BW29">
+        <v>0.1071357576990238</v>
+      </c>
+      <c r="BX29">
+        <v>-0.0408927671371043</v>
+      </c>
+      <c r="BY29">
+        <v>0.255164282535152</v>
+      </c>
+      <c r="BZ29">
+        <v>0.07297412276062459</v>
+      </c>
+      <c r="CA29">
+        <v>0.1560374202405891</v>
+      </c>
+      <c r="CB29">
+        <v>7.071969915392524e-013</v>
+      </c>
+      <c r="CC29">
+        <v>0.08272662351989543</v>
+      </c>
+      <c r="CD29">
+        <v>-0.057966319836699</v>
+      </c>
+      <c r="CE29">
+        <v>0.2234195668764899</v>
+      </c>
+      <c r="CF29">
+        <v>0.06066632830763113</v>
+      </c>
+      <c r="CG29">
+        <v>0.2491373138217279</v>
+      </c>
+      <c r="CH29">
+        <v>2.625325767063914e-009</v>
+      </c>
+      <c r="CI29">
+        <v>0.02440913417912841</v>
+      </c>
+      <c r="CJ29">
+        <v>0</v>
+      </c>
+      <c r="CK29">
+        <v>-0.01707355269959471</v>
+      </c>
+      <c r="CL29">
+        <v>0.03174471565866213</v>
+      </c>
+      <c r="CM29">
+        <v>1</v>
+      </c>
+      <c r="CN29">
+        <v>0.01230779445299347</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7836,6 +9426,60 @@
       <c r="BV30">
         <v>0</v>
       </c>
+      <c r="BW30">
+        <v>0.1373424561305737</v>
+      </c>
+      <c r="BX30">
+        <v>0.05921254222973722</v>
+      </c>
+      <c r="BY30">
+        <v>0.2154723700314102</v>
+      </c>
+      <c r="BZ30">
+        <v>0.006330427501697535</v>
+      </c>
+      <c r="CA30">
+        <v>0.0005702834389282293</v>
+      </c>
+      <c r="CB30">
+        <v>0.04329240574782205</v>
+      </c>
+      <c r="CC30">
+        <v>0.1417659109759833</v>
+      </c>
+      <c r="CD30">
+        <v>0.06580801207647997</v>
+      </c>
+      <c r="CE30">
+        <v>0.2177238098754866</v>
+      </c>
+      <c r="CF30">
+        <v>0.005528351448378167</v>
+      </c>
+      <c r="CG30">
+        <v>0.0002541638241584272</v>
+      </c>
+      <c r="CH30">
+        <v>0.05833207323438508</v>
+      </c>
+      <c r="CI30">
+        <v>-0.004423454845409569</v>
+      </c>
+      <c r="CJ30">
+        <v>0</v>
+      </c>
+      <c r="CK30">
+        <v>-0.006595469846742752</v>
+      </c>
+      <c r="CL30">
+        <v>-0.002251439844076386</v>
+      </c>
+      <c r="CM30">
+        <v>0</v>
+      </c>
+      <c r="CN30">
+        <v>0.0008020760533193677</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8082,6 +9726,60 @@
       <c r="BV31">
         <v>0</v>
       </c>
+      <c r="BW31">
+        <v>0.7016378061446043</v>
+      </c>
+      <c r="BX31">
+        <v>0.4550350611045408</v>
+      </c>
+      <c r="BY31">
+        <v>0.9482405511846677</v>
+      </c>
+      <c r="BZ31">
+        <v>0.1447802563858403</v>
+      </c>
+      <c r="CA31">
+        <v>2.453794846309871e-008</v>
+      </c>
+      <c r="CB31">
+        <v>0.0002246938437817826</v>
+      </c>
+      <c r="CC31">
+        <v>0.6888069845112154</v>
+      </c>
+      <c r="CD31">
+        <v>0.3962526524315893</v>
+      </c>
+      <c r="CE31">
+        <v>0.9813613165908415</v>
+      </c>
+      <c r="CF31">
+        <v>0.2305540123782017</v>
+      </c>
+      <c r="CG31">
+        <v>3.937516114224124e-006</v>
+      </c>
+      <c r="CH31">
+        <v>4.42563582580291e-006</v>
+      </c>
+      <c r="CI31">
+        <v>0.01283082163338889</v>
+      </c>
+      <c r="CJ31">
+        <v>0</v>
+      </c>
+      <c r="CK31">
+        <v>0.05878240867295148</v>
+      </c>
+      <c r="CL31">
+        <v>-0.03312076540617381</v>
+      </c>
+      <c r="CM31">
+        <v>1</v>
+      </c>
+      <c r="CN31">
+        <v>-0.08577375599236142</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8330,6 +10028,60 @@
       <c r="BV32">
         <v>0</v>
       </c>
+      <c r="BW32">
+        <v>0.6481691109060378</v>
+      </c>
+      <c r="BX32">
+        <v>0.5263045062213746</v>
+      </c>
+      <c r="BY32">
+        <v>0.770033715590701</v>
+      </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>1.914904299377971e-025</v>
+      </c>
+      <c r="CB32">
+        <v>0.01871308866204621</v>
+      </c>
+      <c r="CC32">
+        <v>0.7120079808242804</v>
+      </c>
+      <c r="CD32">
+        <v>0.5901435516410586</v>
+      </c>
+      <c r="CE32">
+        <v>0.8338724100075022</v>
+      </c>
+      <c r="CF32">
+        <v>0</v>
+      </c>
+      <c r="CG32">
+        <v>2.315605209567172e-030</v>
+      </c>
+      <c r="CH32">
+        <v>1.733718499190349e-007</v>
+      </c>
+      <c r="CI32">
+        <v>-0.06383886991824261</v>
+      </c>
+      <c r="CJ32">
+        <v>1</v>
+      </c>
+      <c r="CK32">
+        <v>-0.06383904541968399</v>
+      </c>
+      <c r="CL32">
+        <v>-0.06383869441680123</v>
+      </c>
+      <c r="CM32">
+        <v>1</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8576,6 +10328,60 @@
       <c r="BV33">
         <v>0</v>
       </c>
+      <c r="BW33">
+        <v>0.05724883004000527</v>
+      </c>
+      <c r="BX33">
+        <v>-0.0970741293614876</v>
+      </c>
+      <c r="BY33">
+        <v>0.2115717894414982</v>
+      </c>
+      <c r="BZ33">
+        <v>0.01802706458308144</v>
+      </c>
+      <c r="CA33">
+        <v>0.4671749345223419</v>
+      </c>
+      <c r="CB33">
+        <v>0.01049867426919341</v>
+      </c>
+      <c r="CC33">
+        <v>0.05764215066197881</v>
+      </c>
+      <c r="CD33">
+        <v>-0.110113933027902</v>
+      </c>
+      <c r="CE33">
+        <v>0.2253982343518596</v>
+      </c>
+      <c r="CF33">
+        <v>0.02131703579712649</v>
+      </c>
+      <c r="CG33">
+        <v>0.5006564807915782</v>
+      </c>
+      <c r="CH33">
+        <v>0.01050201016417746</v>
+      </c>
+      <c r="CI33">
+        <v>-0.0003933206219735377</v>
+      </c>
+      <c r="CJ33">
+        <v>0</v>
+      </c>
+      <c r="CK33">
+        <v>-0.01303980366641441</v>
+      </c>
+      <c r="CL33">
+        <v>-0.01382644491036147</v>
+      </c>
+      <c r="CM33">
+        <v>0</v>
+      </c>
+      <c r="CN33">
+        <v>-0.003289971214045055</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8821,6 +10627,60 @@
       </c>
       <c r="BV34">
         <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0.06821606300624077</v>
+      </c>
+      <c r="BX34">
+        <v>-0.03258480909093028</v>
+      </c>
+      <c r="BY34">
+        <v>0.167643173321367</v>
+      </c>
+      <c r="BZ34">
+        <v>0.02258203410149158</v>
+      </c>
+      <c r="CA34">
+        <v>0.184541071953189</v>
+      </c>
+      <c r="CB34">
+        <v>3.326166487336767e-007</v>
+      </c>
+      <c r="CC34">
+        <v>0.06786174736907383</v>
+      </c>
+      <c r="CD34">
+        <v>-0.03332370988898327</v>
+      </c>
+      <c r="CE34">
+        <v>0.1676701696782856</v>
+      </c>
+      <c r="CF34">
+        <v>0.02280223243774495</v>
+      </c>
+      <c r="CG34">
+        <v>0.1885137275649342</v>
+      </c>
+      <c r="CH34">
+        <v>2.826370488737467e-007</v>
+      </c>
+      <c r="CI34">
+        <v>0.0003543156371669382</v>
+      </c>
+      <c r="CJ34">
+        <v>0</v>
+      </c>
+      <c r="CK34">
+        <v>-0.0007389007980529924</v>
+      </c>
+      <c r="CL34">
+        <v>-2.699635691860713e-005</v>
+      </c>
+      <c r="CM34">
+        <v>0</v>
+      </c>
+      <c r="CN34">
+        <v>-0.0002201983362533702</v>
       </c>
     </row>
   </sheetData>
